--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="373">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -805,6 +805,15 @@
     <t>['13', '45', '60', '69', '83']</t>
   </si>
   <si>
+    <t>['50', '89']</t>
+  </si>
+  <si>
+    <t>['4', '56']</t>
+  </si>
+  <si>
+    <t>['8', '36', '74']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -1112,6 +1121,18 @@
   </si>
   <si>
     <t>['16', '81']</t>
+  </si>
+  <si>
+    <t>['41', '59']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['21', '52']</t>
+  </si>
+  <si>
+    <t>['5', '17', '50']</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1753,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1810,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2016,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2144,7 +2165,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2222,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -2428,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0.87</v>
@@ -2843,7 +2864,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ7">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2968,7 +2989,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3046,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ8">
         <v>1.73</v>
@@ -3380,7 +3401,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3870,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3998,7 +4019,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4616,7 +4637,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4697,7 +4718,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4822,7 +4843,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5109,7 +5130,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5518,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ20">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5724,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
         <v>1.73</v>
@@ -5852,7 +5873,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -6136,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -6264,7 +6285,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6342,7 +6363,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6757,7 +6778,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -6960,7 +6981,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>1.6</v>
@@ -7088,7 +7109,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7372,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -7784,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ31">
         <v>1.2</v>
@@ -7993,7 +8014,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -8405,7 +8426,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ34">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8530,7 +8551,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8611,7 +8632,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8736,7 +8757,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8942,7 +8963,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9148,7 +9169,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9229,7 +9250,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -9354,7 +9375,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9435,7 +9456,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9766,7 +9787,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9972,7 +9993,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -10050,10 +10071,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -10178,7 +10199,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10462,7 +10483,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -10668,7 +10689,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.93</v>
@@ -11080,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ47">
         <v>0.53</v>
@@ -11289,7 +11310,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11495,7 +11516,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ49">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11701,7 +11722,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -12110,10 +12131,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR52">
         <v>1.34</v>
@@ -12316,7 +12337,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53">
         <v>0.87</v>
@@ -12444,7 +12465,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12522,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54">
         <v>0.87</v>
@@ -12650,7 +12671,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -13062,7 +13083,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13140,10 +13161,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -13474,7 +13495,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13680,7 +13701,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13758,10 +13779,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -14092,7 +14113,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -14298,7 +14319,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -15200,10 +15221,10 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ67">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -15328,7 +15349,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15409,7 +15430,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15534,7 +15555,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15612,10 +15633,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ69">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -15740,7 +15761,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15818,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ70">
         <v>1.6</v>
@@ -16024,10 +16045,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -16152,7 +16173,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16358,7 +16379,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16439,7 +16460,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -16564,7 +16585,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16645,7 +16666,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16770,7 +16791,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16976,7 +16997,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17054,7 +17075,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ76">
         <v>1.2</v>
@@ -17594,7 +17615,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17672,7 +17693,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17800,7 +17821,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18006,7 +18027,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18496,7 +18517,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ83">
         <v>0.87</v>
@@ -18830,7 +18851,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -19036,7 +19057,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19320,10 +19341,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ87">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19529,7 +19550,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ88">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19735,7 +19756,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR89">
         <v>1.72</v>
@@ -19860,7 +19881,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19938,10 +19959,10 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ90">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -20147,7 +20168,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -20272,7 +20293,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20350,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ92">
         <v>0.93</v>
@@ -20890,7 +20911,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -21096,7 +21117,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21177,7 +21198,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR96">
         <v>1.65</v>
@@ -21380,7 +21401,7 @@
         <v>2.4</v>
       </c>
       <c r="AP97">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.73</v>
@@ -21508,7 +21529,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21998,7 +22019,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ100">
         <v>0.53</v>
@@ -22616,7 +22637,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ103">
         <v>1.6</v>
@@ -22744,7 +22765,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22825,7 +22846,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -23031,7 +23052,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23234,7 +23255,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ106">
         <v>0.87</v>
@@ -23443,7 +23464,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR107">
         <v>1.74</v>
@@ -23568,7 +23589,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23646,7 +23667,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ108">
         <v>1.73</v>
@@ -23852,10 +23873,10 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -24392,7 +24413,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24470,7 +24491,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ112">
         <v>0.87</v>
@@ -24676,7 +24697,7 @@
         <v>1.4</v>
       </c>
       <c r="AP113">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ113">
         <v>0.93</v>
@@ -24804,7 +24825,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24885,7 +24906,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR114">
         <v>1.28</v>
@@ -25216,7 +25237,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25297,7 +25318,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ116">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -25628,7 +25649,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25915,7 +25936,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -26118,7 +26139,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120">
         <v>1.73</v>
@@ -26246,7 +26267,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26324,10 +26345,10 @@
         <v>1.14</v>
       </c>
       <c r="AP121">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
         <v>1.35</v>
@@ -27354,7 +27375,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ126">
         <v>0.8</v>
@@ -27560,7 +27581,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ127">
         <v>0.87</v>
@@ -27769,7 +27790,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ128">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR128">
         <v>1.83</v>
@@ -27975,7 +27996,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ129">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR129">
         <v>0.99</v>
@@ -28181,7 +28202,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR130">
         <v>1.89</v>
@@ -28796,7 +28817,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ133">
         <v>0.53</v>
@@ -28924,7 +28945,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29130,7 +29151,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29208,7 +29229,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ135">
         <v>1.73</v>
@@ -29623,7 +29644,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ137">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR137">
         <v>1.66</v>
@@ -30035,7 +30056,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ139">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -30238,10 +30259,10 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR140">
         <v>1.24</v>
@@ -30366,7 +30387,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30444,7 +30465,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>1.38</v>
@@ -30859,7 +30880,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -31190,7 +31211,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31268,7 +31289,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ145">
         <v>0.53</v>
@@ -31396,7 +31417,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31602,7 +31623,7 @@
         <v>129</v>
       </c>
       <c r="P147" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31680,7 +31701,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ147">
         <v>1.25</v>
@@ -31808,7 +31829,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32014,7 +32035,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32092,10 +32113,10 @@
         <v>0.88</v>
       </c>
       <c r="AP149">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR149">
         <v>1.68</v>
@@ -32298,7 +32319,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ150">
         <v>0.93</v>
@@ -32426,7 +32447,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32507,7 +32528,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ151">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR151">
         <v>1.79</v>
@@ -32713,7 +32734,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ152">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR152">
         <v>1.6</v>
@@ -32838,7 +32859,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -33122,7 +33143,7 @@
         <v>1.13</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ154">
         <v>1.6</v>
@@ -33662,7 +33683,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33743,7 +33764,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ157">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR157">
         <v>1.86</v>
@@ -33868,7 +33889,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q158">
         <v>2.55</v>
@@ -33946,7 +33967,7 @@
         <v>1.11</v>
       </c>
       <c r="AP158">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ158">
         <v>0.87</v>
@@ -34074,7 +34095,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q159">
         <v>3.3</v>
@@ -34155,7 +34176,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ159">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR159">
         <v>1.45</v>
@@ -34280,7 +34301,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q160">
         <v>2.75</v>
@@ -34358,10 +34379,10 @@
         <v>0.5</v>
       </c>
       <c r="AP160">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR160">
         <v>1.38</v>
@@ -35185,7 +35206,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR164">
         <v>1.64</v>
@@ -35391,7 +35412,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ165">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR165">
         <v>1.13</v>
@@ -35594,7 +35615,7 @@
         <v>0.89</v>
       </c>
       <c r="AP166">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>0.87</v>
@@ -35722,7 +35743,7 @@
         <v>109</v>
       </c>
       <c r="P167" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>3.35</v>
@@ -35803,7 +35824,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ167">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR167">
         <v>1.14</v>
@@ -36006,7 +36027,7 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ168">
         <v>0.53</v>
@@ -36134,7 +36155,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>2.8</v>
@@ -36212,7 +36233,7 @@
         <v>1.56</v>
       </c>
       <c r="AP169">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ169">
         <v>1.38</v>
@@ -36340,7 +36361,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36624,7 +36645,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ171">
         <v>1.6</v>
@@ -36752,7 +36773,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q172">
         <v>2.63</v>
@@ -36958,7 +36979,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q173">
         <v>2.3</v>
@@ -37245,7 +37266,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ174">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
         <v>1.67</v>
@@ -37654,10 +37675,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ176">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR176">
         <v>1.28</v>
@@ -37863,7 +37884,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR177">
         <v>1.6</v>
@@ -37988,7 +38009,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38066,10 +38087,10 @@
         <v>1.33</v>
       </c>
       <c r="AP178">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ178">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR178">
         <v>1.34</v>
@@ -38400,7 +38421,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>2.2</v>
@@ -38606,7 +38627,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q181">
         <v>3.25</v>
@@ -38890,10 +38911,10 @@
         <v>1.22</v>
       </c>
       <c r="AP182">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ182">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR182">
         <v>1.62</v>
@@ -39099,7 +39120,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
         <v>1.2</v>
@@ -39302,7 +39323,7 @@
         <v>1.4</v>
       </c>
       <c r="AP184">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>1.25</v>
@@ -39842,7 +39863,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q187">
         <v>2.55</v>
@@ -39920,7 +39941,7 @@
         <v>0.4</v>
       </c>
       <c r="AP187">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ187">
         <v>0.8</v>
@@ -40048,7 +40069,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q188">
         <v>4.5</v>
@@ -40666,7 +40687,7 @@
         <v>90</v>
       </c>
       <c r="P191" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40744,7 +40765,7 @@
         <v>1.27</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ191">
         <v>1.25</v>
@@ -40872,7 +40893,7 @@
         <v>90</v>
       </c>
       <c r="P192" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q192">
         <v>3.25</v>
@@ -41365,7 +41386,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ194">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR194">
         <v>1.83</v>
@@ -41490,7 +41511,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41571,7 +41592,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ195">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR195">
         <v>1.02</v>
@@ -41696,7 +41717,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q196">
         <v>3.65</v>
@@ -41774,10 +41795,10 @@
         <v>1.5</v>
       </c>
       <c r="AP196">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ196">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR196">
         <v>1.27</v>
@@ -41902,7 +41923,7 @@
         <v>218</v>
       </c>
       <c r="P197" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q197">
         <v>1.94</v>
@@ -42314,7 +42335,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42392,7 +42413,7 @@
         <v>1.2</v>
       </c>
       <c r="AP199">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ199">
         <v>1.2</v>
@@ -42598,7 +42619,7 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ200">
         <v>0.87</v>
@@ -43013,7 +43034,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ202">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR202">
         <v>1.2</v>
@@ -43216,7 +43237,7 @@
         <v>1.45</v>
       </c>
       <c r="AP203">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ203">
         <v>1.38</v>
@@ -43344,7 +43365,7 @@
         <v>160</v>
       </c>
       <c r="P204" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43422,10 +43443,10 @@
         <v>0.7</v>
       </c>
       <c r="AP204">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ204">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR204">
         <v>1.59</v>
@@ -43550,7 +43571,7 @@
         <v>90</v>
       </c>
       <c r="P205" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43631,7 +43652,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR205">
         <v>1.62</v>
@@ -43834,7 +43855,7 @@
         <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ206">
         <v>1.73</v>
@@ -43962,7 +43983,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>3.8</v>
@@ -44867,7 +44888,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ211">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR211">
         <v>1.79</v>
@@ -45070,7 +45091,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ212">
         <v>0.93</v>
@@ -45198,7 +45219,7 @@
         <v>226</v>
       </c>
       <c r="P213" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45279,7 +45300,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ213">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR213">
         <v>1.24</v>
@@ -45610,7 +45631,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q215">
         <v>2.95</v>
@@ -45688,10 +45709,10 @@
         <v>0.83</v>
       </c>
       <c r="AP215">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ215">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR215">
         <v>1.26</v>
@@ -45816,7 +45837,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q216">
         <v>1.96</v>
@@ -46309,7 +46330,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR218">
         <v>1.63</v>
@@ -46434,7 +46455,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q219">
         <v>4.3</v>
@@ -46718,10 +46739,10 @@
         <v>1.27</v>
       </c>
       <c r="AP220">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ220">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR220">
         <v>1.27</v>
@@ -47052,7 +47073,7 @@
         <v>90</v>
       </c>
       <c r="P222" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47130,7 +47151,7 @@
         <v>0.36</v>
       </c>
       <c r="AP222">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ222">
         <v>0.53</v>
@@ -47258,7 +47279,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q223">
         <v>3.65</v>
@@ -47339,7 +47360,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ223">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR223">
         <v>1.28</v>
@@ -47464,7 +47485,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q224">
         <v>5.2</v>
@@ -47542,7 +47563,7 @@
         <v>1.45</v>
       </c>
       <c r="AP224">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ224">
         <v>1.73</v>
@@ -47751,7 +47772,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ225">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR225">
         <v>1.82</v>
@@ -47876,7 +47897,7 @@
         <v>221</v>
       </c>
       <c r="P226" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q226">
         <v>4.4</v>
@@ -47954,7 +47975,7 @@
         <v>1.36</v>
       </c>
       <c r="AP226">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ226">
         <v>1.2</v>
@@ -48082,7 +48103,7 @@
         <v>234</v>
       </c>
       <c r="P227" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q227">
         <v>2.7</v>
@@ -48369,7 +48390,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ228">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR228">
         <v>1.77</v>
@@ -48700,7 +48721,7 @@
         <v>90</v>
       </c>
       <c r="P230" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q230">
         <v>3.04</v>
@@ -48781,7 +48802,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ230">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -48984,7 +49005,7 @@
         <v>1.46</v>
       </c>
       <c r="AP231">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ231">
         <v>1.38</v>
@@ -49318,7 +49339,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49524,7 +49545,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q234">
         <v>1.85</v>
@@ -49936,7 +49957,7 @@
         <v>241</v>
       </c>
       <c r="P236" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q236">
         <v>3.7</v>
@@ -50017,7 +50038,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ236">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR236">
         <v>1.04</v>
@@ -50220,10 +50241,10 @@
         <v>0.83</v>
       </c>
       <c r="AP237">
+        <v>0.88</v>
+      </c>
+      <c r="AQ237">
         <v>0.93</v>
-      </c>
-      <c r="AQ237">
-        <v>1</v>
       </c>
       <c r="AR237">
         <v>1.37</v>
@@ -50429,7 +50450,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ238">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR238">
         <v>1.36</v>
@@ -50554,7 +50575,7 @@
         <v>243</v>
       </c>
       <c r="P239" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -50632,7 +50653,7 @@
         <v>0.92</v>
       </c>
       <c r="AP239">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ239">
         <v>0.87</v>
@@ -50838,7 +50859,7 @@
         <v>0.58</v>
       </c>
       <c r="AP240">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ240">
         <v>0.53</v>
@@ -51047,7 +51068,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ241">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR241">
         <v>1.72</v>
@@ -51172,7 +51193,7 @@
         <v>245</v>
       </c>
       <c r="P242" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51250,7 +51271,7 @@
         <v>1.58</v>
       </c>
       <c r="AP242">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ242">
         <v>1.73</v>
@@ -51456,7 +51477,7 @@
         <v>1.77</v>
       </c>
       <c r="AP243">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ243">
         <v>1.73</v>
@@ -51996,7 +52017,7 @@
         <v>114</v>
       </c>
       <c r="P246" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52077,7 +52098,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ246">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR246">
         <v>1.33</v>
@@ -52692,7 +52713,7 @@
         <v>0.54</v>
       </c>
       <c r="AP249">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AQ249">
         <v>0.53</v>
@@ -52901,7 +52922,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ250">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR250">
         <v>1.74</v>
@@ -53026,7 +53047,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q251">
         <v>4.75</v>
@@ -53438,7 +53459,7 @@
         <v>253</v>
       </c>
       <c r="P253" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q253">
         <v>2.2</v>
@@ -53725,7 +53746,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ254">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AR254">
         <v>1.79</v>
@@ -53928,7 +53949,7 @@
         <v>0.57</v>
       </c>
       <c r="AP255">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ255">
         <v>0.53</v>
@@ -54056,7 +54077,7 @@
         <v>194</v>
       </c>
       <c r="P256" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q256">
         <v>3.9</v>
@@ -54262,7 +54283,7 @@
         <v>133</v>
       </c>
       <c r="P257" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q257">
         <v>2.65</v>
@@ -54340,10 +54361,10 @@
         <v>0.85</v>
       </c>
       <c r="AP257">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AQ257">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR257">
         <v>1.28</v>
@@ -54674,7 +54695,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -54752,7 +54773,7 @@
         <v>1.69</v>
       </c>
       <c r="AP259">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ259">
         <v>1.73</v>
@@ -54961,7 +54982,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ260">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR260">
         <v>1.78</v>
@@ -55086,7 +55107,7 @@
         <v>258</v>
       </c>
       <c r="P261" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q261">
         <v>2.63</v>
@@ -55292,7 +55313,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55370,10 +55391,10 @@
         <v>1.57</v>
       </c>
       <c r="AP262">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ262">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AR262">
         <v>1.6</v>
@@ -55704,7 +55725,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -55988,7 +56009,7 @@
         <v>1.29</v>
       </c>
       <c r="AP265">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ265">
         <v>1.2</v>
@@ -56116,7 +56137,7 @@
         <v>261</v>
       </c>
       <c r="P266" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56528,7 +56549,7 @@
         <v>194</v>
       </c>
       <c r="P268" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q268">
         <v>7</v>
@@ -56734,7 +56755,7 @@
         <v>242</v>
       </c>
       <c r="P269" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q269">
         <v>3.9</v>
@@ -56940,7 +56961,7 @@
         <v>171</v>
       </c>
       <c r="P270" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q270">
         <v>5</v>
@@ -57146,7 +57167,7 @@
         <v>262</v>
       </c>
       <c r="P271" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q271">
         <v>2.3</v>
@@ -57303,6 +57324,1242 @@
       </c>
       <c r="BP271">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7469144</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>70</v>
+      </c>
+      <c r="H272" t="s">
+        <v>79</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>2</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>90</v>
+      </c>
+      <c r="P272" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q272">
+        <v>4</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
+        <v>3</v>
+      </c>
+      <c r="T272">
+        <v>1.5</v>
+      </c>
+      <c r="U272">
+        <v>2.5</v>
+      </c>
+      <c r="V272">
+        <v>3.4</v>
+      </c>
+      <c r="W272">
+        <v>1.3</v>
+      </c>
+      <c r="X272">
+        <v>10</v>
+      </c>
+      <c r="Y272">
+        <v>1.06</v>
+      </c>
+      <c r="Z272">
+        <v>3.08</v>
+      </c>
+      <c r="AA272">
+        <v>3.13</v>
+      </c>
+      <c r="AB272">
+        <v>2.35</v>
+      </c>
+      <c r="AC272">
+        <v>1.07</v>
+      </c>
+      <c r="AD272">
+        <v>8</v>
+      </c>
+      <c r="AE272">
+        <v>1.38</v>
+      </c>
+      <c r="AF272">
+        <v>2.95</v>
+      </c>
+      <c r="AG272">
+        <v>2.05</v>
+      </c>
+      <c r="AH272">
+        <v>1.61</v>
+      </c>
+      <c r="AI272">
+        <v>1.83</v>
+      </c>
+      <c r="AJ272">
+        <v>1.83</v>
+      </c>
+      <c r="AK272">
+        <v>1.61</v>
+      </c>
+      <c r="AL272">
+        <v>1.32</v>
+      </c>
+      <c r="AM272">
+        <v>1.33</v>
+      </c>
+      <c r="AN272">
+        <v>0.93</v>
+      </c>
+      <c r="AO272">
+        <v>1.07</v>
+      </c>
+      <c r="AP272">
+        <v>0.88</v>
+      </c>
+      <c r="AQ272">
+        <v>1.19</v>
+      </c>
+      <c r="AR272">
+        <v>1.41</v>
+      </c>
+      <c r="AS272">
+        <v>1.36</v>
+      </c>
+      <c r="AT272">
+        <v>2.77</v>
+      </c>
+      <c r="AU272">
+        <v>4</v>
+      </c>
+      <c r="AV272">
+        <v>5</v>
+      </c>
+      <c r="AW272">
+        <v>12</v>
+      </c>
+      <c r="AX272">
+        <v>9</v>
+      </c>
+      <c r="AY272">
+        <v>16</v>
+      </c>
+      <c r="AZ272">
+        <v>14</v>
+      </c>
+      <c r="BA272">
+        <v>6</v>
+      </c>
+      <c r="BB272">
+        <v>1</v>
+      </c>
+      <c r="BC272">
+        <v>7</v>
+      </c>
+      <c r="BD272">
+        <v>2.02</v>
+      </c>
+      <c r="BE272">
+        <v>6.4</v>
+      </c>
+      <c r="BF272">
+        <v>1.95</v>
+      </c>
+      <c r="BG272">
+        <v>1.38</v>
+      </c>
+      <c r="BH272">
+        <v>2.8</v>
+      </c>
+      <c r="BI272">
+        <v>1.64</v>
+      </c>
+      <c r="BJ272">
+        <v>2.1</v>
+      </c>
+      <c r="BK272">
+        <v>2.02</v>
+      </c>
+      <c r="BL272">
+        <v>1.7</v>
+      </c>
+      <c r="BM272">
+        <v>2.55</v>
+      </c>
+      <c r="BN272">
+        <v>1.44</v>
+      </c>
+      <c r="BO272">
+        <v>3.4</v>
+      </c>
+      <c r="BP272">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7469141</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>72</v>
+      </c>
+      <c r="H273" t="s">
+        <v>74</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>263</v>
+      </c>
+      <c r="P273" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q273">
+        <v>2.38</v>
+      </c>
+      <c r="R273">
+        <v>2.2</v>
+      </c>
+      <c r="S273">
+        <v>5</v>
+      </c>
+      <c r="T273">
+        <v>1.4</v>
+      </c>
+      <c r="U273">
+        <v>2.75</v>
+      </c>
+      <c r="V273">
+        <v>3</v>
+      </c>
+      <c r="W273">
+        <v>1.36</v>
+      </c>
+      <c r="X273">
+        <v>8</v>
+      </c>
+      <c r="Y273">
+        <v>1.08</v>
+      </c>
+      <c r="Z273">
+        <v>1.73</v>
+      </c>
+      <c r="AA273">
+        <v>3.58</v>
+      </c>
+      <c r="AB273">
+        <v>4.7</v>
+      </c>
+      <c r="AC273">
+        <v>1.05</v>
+      </c>
+      <c r="AD273">
+        <v>9</v>
+      </c>
+      <c r="AE273">
+        <v>1.3</v>
+      </c>
+      <c r="AF273">
+        <v>3.35</v>
+      </c>
+      <c r="AG273">
+        <v>1.94</v>
+      </c>
+      <c r="AH273">
+        <v>1.8</v>
+      </c>
+      <c r="AI273">
+        <v>1.83</v>
+      </c>
+      <c r="AJ273">
+        <v>1.83</v>
+      </c>
+      <c r="AK273">
+        <v>1.19</v>
+      </c>
+      <c r="AL273">
+        <v>1.27</v>
+      </c>
+      <c r="AM273">
+        <v>2.05</v>
+      </c>
+      <c r="AN273">
+        <v>2.2</v>
+      </c>
+      <c r="AO273">
+        <v>1</v>
+      </c>
+      <c r="AP273">
+        <v>2.25</v>
+      </c>
+      <c r="AQ273">
+        <v>0.93</v>
+      </c>
+      <c r="AR273">
+        <v>1.61</v>
+      </c>
+      <c r="AS273">
+        <v>1.39</v>
+      </c>
+      <c r="AT273">
+        <v>3</v>
+      </c>
+      <c r="AU273">
+        <v>9</v>
+      </c>
+      <c r="AV273">
+        <v>2</v>
+      </c>
+      <c r="AW273">
+        <v>4</v>
+      </c>
+      <c r="AX273">
+        <v>3</v>
+      </c>
+      <c r="AY273">
+        <v>13</v>
+      </c>
+      <c r="AZ273">
+        <v>5</v>
+      </c>
+      <c r="BA273">
+        <v>7</v>
+      </c>
+      <c r="BB273">
+        <v>4</v>
+      </c>
+      <c r="BC273">
+        <v>11</v>
+      </c>
+      <c r="BD273">
+        <v>1.55</v>
+      </c>
+      <c r="BE273">
+        <v>6.75</v>
+      </c>
+      <c r="BF273">
+        <v>2.7</v>
+      </c>
+      <c r="BG273">
+        <v>1.36</v>
+      </c>
+      <c r="BH273">
+        <v>2.8</v>
+      </c>
+      <c r="BI273">
+        <v>1.63</v>
+      </c>
+      <c r="BJ273">
+        <v>2.15</v>
+      </c>
+      <c r="BK273">
+        <v>2</v>
+      </c>
+      <c r="BL273">
+        <v>1.71</v>
+      </c>
+      <c r="BM273">
+        <v>2.55</v>
+      </c>
+      <c r="BN273">
+        <v>1.45</v>
+      </c>
+      <c r="BO273">
+        <v>3.3</v>
+      </c>
+      <c r="BP273">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7469143</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>80</v>
+      </c>
+      <c r="H274" t="s">
+        <v>81</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>264</v>
+      </c>
+      <c r="P274" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q274">
+        <v>3</v>
+      </c>
+      <c r="R274">
+        <v>2.2</v>
+      </c>
+      <c r="S274">
+        <v>2.95</v>
+      </c>
+      <c r="T274">
+        <v>1.33</v>
+      </c>
+      <c r="U274">
+        <v>3</v>
+      </c>
+      <c r="V274">
+        <v>2.55</v>
+      </c>
+      <c r="W274">
+        <v>1.44</v>
+      </c>
+      <c r="X274">
+        <v>6.25</v>
+      </c>
+      <c r="Y274">
+        <v>1.1</v>
+      </c>
+      <c r="Z274">
+        <v>2.59</v>
+      </c>
+      <c r="AA274">
+        <v>3.6</v>
+      </c>
+      <c r="AB274">
+        <v>2.47</v>
+      </c>
+      <c r="AC274">
+        <v>1.04</v>
+      </c>
+      <c r="AD274">
+        <v>10</v>
+      </c>
+      <c r="AE274">
+        <v>1.25</v>
+      </c>
+      <c r="AF274">
+        <v>3.95</v>
+      </c>
+      <c r="AG274">
+        <v>1.82</v>
+      </c>
+      <c r="AH274">
+        <v>1.92</v>
+      </c>
+      <c r="AI274">
+        <v>1.62</v>
+      </c>
+      <c r="AJ274">
+        <v>2.15</v>
+      </c>
+      <c r="AK274">
+        <v>1.51</v>
+      </c>
+      <c r="AL274">
+        <v>1.27</v>
+      </c>
+      <c r="AM274">
+        <v>1.47</v>
+      </c>
+      <c r="AN274">
+        <v>1.5</v>
+      </c>
+      <c r="AO274">
+        <v>1</v>
+      </c>
+      <c r="AP274">
+        <v>1.6</v>
+      </c>
+      <c r="AQ274">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR274">
+        <v>1.28</v>
+      </c>
+      <c r="AS274">
+        <v>1.4</v>
+      </c>
+      <c r="AT274">
+        <v>2.68</v>
+      </c>
+      <c r="AU274">
+        <v>4</v>
+      </c>
+      <c r="AV274">
+        <v>6</v>
+      </c>
+      <c r="AW274">
+        <v>4</v>
+      </c>
+      <c r="AX274">
+        <v>10</v>
+      </c>
+      <c r="AY274">
+        <v>8</v>
+      </c>
+      <c r="AZ274">
+        <v>16</v>
+      </c>
+      <c r="BA274">
+        <v>1</v>
+      </c>
+      <c r="BB274">
+        <v>11</v>
+      </c>
+      <c r="BC274">
+        <v>12</v>
+      </c>
+      <c r="BD274">
+        <v>2.05</v>
+      </c>
+      <c r="BE274">
+        <v>6.4</v>
+      </c>
+      <c r="BF274">
+        <v>1.94</v>
+      </c>
+      <c r="BG274">
+        <v>1.32</v>
+      </c>
+      <c r="BH274">
+        <v>3.05</v>
+      </c>
+      <c r="BI274">
+        <v>1.55</v>
+      </c>
+      <c r="BJ274">
+        <v>2.25</v>
+      </c>
+      <c r="BK274">
+        <v>1.9</v>
+      </c>
+      <c r="BL274">
+        <v>1.8</v>
+      </c>
+      <c r="BM274">
+        <v>2.4</v>
+      </c>
+      <c r="BN274">
+        <v>1.49</v>
+      </c>
+      <c r="BO274">
+        <v>3.05</v>
+      </c>
+      <c r="BP274">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7469139</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>71</v>
+      </c>
+      <c r="H275" t="s">
+        <v>82</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>242</v>
+      </c>
+      <c r="P275" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q275">
+        <v>3.2</v>
+      </c>
+      <c r="R275">
+        <v>2</v>
+      </c>
+      <c r="S275">
+        <v>3.75</v>
+      </c>
+      <c r="T275">
+        <v>1.5</v>
+      </c>
+      <c r="U275">
+        <v>2.5</v>
+      </c>
+      <c r="V275">
+        <v>3.4</v>
+      </c>
+      <c r="W275">
+        <v>1.3</v>
+      </c>
+      <c r="X275">
+        <v>10</v>
+      </c>
+      <c r="Y275">
+        <v>1.06</v>
+      </c>
+      <c r="Z275">
+        <v>2.41</v>
+      </c>
+      <c r="AA275">
+        <v>3.1</v>
+      </c>
+      <c r="AB275">
+        <v>3.01</v>
+      </c>
+      <c r="AC275">
+        <v>1.09</v>
+      </c>
+      <c r="AD275">
+        <v>7</v>
+      </c>
+      <c r="AE275">
+        <v>1.42</v>
+      </c>
+      <c r="AF275">
+        <v>2.8</v>
+      </c>
+      <c r="AG275">
+        <v>2.15</v>
+      </c>
+      <c r="AH275">
+        <v>1.6</v>
+      </c>
+      <c r="AI275">
+        <v>1.91</v>
+      </c>
+      <c r="AJ275">
+        <v>1.8</v>
+      </c>
+      <c r="AK275">
+        <v>1.38</v>
+      </c>
+      <c r="AL275">
+        <v>1.33</v>
+      </c>
+      <c r="AM275">
+        <v>1.55</v>
+      </c>
+      <c r="AN275">
+        <v>1.73</v>
+      </c>
+      <c r="AO275">
+        <v>0.8</v>
+      </c>
+      <c r="AP275">
+        <v>1.69</v>
+      </c>
+      <c r="AQ275">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR275">
+        <v>1.3</v>
+      </c>
+      <c r="AS275">
+        <v>1.45</v>
+      </c>
+      <c r="AT275">
+        <v>2.75</v>
+      </c>
+      <c r="AU275">
+        <v>6</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>11</v>
+      </c>
+      <c r="AX275">
+        <v>10</v>
+      </c>
+      <c r="AY275">
+        <v>17</v>
+      </c>
+      <c r="AZ275">
+        <v>14</v>
+      </c>
+      <c r="BA275">
+        <v>9</v>
+      </c>
+      <c r="BB275">
+        <v>3</v>
+      </c>
+      <c r="BC275">
+        <v>12</v>
+      </c>
+      <c r="BD275">
+        <v>2.08</v>
+      </c>
+      <c r="BE275">
+        <v>6.25</v>
+      </c>
+      <c r="BF275">
+        <v>1.92</v>
+      </c>
+      <c r="BG275">
+        <v>1.49</v>
+      </c>
+      <c r="BH275">
+        <v>2.4</v>
+      </c>
+      <c r="BI275">
+        <v>1.82</v>
+      </c>
+      <c r="BJ275">
+        <v>1.86</v>
+      </c>
+      <c r="BK275">
+        <v>2.32</v>
+      </c>
+      <c r="BL275">
+        <v>1.52</v>
+      </c>
+      <c r="BM275">
+        <v>3.05</v>
+      </c>
+      <c r="BN275">
+        <v>1.32</v>
+      </c>
+      <c r="BO275">
+        <v>4.1</v>
+      </c>
+      <c r="BP275">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7469137</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>73</v>
+      </c>
+      <c r="H276" t="s">
+        <v>75</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>3</v>
+      </c>
+      <c r="L276">
+        <v>3</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>5</v>
+      </c>
+      <c r="O276" t="s">
+        <v>265</v>
+      </c>
+      <c r="P276" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q276">
+        <v>4.75</v>
+      </c>
+      <c r="R276">
+        <v>2.1</v>
+      </c>
+      <c r="S276">
+        <v>2.5</v>
+      </c>
+      <c r="T276">
+        <v>1.44</v>
+      </c>
+      <c r="U276">
+        <v>2.63</v>
+      </c>
+      <c r="V276">
+        <v>3</v>
+      </c>
+      <c r="W276">
+        <v>1.36</v>
+      </c>
+      <c r="X276">
+        <v>9</v>
+      </c>
+      <c r="Y276">
+        <v>1.07</v>
+      </c>
+      <c r="Z276">
+        <v>3.99</v>
+      </c>
+      <c r="AA276">
+        <v>3.41</v>
+      </c>
+      <c r="AB276">
+        <v>1.9</v>
+      </c>
+      <c r="AC276">
+        <v>1.06</v>
+      </c>
+      <c r="AD276">
+        <v>8.5</v>
+      </c>
+      <c r="AE276">
+        <v>1.33</v>
+      </c>
+      <c r="AF276">
+        <v>3.3</v>
+      </c>
+      <c r="AG276">
+        <v>1.85</v>
+      </c>
+      <c r="AH276">
+        <v>1.89</v>
+      </c>
+      <c r="AI276">
+        <v>1.83</v>
+      </c>
+      <c r="AJ276">
+        <v>1.83</v>
+      </c>
+      <c r="AK276">
+        <v>1.9</v>
+      </c>
+      <c r="AL276">
+        <v>1.28</v>
+      </c>
+      <c r="AM276">
+        <v>1.23</v>
+      </c>
+      <c r="AN276">
+        <v>1.93</v>
+      </c>
+      <c r="AO276">
+        <v>1.47</v>
+      </c>
+      <c r="AP276">
+        <v>2</v>
+      </c>
+      <c r="AQ276">
+        <v>1.38</v>
+      </c>
+      <c r="AR276">
+        <v>1.54</v>
+      </c>
+      <c r="AS276">
+        <v>1.43</v>
+      </c>
+      <c r="AT276">
+        <v>2.97</v>
+      </c>
+      <c r="AU276">
+        <v>5</v>
+      </c>
+      <c r="AV276">
+        <v>5</v>
+      </c>
+      <c r="AW276">
+        <v>6</v>
+      </c>
+      <c r="AX276">
+        <v>11</v>
+      </c>
+      <c r="AY276">
+        <v>11</v>
+      </c>
+      <c r="AZ276">
+        <v>16</v>
+      </c>
+      <c r="BA276">
+        <v>2</v>
+      </c>
+      <c r="BB276">
+        <v>6</v>
+      </c>
+      <c r="BC276">
+        <v>8</v>
+      </c>
+      <c r="BD276">
+        <v>2.4</v>
+      </c>
+      <c r="BE276">
+        <v>6.4</v>
+      </c>
+      <c r="BF276">
+        <v>1.7</v>
+      </c>
+      <c r="BG276">
+        <v>1.41</v>
+      </c>
+      <c r="BH276">
+        <v>2.65</v>
+      </c>
+      <c r="BI276">
+        <v>1.68</v>
+      </c>
+      <c r="BJ276">
+        <v>2.05</v>
+      </c>
+      <c r="BK276">
+        <v>2.08</v>
+      </c>
+      <c r="BL276">
+        <v>1.66</v>
+      </c>
+      <c r="BM276">
+        <v>2.65</v>
+      </c>
+      <c r="BN276">
+        <v>1.41</v>
+      </c>
+      <c r="BO276">
+        <v>3.55</v>
+      </c>
+      <c r="BP276">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7469136</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45765.625</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>76</v>
+      </c>
+      <c r="H277" t="s">
+        <v>77</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>2</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>3</v>
+      </c>
+      <c r="N277">
+        <v>3</v>
+      </c>
+      <c r="O277" t="s">
+        <v>90</v>
+      </c>
+      <c r="P277" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q277">
+        <v>2.1</v>
+      </c>
+      <c r="R277">
+        <v>2.3</v>
+      </c>
+      <c r="S277">
+        <v>5.5</v>
+      </c>
+      <c r="T277">
+        <v>1.36</v>
+      </c>
+      <c r="U277">
+        <v>3</v>
+      </c>
+      <c r="V277">
+        <v>2.63</v>
+      </c>
+      <c r="W277">
+        <v>1.44</v>
+      </c>
+      <c r="X277">
+        <v>7</v>
+      </c>
+      <c r="Y277">
+        <v>1.1</v>
+      </c>
+      <c r="Z277">
+        <v>1.52</v>
+      </c>
+      <c r="AA277">
+        <v>4.33</v>
+      </c>
+      <c r="AB277">
+        <v>5.5</v>
+      </c>
+      <c r="AC277">
+        <v>1.04</v>
+      </c>
+      <c r="AD277">
+        <v>10</v>
+      </c>
+      <c r="AE277">
+        <v>1.25</v>
+      </c>
+      <c r="AF277">
+        <v>3.85</v>
+      </c>
+      <c r="AG277">
+        <v>1.79</v>
+      </c>
+      <c r="AH277">
+        <v>1.95</v>
+      </c>
+      <c r="AI277">
+        <v>1.83</v>
+      </c>
+      <c r="AJ277">
+        <v>1.83</v>
+      </c>
+      <c r="AK277">
+        <v>1.15</v>
+      </c>
+      <c r="AL277">
+        <v>1.22</v>
+      </c>
+      <c r="AM277">
+        <v>2.35</v>
+      </c>
+      <c r="AN277">
+        <v>0.87</v>
+      </c>
+      <c r="AO277">
+        <v>1.21</v>
+      </c>
+      <c r="AP277">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ277">
+        <v>1.33</v>
+      </c>
+      <c r="AR277">
+        <v>1.31</v>
+      </c>
+      <c r="AS277">
+        <v>1.06</v>
+      </c>
+      <c r="AT277">
+        <v>2.37</v>
+      </c>
+      <c r="AU277">
+        <v>3</v>
+      </c>
+      <c r="AV277">
+        <v>6</v>
+      </c>
+      <c r="AW277">
+        <v>15</v>
+      </c>
+      <c r="AX277">
+        <v>5</v>
+      </c>
+      <c r="AY277">
+        <v>18</v>
+      </c>
+      <c r="AZ277">
+        <v>11</v>
+      </c>
+      <c r="BA277">
+        <v>10</v>
+      </c>
+      <c r="BB277">
+        <v>2</v>
+      </c>
+      <c r="BC277">
+        <v>12</v>
+      </c>
+      <c r="BD277">
+        <v>1.4</v>
+      </c>
+      <c r="BE277">
+        <v>7</v>
+      </c>
+      <c r="BF277">
+        <v>3.4</v>
+      </c>
+      <c r="BG277">
+        <v>1.35</v>
+      </c>
+      <c r="BH277">
+        <v>2.9</v>
+      </c>
+      <c r="BI277">
+        <v>1.6</v>
+      </c>
+      <c r="BJ277">
+        <v>2.17</v>
+      </c>
+      <c r="BK277">
+        <v>1.98</v>
+      </c>
+      <c r="BL277">
+        <v>1.73</v>
+      </c>
+      <c r="BM277">
+        <v>2.48</v>
+      </c>
+      <c r="BN277">
+        <v>1.47</v>
+      </c>
+      <c r="BO277">
+        <v>3.2</v>
+      </c>
+      <c r="BP277">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -814,6 +814,12 @@
     <t>['8', '36', '74']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['8', '74']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -1133,6 +1139,9 @@
   </si>
   <si>
     <t>['5', '17', '50']</t>
+  </si>
+  <si>
+    <t>['32', '54']</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1753,7 +1762,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -2165,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2452,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2989,7 +2998,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3401,7 +3410,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3479,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ10">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4019,7 +4028,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4637,7 +4646,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4843,7 +4852,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4921,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ17">
         <v>1.2</v>
@@ -5873,7 +5882,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5954,7 +5963,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ22">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -6285,7 +6294,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6572,7 +6581,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ25">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -7109,7 +7118,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7187,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -7602,7 +7611,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ30">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -8551,7 +8560,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8757,7 +8766,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8835,7 +8844,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
         <v>1.73</v>
@@ -8963,7 +8972,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9169,7 +9178,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9375,7 +9384,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9787,7 +9796,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9993,7 +10002,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -10199,7 +10208,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10895,7 +10904,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ46">
         <v>1.6</v>
@@ -11513,7 +11522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11719,7 +11728,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ50">
         <v>1.38</v>
@@ -12340,7 +12349,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ53">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53">
         <v>1.76</v>
@@ -12465,7 +12474,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12546,7 +12555,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.19</v>
@@ -12671,7 +12680,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -13083,7 +13092,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13495,7 +13504,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13701,7 +13710,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -14113,7 +14122,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -14319,7 +14328,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14809,7 +14818,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ65">
         <v>1.38</v>
@@ -15018,7 +15027,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ66">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -15349,7 +15358,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15555,7 +15564,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15761,7 +15770,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16173,7 +16182,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16251,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ72">
         <v>0.53</v>
@@ -16379,7 +16388,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16585,7 +16594,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16791,7 +16800,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16997,7 +17006,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17615,7 +17624,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17821,7 +17830,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18027,7 +18036,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18314,7 +18323,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ82">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18520,7 +18529,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ83">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.6</v>
@@ -18851,7 +18860,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -19057,7 +19066,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19547,7 +19556,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ88">
         <v>1.38</v>
@@ -19753,7 +19762,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ89">
         <v>0.93</v>
@@ -19881,7 +19890,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -20293,7 +20302,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20911,7 +20920,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -21117,7 +21126,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21529,7 +21538,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22228,7 +22237,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ101">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
@@ -22765,7 +22774,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22843,7 +22852,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ104">
         <v>0.9399999999999999</v>
@@ -23258,7 +23267,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ106">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR106">
         <v>1.41</v>
@@ -23589,7 +23598,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -24413,7 +24422,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24494,7 +24503,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ112">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24825,7 +24834,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -25237,7 +25246,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25521,7 +25530,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ117">
         <v>0.53</v>
@@ -25649,7 +25658,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26267,7 +26276,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26760,7 +26769,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ123">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.44</v>
@@ -26963,7 +26972,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ124">
         <v>1.25</v>
@@ -27584,7 +27593,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ127">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR127">
         <v>1.21</v>
@@ -28614,7 +28623,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ132">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -28945,7 +28954,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29151,7 +29160,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29435,7 +29444,7 @@
         <v>1.17</v>
       </c>
       <c r="AP136">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ136">
         <v>1.2</v>
@@ -30387,7 +30396,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -31211,7 +31220,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31417,7 +31426,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31498,7 +31507,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ146">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR146">
         <v>1.08</v>
@@ -31623,7 +31632,7 @@
         <v>129</v>
       </c>
       <c r="P147" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31829,7 +31838,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -31910,7 +31919,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ148">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
         <v>1.89</v>
@@ -32035,7 +32044,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32447,7 +32456,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32525,7 +32534,7 @@
         <v>1.14</v>
       </c>
       <c r="AP151">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ151">
         <v>1.33</v>
@@ -32731,7 +32740,7 @@
         <v>0.63</v>
       </c>
       <c r="AP152">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ152">
         <v>0.8100000000000001</v>
@@ -32859,7 +32868,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -33683,7 +33692,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33889,7 +33898,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q158">
         <v>2.55</v>
@@ -33970,7 +33979,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ158">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR158">
         <v>1.25</v>
@@ -34095,7 +34104,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q159">
         <v>3.3</v>
@@ -34301,7 +34310,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>2.75</v>
@@ -34585,7 +34594,7 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ161">
         <v>0.53</v>
@@ -35618,7 +35627,7 @@
         <v>2</v>
       </c>
       <c r="AQ166">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR166">
         <v>1.68</v>
@@ -35743,7 +35752,7 @@
         <v>109</v>
       </c>
       <c r="P167" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q167">
         <v>3.35</v>
@@ -36155,7 +36164,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>2.8</v>
@@ -36361,7 +36370,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36439,7 +36448,7 @@
         <v>1.89</v>
       </c>
       <c r="AP170">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ170">
         <v>1.73</v>
@@ -36773,7 +36782,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q172">
         <v>2.63</v>
@@ -36979,7 +36988,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q173">
         <v>2.3</v>
@@ -37881,7 +37890,7 @@
         <v>0.78</v>
       </c>
       <c r="AP177">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ177">
         <v>0.93</v>
@@ -38009,7 +38018,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38293,10 +38302,10 @@
         <v>1.1</v>
       </c>
       <c r="AP179">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ179">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR179">
         <v>1.86</v>
@@ -38421,7 +38430,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>2.2</v>
@@ -38627,7 +38636,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q181">
         <v>3.25</v>
@@ -39863,7 +39872,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q187">
         <v>2.55</v>
@@ -40069,7 +40078,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q188">
         <v>4.5</v>
@@ -40687,7 +40696,7 @@
         <v>90</v>
       </c>
       <c r="P191" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40893,7 +40902,7 @@
         <v>90</v>
       </c>
       <c r="P192" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q192">
         <v>3.25</v>
@@ -40974,7 +40983,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ192">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR192">
         <v>1.84</v>
@@ -41180,7 +41189,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ193">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR193">
         <v>1.24</v>
@@ -41383,7 +41392,7 @@
         <v>0.91</v>
       </c>
       <c r="AP194">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ194">
         <v>0.8100000000000001</v>
@@ -41511,7 +41520,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41717,7 +41726,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q196">
         <v>3.65</v>
@@ -41923,7 +41932,7 @@
         <v>218</v>
       </c>
       <c r="P197" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q197">
         <v>1.94</v>
@@ -42207,7 +42216,7 @@
         <v>1.3</v>
       </c>
       <c r="AP198">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ198">
         <v>0.93</v>
@@ -42335,7 +42344,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42622,7 +42631,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ200">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -43365,7 +43374,7 @@
         <v>160</v>
       </c>
       <c r="P204" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43571,7 +43580,7 @@
         <v>90</v>
       </c>
       <c r="P205" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43983,7 +43992,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q207">
         <v>3.8</v>
@@ -44682,7 +44691,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ210">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR210">
         <v>1.74</v>
@@ -44885,7 +44894,7 @@
         <v>1.08</v>
       </c>
       <c r="AP211">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ211">
         <v>1.19</v>
@@ -45219,7 +45228,7 @@
         <v>226</v>
       </c>
       <c r="P213" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45631,7 +45640,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>2.95</v>
@@ -45837,7 +45846,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q216">
         <v>1.96</v>
@@ -46121,7 +46130,7 @@
         <v>0.64</v>
       </c>
       <c r="AP217">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ217">
         <v>0.8</v>
@@ -46455,7 +46464,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q219">
         <v>4.3</v>
@@ -46948,7 +46957,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ221">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR221">
         <v>1.73</v>
@@ -47073,7 +47082,7 @@
         <v>90</v>
       </c>
       <c r="P222" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47279,7 +47288,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q223">
         <v>3.65</v>
@@ -47485,7 +47494,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q224">
         <v>5.2</v>
@@ -47897,7 +47906,7 @@
         <v>221</v>
       </c>
       <c r="P226" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q226">
         <v>4.4</v>
@@ -48103,7 +48112,7 @@
         <v>234</v>
       </c>
       <c r="P227" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q227">
         <v>2.7</v>
@@ -48721,7 +48730,7 @@
         <v>90</v>
       </c>
       <c r="P230" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q230">
         <v>3.04</v>
@@ -49339,7 +49348,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49417,7 +49426,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ233">
         <v>1.6</v>
@@ -49545,7 +49554,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q234">
         <v>1.85</v>
@@ -49623,7 +49632,7 @@
         <v>1.31</v>
       </c>
       <c r="AP234">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ234">
         <v>1.25</v>
@@ -49957,7 +49966,7 @@
         <v>241</v>
       </c>
       <c r="P236" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q236">
         <v>3.7</v>
@@ -50575,7 +50584,7 @@
         <v>243</v>
       </c>
       <c r="P239" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -50656,7 +50665,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ239">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR239">
         <v>1.25</v>
@@ -51193,7 +51202,7 @@
         <v>245</v>
       </c>
       <c r="P242" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51686,7 +51695,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ244">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR244">
         <v>1.82</v>
@@ -52017,7 +52026,7 @@
         <v>114</v>
       </c>
       <c r="P246" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52919,7 +52928,7 @@
         <v>1.14</v>
       </c>
       <c r="AP250">
-        <v>2.27</v>
+        <v>2.19</v>
       </c>
       <c r="AQ250">
         <v>1.19</v>
@@ -53047,7 +53056,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q251">
         <v>4.75</v>
@@ -53459,7 +53468,7 @@
         <v>253</v>
       </c>
       <c r="P253" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q253">
         <v>2.2</v>
@@ -53537,7 +53546,7 @@
         <v>0.54</v>
       </c>
       <c r="AP253">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ253">
         <v>0.53</v>
@@ -54077,7 +54086,7 @@
         <v>194</v>
       </c>
       <c r="P256" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q256">
         <v>3.9</v>
@@ -54158,7 +54167,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ256">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR256">
         <v>1.35</v>
@@ -54283,7 +54292,7 @@
         <v>133</v>
       </c>
       <c r="P257" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q257">
         <v>2.65</v>
@@ -54567,7 +54576,7 @@
         <v>1</v>
       </c>
       <c r="AP258">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ258">
         <v>0.93</v>
@@ -54695,7 +54704,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -55107,7 +55116,7 @@
         <v>258</v>
       </c>
       <c r="P261" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q261">
         <v>2.63</v>
@@ -55188,7 +55197,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ261">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AR261">
         <v>1.71</v>
@@ -55313,7 +55322,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55725,7 +55734,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56137,7 +56146,7 @@
         <v>261</v>
       </c>
       <c r="P266" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56549,7 +56558,7 @@
         <v>194</v>
       </c>
       <c r="P268" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q268">
         <v>7</v>
@@ -56755,7 +56764,7 @@
         <v>242</v>
       </c>
       <c r="P269" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q269">
         <v>3.9</v>
@@ -56961,7 +56970,7 @@
         <v>171</v>
       </c>
       <c r="P270" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q270">
         <v>5</v>
@@ -57167,7 +57176,7 @@
         <v>262</v>
       </c>
       <c r="P271" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q271">
         <v>2.3</v>
@@ -57373,7 +57382,7 @@
         <v>90</v>
       </c>
       <c r="P272" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -57991,7 +58000,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58197,7 +58206,7 @@
         <v>265</v>
       </c>
       <c r="P276" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q276">
         <v>4.75</v>
@@ -58403,7 +58412,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q277">
         <v>2.1</v>
@@ -58560,6 +58569,418 @@
       </c>
       <c r="BP277">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7469138</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45766.375</v>
+      </c>
+      <c r="F278">
+        <v>31</v>
+      </c>
+      <c r="G278" t="s">
+        <v>85</v>
+      </c>
+      <c r="H278" t="s">
+        <v>83</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="O278" t="s">
+        <v>266</v>
+      </c>
+      <c r="P278" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q278">
+        <v>2.38</v>
+      </c>
+      <c r="R278">
+        <v>2.15</v>
+      </c>
+      <c r="S278">
+        <v>4.33</v>
+      </c>
+      <c r="T278">
+        <v>1.4</v>
+      </c>
+      <c r="U278">
+        <v>2.75</v>
+      </c>
+      <c r="V278">
+        <v>2.88</v>
+      </c>
+      <c r="W278">
+        <v>1.36</v>
+      </c>
+      <c r="X278">
+        <v>8.1</v>
+      </c>
+      <c r="Y278">
+        <v>1.02</v>
+      </c>
+      <c r="Z278">
+        <v>1.79</v>
+      </c>
+      <c r="AA278">
+        <v>3.61</v>
+      </c>
+      <c r="AB278">
+        <v>4.3</v>
+      </c>
+      <c r="AC278">
+        <v>1.06</v>
+      </c>
+      <c r="AD278">
+        <v>8.5</v>
+      </c>
+      <c r="AE278">
+        <v>1.33</v>
+      </c>
+      <c r="AF278">
+        <v>3.2</v>
+      </c>
+      <c r="AG278">
+        <v>1.98</v>
+      </c>
+      <c r="AH278">
+        <v>1.77</v>
+      </c>
+      <c r="AI278">
+        <v>1.85</v>
+      </c>
+      <c r="AJ278">
+        <v>1.8</v>
+      </c>
+      <c r="AK278">
+        <v>1.2</v>
+      </c>
+      <c r="AL278">
+        <v>1.22</v>
+      </c>
+      <c r="AM278">
+        <v>1.95</v>
+      </c>
+      <c r="AN278">
+        <v>2.33</v>
+      </c>
+      <c r="AO278">
+        <v>0.87</v>
+      </c>
+      <c r="AP278">
+        <v>2.38</v>
+      </c>
+      <c r="AQ278">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR278">
+        <v>1.72</v>
+      </c>
+      <c r="AS278">
+        <v>1.42</v>
+      </c>
+      <c r="AT278">
+        <v>3.14</v>
+      </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
+      <c r="AV278">
+        <v>3</v>
+      </c>
+      <c r="AW278">
+        <v>7</v>
+      </c>
+      <c r="AX278">
+        <v>7</v>
+      </c>
+      <c r="AY278">
+        <v>12</v>
+      </c>
+      <c r="AZ278">
+        <v>10</v>
+      </c>
+      <c r="BA278">
+        <v>4</v>
+      </c>
+      <c r="BB278">
+        <v>5</v>
+      </c>
+      <c r="BC278">
+        <v>9</v>
+      </c>
+      <c r="BD278">
+        <v>1.54</v>
+      </c>
+      <c r="BE278">
+        <v>6.75</v>
+      </c>
+      <c r="BF278">
+        <v>2.75</v>
+      </c>
+      <c r="BG278">
+        <v>1.45</v>
+      </c>
+      <c r="BH278">
+        <v>2.55</v>
+      </c>
+      <c r="BI278">
+        <v>1.74</v>
+      </c>
+      <c r="BJ278">
+        <v>1.95</v>
+      </c>
+      <c r="BK278">
+        <v>2.18</v>
+      </c>
+      <c r="BL278">
+        <v>1.58</v>
+      </c>
+      <c r="BM278">
+        <v>2.8</v>
+      </c>
+      <c r="BN278">
+        <v>1.36</v>
+      </c>
+      <c r="BO278">
+        <v>3.8</v>
+      </c>
+      <c r="BP278">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7469142</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45766.625</v>
+      </c>
+      <c r="F279">
+        <v>31</v>
+      </c>
+      <c r="G279" t="s">
+        <v>78</v>
+      </c>
+      <c r="H279" t="s">
+        <v>87</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>4</v>
+      </c>
+      <c r="O279" t="s">
+        <v>267</v>
+      </c>
+      <c r="P279" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q279">
+        <v>2</v>
+      </c>
+      <c r="R279">
+        <v>2.4</v>
+      </c>
+      <c r="S279">
+        <v>6</v>
+      </c>
+      <c r="T279">
+        <v>1.33</v>
+      </c>
+      <c r="U279">
+        <v>3.25</v>
+      </c>
+      <c r="V279">
+        <v>2.63</v>
+      </c>
+      <c r="W279">
+        <v>1.44</v>
+      </c>
+      <c r="X279">
+        <v>6.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.11</v>
+      </c>
+      <c r="Z279">
+        <v>1.46</v>
+      </c>
+      <c r="AA279">
+        <v>4.4</v>
+      </c>
+      <c r="AB279">
+        <v>6.3</v>
+      </c>
+      <c r="AC279">
+        <v>1.04</v>
+      </c>
+      <c r="AD279">
+        <v>10</v>
+      </c>
+      <c r="AE279">
+        <v>1.22</v>
+      </c>
+      <c r="AF279">
+        <v>4.2</v>
+      </c>
+      <c r="AG279">
+        <v>1.61</v>
+      </c>
+      <c r="AH279">
+        <v>2.05</v>
+      </c>
+      <c r="AI279">
+        <v>1.83</v>
+      </c>
+      <c r="AJ279">
+        <v>1.83</v>
+      </c>
+      <c r="AK279">
+        <v>1.1</v>
+      </c>
+      <c r="AL279">
+        <v>1.15</v>
+      </c>
+      <c r="AM279">
+        <v>2.65</v>
+      </c>
+      <c r="AN279">
+        <v>2.27</v>
+      </c>
+      <c r="AO279">
+        <v>0.87</v>
+      </c>
+      <c r="AP279">
+        <v>2.19</v>
+      </c>
+      <c r="AQ279">
+        <v>0.88</v>
+      </c>
+      <c r="AR279">
+        <v>1.72</v>
+      </c>
+      <c r="AS279">
+        <v>1.21</v>
+      </c>
+      <c r="AT279">
+        <v>2.93</v>
+      </c>
+      <c r="AU279">
+        <v>8</v>
+      </c>
+      <c r="AV279">
+        <v>4</v>
+      </c>
+      <c r="AW279">
+        <v>8</v>
+      </c>
+      <c r="AX279">
+        <v>2</v>
+      </c>
+      <c r="AY279">
+        <v>16</v>
+      </c>
+      <c r="AZ279">
+        <v>6</v>
+      </c>
+      <c r="BA279">
+        <v>6</v>
+      </c>
+      <c r="BB279">
+        <v>1</v>
+      </c>
+      <c r="BC279">
+        <v>7</v>
+      </c>
+      <c r="BD279">
+        <v>1.32</v>
+      </c>
+      <c r="BE279">
+        <v>7.5</v>
+      </c>
+      <c r="BF279">
+        <v>3.65</v>
+      </c>
+      <c r="BG279">
+        <v>1.36</v>
+      </c>
+      <c r="BH279">
+        <v>2.8</v>
+      </c>
+      <c r="BI279">
+        <v>1.61</v>
+      </c>
+      <c r="BJ279">
+        <v>2.15</v>
+      </c>
+      <c r="BK279">
+        <v>1.98</v>
+      </c>
+      <c r="BL279">
+        <v>1.72</v>
+      </c>
+      <c r="BM279">
+        <v>2.55</v>
+      </c>
+      <c r="BN279">
+        <v>1.45</v>
+      </c>
+      <c r="BO279">
+        <v>3.3</v>
+      </c>
+      <c r="BP279">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3285,7 +3285,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>0.53</v>
@@ -10907,7 +10907,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ46">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -11316,7 +11316,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
         <v>1.19</v>
@@ -11937,7 +11937,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -15024,7 +15024,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -15851,7 +15851,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ70">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -18732,7 +18732,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -19147,7 +19147,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR86">
         <v>1.88</v>
@@ -22649,7 +22649,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ103">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR103">
         <v>1.26</v>
@@ -23058,7 +23058,7 @@
         <v>0.83</v>
       </c>
       <c r="AP105">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105">
         <v>0.8100000000000001</v>
@@ -27181,7 +27181,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ125">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR125">
         <v>1.66</v>
@@ -28414,7 +28414,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
         <v>0.93</v>
@@ -31092,7 +31092,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ144">
         <v>1.73</v>
@@ -33155,7 +33155,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ154">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -34182,7 +34182,7 @@
         <v>1.13</v>
       </c>
       <c r="AP159">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ159">
         <v>1.38</v>
@@ -36657,7 +36657,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ171">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -38714,7 +38714,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ181">
         <v>1.2</v>
@@ -40159,7 +40159,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ188">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR188">
         <v>1.26</v>
@@ -42837,7 +42837,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ201">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR201">
         <v>1.74</v>
@@ -44276,7 +44276,7 @@
         <v>0.4</v>
       </c>
       <c r="AP208">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ208">
         <v>0.53</v>
@@ -46542,7 +46542,7 @@
         <v>1.67</v>
       </c>
       <c r="AP219">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ219">
         <v>1.73</v>
@@ -49429,7 +49429,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ233">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR233">
         <v>1.74</v>
@@ -50456,7 +50456,7 @@
         <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ238">
         <v>0.9399999999999999</v>
@@ -53137,7 +53137,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ251">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR251">
         <v>1.3</v>
@@ -54164,7 +54164,7 @@
         <v>0.86</v>
       </c>
       <c r="AP256">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AQ256">
         <v>0.8100000000000001</v>
@@ -56845,7 +56845,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ269">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AR269">
         <v>1.69</v>
@@ -58981,6 +58981,212 @@
       </c>
       <c r="BP279">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7469140</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45768.65625</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>84</v>
+      </c>
+      <c r="H280" t="s">
+        <v>86</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280" t="s">
+        <v>90</v>
+      </c>
+      <c r="P280" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q280">
+        <v>6</v>
+      </c>
+      <c r="R280">
+        <v>2.2</v>
+      </c>
+      <c r="S280">
+        <v>2.2</v>
+      </c>
+      <c r="T280">
+        <v>1.4</v>
+      </c>
+      <c r="U280">
+        <v>2.75</v>
+      </c>
+      <c r="V280">
+        <v>2.75</v>
+      </c>
+      <c r="W280">
+        <v>1.4</v>
+      </c>
+      <c r="X280">
+        <v>8</v>
+      </c>
+      <c r="Y280">
+        <v>1.08</v>
+      </c>
+      <c r="Z280">
+        <v>5.5</v>
+      </c>
+      <c r="AA280">
+        <v>3.88</v>
+      </c>
+      <c r="AB280">
+        <v>1.58</v>
+      </c>
+      <c r="AC280">
+        <v>1.05</v>
+      </c>
+      <c r="AD280">
+        <v>9</v>
+      </c>
+      <c r="AE280">
+        <v>1.3</v>
+      </c>
+      <c r="AF280">
+        <v>3.45</v>
+      </c>
+      <c r="AG280">
+        <v>1.94</v>
+      </c>
+      <c r="AH280">
+        <v>1.8</v>
+      </c>
+      <c r="AI280">
+        <v>2</v>
+      </c>
+      <c r="AJ280">
+        <v>1.73</v>
+      </c>
+      <c r="AK280">
+        <v>2.25</v>
+      </c>
+      <c r="AL280">
+        <v>1.2</v>
+      </c>
+      <c r="AM280">
+        <v>1.14</v>
+      </c>
+      <c r="AN280">
+        <v>1.71</v>
+      </c>
+      <c r="AO280">
+        <v>1.6</v>
+      </c>
+      <c r="AP280">
+        <v>1.67</v>
+      </c>
+      <c r="AQ280">
+        <v>1.56</v>
+      </c>
+      <c r="AR280">
+        <v>1.34</v>
+      </c>
+      <c r="AS280">
+        <v>1.59</v>
+      </c>
+      <c r="AT280">
+        <v>2.93</v>
+      </c>
+      <c r="AU280">
+        <v>2</v>
+      </c>
+      <c r="AV280">
+        <v>4</v>
+      </c>
+      <c r="AW280">
+        <v>4</v>
+      </c>
+      <c r="AX280">
+        <v>9</v>
+      </c>
+      <c r="AY280">
+        <v>6</v>
+      </c>
+      <c r="AZ280">
+        <v>13</v>
+      </c>
+      <c r="BA280">
+        <v>8</v>
+      </c>
+      <c r="BB280">
+        <v>4</v>
+      </c>
+      <c r="BC280">
+        <v>12</v>
+      </c>
+      <c r="BD280">
+        <v>3.12</v>
+      </c>
+      <c r="BE280">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF280">
+        <v>1.52</v>
+      </c>
+      <c r="BG280">
+        <v>1.33</v>
+      </c>
+      <c r="BH280">
+        <v>2.83</v>
+      </c>
+      <c r="BI280">
+        <v>1.63</v>
+      </c>
+      <c r="BJ280">
+        <v>2.09</v>
+      </c>
+      <c r="BK280">
+        <v>2.09</v>
+      </c>
+      <c r="BL280">
+        <v>1.66</v>
+      </c>
+      <c r="BM280">
+        <v>2.78</v>
+      </c>
+      <c r="BN280">
+        <v>1.36</v>
+      </c>
+      <c r="BO280">
+        <v>3.82</v>
+      </c>
+      <c r="BP280">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="380">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,15 @@
     <t>['8', '74']</t>
   </si>
   <si>
+    <t>['34', '88']</t>
+  </si>
+  <si>
+    <t>['62', '74']</t>
+  </si>
+  <si>
+    <t>['38', '47']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -1142,6 +1151,9 @@
   </si>
   <si>
     <t>['32', '54']</t>
+  </si>
+  <si>
+    <t>['33', '77', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1774,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -2174,7 +2186,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2870,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ7">
         <v>1.19</v>
@@ -2998,7 +3010,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3410,7 +3422,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3697,7 +3709,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ11">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3900,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ12">
         <v>1.38</v>
@@ -4028,7 +4040,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4518,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ15">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4646,7 +4658,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4724,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4852,7 +4864,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5139,7 +5151,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ18">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5342,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5882,7 +5894,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5960,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6294,7 +6306,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -7118,7 +7130,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7402,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>1.48</v>
@@ -8023,7 +8035,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -8226,10 +8238,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>2.15</v>
@@ -8432,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ34">
         <v>1.19</v>
@@ -8560,7 +8572,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8766,7 +8778,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8972,7 +8984,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9178,7 +9190,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9384,7 +9396,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9465,7 +9477,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ39">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9668,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ40">
         <v>1.73</v>
@@ -9796,7 +9808,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9874,7 +9886,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ41">
         <v>1.25</v>
@@ -10002,7 +10014,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -10208,7 +10220,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10286,7 +10298,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10495,7 +10507,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10701,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -11113,7 +11125,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ47">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.49</v>
@@ -11316,7 +11328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>1.19</v>
@@ -11525,7 +11537,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -12143,7 +12155,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ52">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR52">
         <v>1.34</v>
@@ -12474,7 +12486,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12680,7 +12692,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12967,7 +12979,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -13092,7 +13104,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13170,7 +13182,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ57">
         <v>0.8100000000000001</v>
@@ -13504,7 +13516,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13582,7 +13594,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13710,7 +13722,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13997,7 +14009,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ61">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR61">
         <v>1.29</v>
@@ -14122,7 +14134,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -14200,7 +14212,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
         <v>1.73</v>
@@ -14328,7 +14340,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14612,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ64">
         <v>0.53</v>
@@ -15024,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -15358,7 +15370,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15439,7 +15451,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15564,7 +15576,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15645,7 +15657,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -15770,7 +15782,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16182,7 +16194,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16263,7 +16275,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ72">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16388,7 +16400,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16594,7 +16606,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16672,7 +16684,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ74">
         <v>0.8100000000000001</v>
@@ -16800,7 +16812,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16878,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
         <v>0.53</v>
@@ -17006,7 +17018,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17084,7 +17096,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ76">
         <v>1.2</v>
@@ -17496,10 +17508,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ78">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17624,7 +17636,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17705,7 +17717,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.66</v>
@@ -17830,7 +17842,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18036,7 +18048,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18732,7 +18744,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18860,7 +18872,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18941,7 +18953,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ85">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -19066,7 +19078,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19353,7 +19365,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19765,7 +19777,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ89">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR89">
         <v>1.72</v>
@@ -19890,7 +19902,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -20302,7 +20314,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20380,10 +20392,10 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ92">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20586,7 +20598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
         <v>1.73</v>
@@ -20920,7 +20932,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -21126,7 +21138,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21204,7 +21216,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ96">
         <v>0.9399999999999999</v>
@@ -21538,7 +21550,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21822,10 +21834,10 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ99">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR99">
         <v>1.8</v>
@@ -22031,7 +22043,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ100">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.57</v>
@@ -22774,7 +22786,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -23058,7 +23070,7 @@
         <v>0.83</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>0.8100000000000001</v>
@@ -23470,10 +23482,10 @@
         <v>0.6</v>
       </c>
       <c r="AP107">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ107">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR107">
         <v>1.74</v>
@@ -23598,7 +23610,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23885,7 +23897,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -24422,7 +24434,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24500,7 +24512,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112">
         <v>0.8100000000000001</v>
@@ -24709,7 +24721,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ113">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR113">
         <v>1.1</v>
@@ -24834,7 +24846,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24912,7 +24924,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ114">
         <v>1.19</v>
@@ -25246,7 +25258,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25658,7 +25670,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25945,7 +25957,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ119">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -26276,7 +26288,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26560,10 +26572,10 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ122">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR122">
         <v>1.78</v>
@@ -27178,7 +27190,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ125">
         <v>1.56</v>
@@ -27387,7 +27399,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ126">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -28414,10 +28426,10 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.33</v>
@@ -28620,7 +28632,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
         <v>0.8100000000000001</v>
@@ -28826,7 +28838,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133">
         <v>0.53</v>
@@ -28954,7 +28966,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29035,7 +29047,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ134">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR134">
         <v>1.08</v>
@@ -29160,7 +29172,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29650,7 +29662,7 @@
         <v>1.29</v>
       </c>
       <c r="AP137">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ137">
         <v>1.38</v>
@@ -29859,7 +29871,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ138">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -30065,7 +30077,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -30396,7 +30408,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30886,10 +30898,10 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -31092,7 +31104,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ144">
         <v>1.73</v>
@@ -31220,7 +31232,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31426,7 +31438,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31632,7 +31644,7 @@
         <v>129</v>
       </c>
       <c r="P147" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31838,7 +31850,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32044,7 +32056,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32331,7 +32343,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ150">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32456,7 +32468,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32537,7 +32549,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ151">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR151">
         <v>1.79</v>
@@ -32868,7 +32880,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -32946,7 +32958,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ153">
         <v>1.2</v>
@@ -33152,7 +33164,7 @@
         <v>1.13</v>
       </c>
       <c r="AP154">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ154">
         <v>1.56</v>
@@ -33361,7 +33373,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ155">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR155">
         <v>1</v>
@@ -33692,7 +33704,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33898,7 +33910,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q158">
         <v>2.55</v>
@@ -33976,7 +33988,7 @@
         <v>1.11</v>
       </c>
       <c r="AP158">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ158">
         <v>0.88</v>
@@ -34104,7 +34116,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q159">
         <v>3.3</v>
@@ -34182,7 +34194,7 @@
         <v>1.13</v>
       </c>
       <c r="AP159">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ159">
         <v>1.38</v>
@@ -34310,7 +34322,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q160">
         <v>2.75</v>
@@ -34391,7 +34403,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ160">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR160">
         <v>1.38</v>
@@ -34597,7 +34609,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ161">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR161">
         <v>1.88</v>
@@ -34800,10 +34812,10 @@
         <v>0.13</v>
       </c>
       <c r="AP162">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ162">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR162">
         <v>1.68</v>
@@ -35212,7 +35224,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
         <v>0.9399999999999999</v>
@@ -35421,7 +35433,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ165">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR165">
         <v>1.13</v>
@@ -35752,7 +35764,7 @@
         <v>109</v>
       </c>
       <c r="P167" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>3.35</v>
@@ -35830,7 +35842,7 @@
         <v>0.67</v>
       </c>
       <c r="AP167">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
         <v>0.8100000000000001</v>
@@ -36164,7 +36176,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q169">
         <v>2.8</v>
@@ -36370,7 +36382,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36782,7 +36794,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q172">
         <v>2.63</v>
@@ -36988,7 +37000,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q173">
         <v>2.3</v>
@@ -37069,7 +37081,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ173">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR173">
         <v>1.78</v>
@@ -37272,7 +37284,7 @@
         <v>0.9</v>
       </c>
       <c r="AP174">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
         <v>0.8100000000000001</v>
@@ -37481,7 +37493,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ175">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR175">
         <v>0.95</v>
@@ -37684,7 +37696,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ176">
         <v>1.19</v>
@@ -37893,7 +37905,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ177">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR177">
         <v>1.6</v>
@@ -38018,7 +38030,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38430,7 +38442,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q180">
         <v>2.2</v>
@@ -38511,7 +38523,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ180">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR180">
         <v>1.65</v>
@@ -38636,7 +38648,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q181">
         <v>3.25</v>
@@ -38714,7 +38726,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ181">
         <v>1.2</v>
@@ -38923,7 +38935,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ182">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR182">
         <v>1.62</v>
@@ -39744,7 +39756,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ186">
         <v>1.73</v>
@@ -39872,7 +39884,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>2.55</v>
@@ -39953,7 +39965,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ187">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR187">
         <v>1.32</v>
@@ -40078,7 +40090,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>4.5</v>
@@ -40156,7 +40168,7 @@
         <v>1.2</v>
       </c>
       <c r="AP188">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ188">
         <v>1.56</v>
@@ -40568,7 +40580,7 @@
         <v>1.7</v>
       </c>
       <c r="AP190">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ190">
         <v>1.73</v>
@@ -40696,7 +40708,7 @@
         <v>90</v>
       </c>
       <c r="P191" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40774,7 +40786,7 @@
         <v>1.27</v>
       </c>
       <c r="AP191">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ191">
         <v>1.25</v>
@@ -40902,7 +40914,7 @@
         <v>90</v>
       </c>
       <c r="P192" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q192">
         <v>3.25</v>
@@ -41520,7 +41532,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41726,7 +41738,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q196">
         <v>3.65</v>
@@ -41932,7 +41944,7 @@
         <v>218</v>
       </c>
       <c r="P197" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q197">
         <v>1.94</v>
@@ -42013,7 +42025,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ197">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR197">
         <v>1.67</v>
@@ -42219,7 +42231,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ198">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR198">
         <v>1.7</v>
@@ -42344,7 +42356,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -43040,10 +43052,10 @@
         <v>1.4</v>
       </c>
       <c r="AP202">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ202">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR202">
         <v>1.2</v>
@@ -43374,7 +43386,7 @@
         <v>160</v>
       </c>
       <c r="P204" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43455,7 +43467,7 @@
         <v>2</v>
       </c>
       <c r="AQ204">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR204">
         <v>1.59</v>
@@ -43580,7 +43592,7 @@
         <v>90</v>
       </c>
       <c r="P205" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43992,7 +44004,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q207">
         <v>3.8</v>
@@ -44070,7 +44082,7 @@
         <v>1.3</v>
       </c>
       <c r="AP207">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ207">
         <v>1.73</v>
@@ -44276,7 +44288,7 @@
         <v>0.4</v>
       </c>
       <c r="AP208">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ208">
         <v>0.53</v>
@@ -44485,7 +44497,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ209">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR209">
         <v>1.77</v>
@@ -44688,7 +44700,7 @@
         <v>1</v>
       </c>
       <c r="AP210">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ210">
         <v>0.88</v>
@@ -45103,7 +45115,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ212">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR212">
         <v>1.56</v>
@@ -45228,7 +45240,7 @@
         <v>226</v>
       </c>
       <c r="P213" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45640,7 +45652,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>2.95</v>
@@ -45846,7 +45858,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q216">
         <v>1.96</v>
@@ -46133,7 +46145,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ217">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR217">
         <v>1.74</v>
@@ -46339,7 +46351,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ218">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR218">
         <v>1.63</v>
@@ -46464,7 +46476,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>4.3</v>
@@ -46542,7 +46554,7 @@
         <v>1.67</v>
       </c>
       <c r="AP219">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ219">
         <v>1.73</v>
@@ -46748,10 +46760,10 @@
         <v>1.27</v>
       </c>
       <c r="AP220">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ220">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR220">
         <v>1.27</v>
@@ -47082,7 +47094,7 @@
         <v>90</v>
       </c>
       <c r="P222" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47288,7 +47300,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q223">
         <v>3.65</v>
@@ -47366,7 +47378,7 @@
         <v>1.58</v>
       </c>
       <c r="AP223">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ223">
         <v>1.38</v>
@@ -47494,7 +47506,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q224">
         <v>5.2</v>
@@ -47906,7 +47918,7 @@
         <v>221</v>
       </c>
       <c r="P226" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q226">
         <v>4.4</v>
@@ -48112,7 +48124,7 @@
         <v>234</v>
       </c>
       <c r="P227" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q227">
         <v>2.7</v>
@@ -48193,7 +48205,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ227">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR227">
         <v>1.25</v>
@@ -48396,10 +48408,10 @@
         <v>1.42</v>
       </c>
       <c r="AP228">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ228">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR228">
         <v>1.77</v>
@@ -48602,10 +48614,10 @@
         <v>0.58</v>
       </c>
       <c r="AP229">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ229">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR229">
         <v>1.3</v>
@@ -48730,7 +48742,7 @@
         <v>90</v>
       </c>
       <c r="P230" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q230">
         <v>3.04</v>
@@ -49220,10 +49232,10 @@
         <v>1.08</v>
       </c>
       <c r="AP232">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ232">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR232">
         <v>1.59</v>
@@ -49348,7 +49360,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49554,7 +49566,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q234">
         <v>1.85</v>
@@ -49966,7 +49978,7 @@
         <v>241</v>
       </c>
       <c r="P236" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q236">
         <v>3.7</v>
@@ -50253,7 +50265,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ237">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR237">
         <v>1.37</v>
@@ -50456,7 +50468,7 @@
         <v>1</v>
       </c>
       <c r="AP238">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ238">
         <v>0.9399999999999999</v>
@@ -50584,7 +50596,7 @@
         <v>243</v>
       </c>
       <c r="P239" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -51202,7 +51214,7 @@
         <v>245</v>
       </c>
       <c r="P242" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51486,7 +51498,7 @@
         <v>1.77</v>
       </c>
       <c r="AP243">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ243">
         <v>1.73</v>
@@ -52026,7 +52038,7 @@
         <v>114</v>
       </c>
       <c r="P246" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52104,7 +52116,7 @@
         <v>1</v>
       </c>
       <c r="AP246">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ246">
         <v>0.9399999999999999</v>
@@ -52313,7 +52325,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ247">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR247">
         <v>1.07</v>
@@ -52516,7 +52528,7 @@
         <v>1.38</v>
       </c>
       <c r="AP248">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ248">
         <v>1.2</v>
@@ -52725,7 +52737,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ249">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR249">
         <v>1.42</v>
@@ -53056,7 +53068,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q251">
         <v>4.75</v>
@@ -53340,7 +53352,7 @@
         <v>1.57</v>
       </c>
       <c r="AP252">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ252">
         <v>1.38</v>
@@ -53468,7 +53480,7 @@
         <v>253</v>
       </c>
       <c r="P253" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q253">
         <v>2.2</v>
@@ -53755,7 +53767,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ254">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR254">
         <v>1.79</v>
@@ -53961,7 +53973,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ255">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR255">
         <v>1.28</v>
@@ -54086,7 +54098,7 @@
         <v>194</v>
       </c>
       <c r="P256" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q256">
         <v>3.9</v>
@@ -54164,7 +54176,7 @@
         <v>0.86</v>
       </c>
       <c r="AP256">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ256">
         <v>0.8100000000000001</v>
@@ -54292,7 +54304,7 @@
         <v>133</v>
       </c>
       <c r="P257" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q257">
         <v>2.65</v>
@@ -54370,10 +54382,10 @@
         <v>0.85</v>
       </c>
       <c r="AP257">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ257">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR257">
         <v>1.28</v>
@@ -54579,7 +54591,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ258">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR258">
         <v>1.72</v>
@@ -54704,7 +54716,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -55116,7 +55128,7 @@
         <v>258</v>
       </c>
       <c r="P261" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q261">
         <v>2.63</v>
@@ -55322,7 +55334,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55606,7 +55618,7 @@
         <v>1.13</v>
       </c>
       <c r="AP263">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ263">
         <v>1.25</v>
@@ -55734,7 +55746,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -55815,7 +55827,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ264">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR264">
         <v>1.61</v>
@@ -56146,7 +56158,7 @@
         <v>261</v>
       </c>
       <c r="P266" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56433,7 +56445,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ267">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR267">
         <v>1.66</v>
@@ -56558,7 +56570,7 @@
         <v>194</v>
       </c>
       <c r="P268" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q268">
         <v>7</v>
@@ -56764,7 +56776,7 @@
         <v>242</v>
       </c>
       <c r="P269" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q269">
         <v>3.9</v>
@@ -56842,7 +56854,7 @@
         <v>1.5</v>
       </c>
       <c r="AP269">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ269">
         <v>1.56</v>
@@ -56970,7 +56982,7 @@
         <v>171</v>
       </c>
       <c r="P270" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q270">
         <v>5</v>
@@ -57176,7 +57188,7 @@
         <v>262</v>
       </c>
       <c r="P271" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q271">
         <v>2.3</v>
@@ -57254,7 +57266,7 @@
         <v>1.47</v>
       </c>
       <c r="AP271">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ271">
         <v>1.38</v>
@@ -57382,7 +57394,7 @@
         <v>90</v>
       </c>
       <c r="P272" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -57669,7 +57681,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ273">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR273">
         <v>1.61</v>
@@ -57872,7 +57884,7 @@
         <v>1</v>
       </c>
       <c r="AP274">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ274">
         <v>0.9399999999999999</v>
@@ -58000,7 +58012,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58206,7 +58218,7 @@
         <v>265</v>
       </c>
       <c r="P276" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q276">
         <v>4.75</v>
@@ -58412,7 +58424,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q277">
         <v>2.1</v>
@@ -58493,7 +58505,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ277">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR277">
         <v>1.31</v>
@@ -58824,7 +58836,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -59108,7 +59120,7 @@
         <v>1.6</v>
       </c>
       <c r="AP280">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ280">
         <v>1.56</v>
@@ -59187,6 +59199,1036 @@
       </c>
       <c r="BP280">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7469153</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45772.625</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>80</v>
+      </c>
+      <c r="H281" t="s">
+        <v>73</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>188</v>
+      </c>
+      <c r="P281" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q281">
+        <v>2.65</v>
+      </c>
+      <c r="R281">
+        <v>2</v>
+      </c>
+      <c r="S281">
+        <v>4</v>
+      </c>
+      <c r="T281">
+        <v>1.43</v>
+      </c>
+      <c r="U281">
+        <v>2.6</v>
+      </c>
+      <c r="V281">
+        <v>3</v>
+      </c>
+      <c r="W281">
+        <v>1.34</v>
+      </c>
+      <c r="X281">
+        <v>8</v>
+      </c>
+      <c r="Y281">
+        <v>1.07</v>
+      </c>
+      <c r="Z281">
+        <v>2.05</v>
+      </c>
+      <c r="AA281">
+        <v>3.27</v>
+      </c>
+      <c r="AB281">
+        <v>3.63</v>
+      </c>
+      <c r="AC281">
+        <v>1.07</v>
+      </c>
+      <c r="AD281">
+        <v>8</v>
+      </c>
+      <c r="AE281">
+        <v>1.38</v>
+      </c>
+      <c r="AF281">
+        <v>3</v>
+      </c>
+      <c r="AG281">
+        <v>1.94</v>
+      </c>
+      <c r="AH281">
+        <v>1.8</v>
+      </c>
+      <c r="AI281">
+        <v>1.9</v>
+      </c>
+      <c r="AJ281">
+        <v>1.8</v>
+      </c>
+      <c r="AK281">
+        <v>1.28</v>
+      </c>
+      <c r="AL281">
+        <v>1.31</v>
+      </c>
+      <c r="AM281">
+        <v>1.73</v>
+      </c>
+      <c r="AN281">
+        <v>1.6</v>
+      </c>
+      <c r="AO281">
+        <v>0.53</v>
+      </c>
+      <c r="AP281">
+        <v>1.69</v>
+      </c>
+      <c r="AQ281">
+        <v>0.5</v>
+      </c>
+      <c r="AR281">
+        <v>1.27</v>
+      </c>
+      <c r="AS281">
+        <v>1.21</v>
+      </c>
+      <c r="AT281">
+        <v>2.48</v>
+      </c>
+      <c r="AU281">
+        <v>2</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>17</v>
+      </c>
+      <c r="AX281">
+        <v>6</v>
+      </c>
+      <c r="AY281">
+        <v>19</v>
+      </c>
+      <c r="AZ281">
+        <v>11</v>
+      </c>
+      <c r="BA281">
+        <v>12</v>
+      </c>
+      <c r="BB281">
+        <v>4</v>
+      </c>
+      <c r="BC281">
+        <v>16</v>
+      </c>
+      <c r="BD281">
+        <v>1.66</v>
+      </c>
+      <c r="BE281">
+        <v>6.75</v>
+      </c>
+      <c r="BF281">
+        <v>2.48</v>
+      </c>
+      <c r="BG281">
+        <v>1.44</v>
+      </c>
+      <c r="BH281">
+        <v>2.55</v>
+      </c>
+      <c r="BI281">
+        <v>1.74</v>
+      </c>
+      <c r="BJ281">
+        <v>1.97</v>
+      </c>
+      <c r="BK281">
+        <v>2.18</v>
+      </c>
+      <c r="BL281">
+        <v>1.58</v>
+      </c>
+      <c r="BM281">
+        <v>2.8</v>
+      </c>
+      <c r="BN281">
+        <v>1.36</v>
+      </c>
+      <c r="BO281">
+        <v>3.8</v>
+      </c>
+      <c r="BP281">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7469152</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45772.625</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>87</v>
+      </c>
+      <c r="H282" t="s">
+        <v>70</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>123</v>
+      </c>
+      <c r="P282" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q282">
+        <v>2.55</v>
+      </c>
+      <c r="R282">
+        <v>2.15</v>
+      </c>
+      <c r="S282">
+        <v>3.8</v>
+      </c>
+      <c r="T282">
+        <v>1.36</v>
+      </c>
+      <c r="U282">
+        <v>2.87</v>
+      </c>
+      <c r="V282">
+        <v>2.65</v>
+      </c>
+      <c r="W282">
+        <v>1.42</v>
+      </c>
+      <c r="X282">
+        <v>6.5</v>
+      </c>
+      <c r="Y282">
+        <v>1.09</v>
+      </c>
+      <c r="Z282">
+        <v>2.06</v>
+      </c>
+      <c r="AA282">
+        <v>3.65</v>
+      </c>
+      <c r="AB282">
+        <v>3.21</v>
+      </c>
+      <c r="AC282">
+        <v>1.05</v>
+      </c>
+      <c r="AD282">
+        <v>9</v>
+      </c>
+      <c r="AE282">
+        <v>1.3</v>
+      </c>
+      <c r="AF282">
+        <v>3.4</v>
+      </c>
+      <c r="AG282">
+        <v>1.87</v>
+      </c>
+      <c r="AH282">
+        <v>1.87</v>
+      </c>
+      <c r="AI282">
+        <v>1.73</v>
+      </c>
+      <c r="AJ282">
+        <v>1.98</v>
+      </c>
+      <c r="AK282">
+        <v>1.29</v>
+      </c>
+      <c r="AL282">
+        <v>1.28</v>
+      </c>
+      <c r="AM282">
+        <v>1.77</v>
+      </c>
+      <c r="AN282">
+        <v>1.4</v>
+      </c>
+      <c r="AO282">
+        <v>0.93</v>
+      </c>
+      <c r="AP282">
+        <v>1.38</v>
+      </c>
+      <c r="AQ282">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR282">
+        <v>1.32</v>
+      </c>
+      <c r="AS282">
+        <v>1.22</v>
+      </c>
+      <c r="AT282">
+        <v>2.54</v>
+      </c>
+      <c r="AU282">
+        <v>2</v>
+      </c>
+      <c r="AV282">
+        <v>3</v>
+      </c>
+      <c r="AW282">
+        <v>5</v>
+      </c>
+      <c r="AX282">
+        <v>7</v>
+      </c>
+      <c r="AY282">
+        <v>7</v>
+      </c>
+      <c r="AZ282">
+        <v>10</v>
+      </c>
+      <c r="BA282">
+        <v>3</v>
+      </c>
+      <c r="BB282">
+        <v>1</v>
+      </c>
+      <c r="BC282">
+        <v>4</v>
+      </c>
+      <c r="BD282">
+        <v>1.81</v>
+      </c>
+      <c r="BE282">
+        <v>6.4</v>
+      </c>
+      <c r="BF282">
+        <v>2.18</v>
+      </c>
+      <c r="BG282">
+        <v>1.3</v>
+      </c>
+      <c r="BH282">
+        <v>3.15</v>
+      </c>
+      <c r="BI282">
+        <v>1.52</v>
+      </c>
+      <c r="BJ282">
+        <v>2.33</v>
+      </c>
+      <c r="BK282">
+        <v>1.85</v>
+      </c>
+      <c r="BL282">
+        <v>1.83</v>
+      </c>
+      <c r="BM282">
+        <v>2.33</v>
+      </c>
+      <c r="BN282">
+        <v>1.52</v>
+      </c>
+      <c r="BO282">
+        <v>2.95</v>
+      </c>
+      <c r="BP282">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7469150</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45772.625</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>83</v>
+      </c>
+      <c r="H283" t="s">
+        <v>74</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>2</v>
+      </c>
+      <c r="L283">
+        <v>2</v>
+      </c>
+      <c r="M283">
+        <v>3</v>
+      </c>
+      <c r="N283">
+        <v>5</v>
+      </c>
+      <c r="O283" t="s">
+        <v>268</v>
+      </c>
+      <c r="P283" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q283">
+        <v>2.2</v>
+      </c>
+      <c r="R283">
+        <v>2.15</v>
+      </c>
+      <c r="S283">
+        <v>5</v>
+      </c>
+      <c r="T283">
+        <v>1.39</v>
+      </c>
+      <c r="U283">
+        <v>2.75</v>
+      </c>
+      <c r="V283">
+        <v>2.8</v>
+      </c>
+      <c r="W283">
+        <v>1.38</v>
+      </c>
+      <c r="X283">
+        <v>7.25</v>
+      </c>
+      <c r="Y283">
+        <v>1.08</v>
+      </c>
+      <c r="Z283">
+        <v>1.52</v>
+      </c>
+      <c r="AA283">
+        <v>4</v>
+      </c>
+      <c r="AB283">
+        <v>6.2</v>
+      </c>
+      <c r="AC283">
+        <v>1.05</v>
+      </c>
+      <c r="AD283">
+        <v>9</v>
+      </c>
+      <c r="AE283">
+        <v>1.3</v>
+      </c>
+      <c r="AF283">
+        <v>3.35</v>
+      </c>
+      <c r="AG283">
+        <v>1.89</v>
+      </c>
+      <c r="AH283">
+        <v>1.85</v>
+      </c>
+      <c r="AI283">
+        <v>1.95</v>
+      </c>
+      <c r="AJ283">
+        <v>1.73</v>
+      </c>
+      <c r="AK283">
+        <v>1.17</v>
+      </c>
+      <c r="AL283">
+        <v>1.25</v>
+      </c>
+      <c r="AM283">
+        <v>2.15</v>
+      </c>
+      <c r="AN283">
+        <v>2.07</v>
+      </c>
+      <c r="AO283">
+        <v>0.93</v>
+      </c>
+      <c r="AP283">
+        <v>1.94</v>
+      </c>
+      <c r="AQ283">
+        <v>1.06</v>
+      </c>
+      <c r="AR283">
+        <v>1.81</v>
+      </c>
+      <c r="AS283">
+        <v>1.34</v>
+      </c>
+      <c r="AT283">
+        <v>3.15</v>
+      </c>
+      <c r="AU283">
+        <v>9</v>
+      </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
+        <v>14</v>
+      </c>
+      <c r="AX283">
+        <v>6</v>
+      </c>
+      <c r="AY283">
+        <v>23</v>
+      </c>
+      <c r="AZ283">
+        <v>11</v>
+      </c>
+      <c r="BA283">
+        <v>5</v>
+      </c>
+      <c r="BB283">
+        <v>5</v>
+      </c>
+      <c r="BC283">
+        <v>10</v>
+      </c>
+      <c r="BD283">
+        <v>1.48</v>
+      </c>
+      <c r="BE283">
+        <v>6.75</v>
+      </c>
+      <c r="BF283">
+        <v>2.95</v>
+      </c>
+      <c r="BG283">
+        <v>1.36</v>
+      </c>
+      <c r="BH283">
+        <v>2.8</v>
+      </c>
+      <c r="BI283">
+        <v>1.61</v>
+      </c>
+      <c r="BJ283">
+        <v>2.15</v>
+      </c>
+      <c r="BK283">
+        <v>1.98</v>
+      </c>
+      <c r="BL283">
+        <v>1.72</v>
+      </c>
+      <c r="BM283">
+        <v>2.55</v>
+      </c>
+      <c r="BN283">
+        <v>1.45</v>
+      </c>
+      <c r="BO283">
+        <v>3.3</v>
+      </c>
+      <c r="BP283">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7469151</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45772.625</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>84</v>
+      </c>
+      <c r="H284" t="s">
+        <v>71</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>2</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>269</v>
+      </c>
+      <c r="P284" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q284">
+        <v>2.75</v>
+      </c>
+      <c r="R284">
+        <v>2</v>
+      </c>
+      <c r="S284">
+        <v>3.8</v>
+      </c>
+      <c r="T284">
+        <v>1.44</v>
+      </c>
+      <c r="U284">
+        <v>2.55</v>
+      </c>
+      <c r="V284">
+        <v>3.1</v>
+      </c>
+      <c r="W284">
+        <v>1.32</v>
+      </c>
+      <c r="X284">
+        <v>8.25</v>
+      </c>
+      <c r="Y284">
+        <v>1.06</v>
+      </c>
+      <c r="Z284">
+        <v>2.15</v>
+      </c>
+      <c r="AA284">
+        <v>3.33</v>
+      </c>
+      <c r="AB284">
+        <v>3.29</v>
+      </c>
+      <c r="AC284">
+        <v>1.06</v>
+      </c>
+      <c r="AD284">
+        <v>8.5</v>
+      </c>
+      <c r="AE284">
+        <v>1.53</v>
+      </c>
+      <c r="AF284">
+        <v>2.38</v>
+      </c>
+      <c r="AG284">
+        <v>2.1</v>
+      </c>
+      <c r="AH284">
+        <v>1.6</v>
+      </c>
+      <c r="AI284">
+        <v>1.9</v>
+      </c>
+      <c r="AJ284">
+        <v>1.78</v>
+      </c>
+      <c r="AK284">
+        <v>1.3</v>
+      </c>
+      <c r="AL284">
+        <v>1.31</v>
+      </c>
+      <c r="AM284">
+        <v>1.68</v>
+      </c>
+      <c r="AN284">
+        <v>1.67</v>
+      </c>
+      <c r="AO284">
+        <v>0.8</v>
+      </c>
+      <c r="AP284">
+        <v>1.75</v>
+      </c>
+      <c r="AQ284">
+        <v>0.75</v>
+      </c>
+      <c r="AR284">
+        <v>1.31</v>
+      </c>
+      <c r="AS284">
+        <v>1.04</v>
+      </c>
+      <c r="AT284">
+        <v>2.35</v>
+      </c>
+      <c r="AU284">
+        <v>6</v>
+      </c>
+      <c r="AV284">
+        <v>2</v>
+      </c>
+      <c r="AW284">
+        <v>7</v>
+      </c>
+      <c r="AX284">
+        <v>4</v>
+      </c>
+      <c r="AY284">
+        <v>13</v>
+      </c>
+      <c r="AZ284">
+        <v>6</v>
+      </c>
+      <c r="BA284">
+        <v>8</v>
+      </c>
+      <c r="BB284">
+        <v>1</v>
+      </c>
+      <c r="BC284">
+        <v>9</v>
+      </c>
+      <c r="BD284">
+        <v>1.58</v>
+      </c>
+      <c r="BE284">
+        <v>6.5</v>
+      </c>
+      <c r="BF284">
+        <v>2.65</v>
+      </c>
+      <c r="BG284">
+        <v>1.49</v>
+      </c>
+      <c r="BH284">
+        <v>2.43</v>
+      </c>
+      <c r="BI284">
+        <v>1.8</v>
+      </c>
+      <c r="BJ284">
+        <v>1.9</v>
+      </c>
+      <c r="BK284">
+        <v>2.3</v>
+      </c>
+      <c r="BL284">
+        <v>1.54</v>
+      </c>
+      <c r="BM284">
+        <v>2.95</v>
+      </c>
+      <c r="BN284">
+        <v>1.33</v>
+      </c>
+      <c r="BO284">
+        <v>3.95</v>
+      </c>
+      <c r="BP284">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7469148</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45772.625</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>75</v>
+      </c>
+      <c r="H285" t="s">
+        <v>77</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285" t="s">
+        <v>270</v>
+      </c>
+      <c r="P285" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q285">
+        <v>1.75</v>
+      </c>
+      <c r="R285">
+        <v>2.6</v>
+      </c>
+      <c r="S285">
+        <v>6.25</v>
+      </c>
+      <c r="T285">
+        <v>1.25</v>
+      </c>
+      <c r="U285">
+        <v>3.6</v>
+      </c>
+      <c r="V285">
+        <v>2.15</v>
+      </c>
+      <c r="W285">
+        <v>1.61</v>
+      </c>
+      <c r="X285">
+        <v>4.8</v>
+      </c>
+      <c r="Y285">
+        <v>1.16</v>
+      </c>
+      <c r="Z285">
+        <v>1.34</v>
+      </c>
+      <c r="AA285">
+        <v>5.1</v>
+      </c>
+      <c r="AB285">
+        <v>7.9</v>
+      </c>
+      <c r="AC285">
+        <v>1.03</v>
+      </c>
+      <c r="AD285">
+        <v>11</v>
+      </c>
+      <c r="AE285">
+        <v>1.15</v>
+      </c>
+      <c r="AF285">
+        <v>5.25</v>
+      </c>
+      <c r="AG285">
+        <v>1.64</v>
+      </c>
+      <c r="AH285">
+        <v>2.25</v>
+      </c>
+      <c r="AI285">
+        <v>1.82</v>
+      </c>
+      <c r="AJ285">
+        <v>1.87</v>
+      </c>
+      <c r="AK285">
+        <v>1.08</v>
+      </c>
+      <c r="AL285">
+        <v>1.15</v>
+      </c>
+      <c r="AM285">
+        <v>3.2</v>
+      </c>
+      <c r="AN285">
+        <v>1.73</v>
+      </c>
+      <c r="AO285">
+        <v>1.33</v>
+      </c>
+      <c r="AP285">
+        <v>1.81</v>
+      </c>
+      <c r="AQ285">
+        <v>1.25</v>
+      </c>
+      <c r="AR285">
+        <v>1.67</v>
+      </c>
+      <c r="AS285">
+        <v>1.07</v>
+      </c>
+      <c r="AT285">
+        <v>2.74</v>
+      </c>
+      <c r="AU285">
+        <v>3</v>
+      </c>
+      <c r="AV285">
+        <v>5</v>
+      </c>
+      <c r="AW285">
+        <v>12</v>
+      </c>
+      <c r="AX285">
+        <v>10</v>
+      </c>
+      <c r="AY285">
+        <v>15</v>
+      </c>
+      <c r="AZ285">
+        <v>15</v>
+      </c>
+      <c r="BA285">
+        <v>6</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>9</v>
+      </c>
+      <c r="BD285">
+        <v>0</v>
+      </c>
+      <c r="BE285">
+        <v>0</v>
+      </c>
+      <c r="BF285">
+        <v>0</v>
+      </c>
+      <c r="BG285">
+        <v>0</v>
+      </c>
+      <c r="BH285">
+        <v>0</v>
+      </c>
+      <c r="BI285">
+        <v>0</v>
+      </c>
+      <c r="BJ285">
+        <v>0</v>
+      </c>
+      <c r="BK285">
+        <v>0</v>
+      </c>
+      <c r="BL285">
+        <v>0</v>
+      </c>
+      <c r="BM285">
+        <v>0</v>
+      </c>
+      <c r="BN285">
+        <v>0</v>
+      </c>
+      <c r="BO285">
+        <v>0</v>
+      </c>
+      <c r="BP285">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="381">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -829,6 +829,12 @@
     <t>['38', '47']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -899,9 +905,6 @@
   </si>
   <si>
     <t>['20', '45+1', '57']</t>
-  </si>
-  <si>
-    <t>['78']</t>
   </si>
   <si>
     <t>['44']</t>
@@ -1515,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1774,7 +1777,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -2186,7 +2189,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -3010,7 +3013,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3091,7 +3094,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ8">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3422,7 +3425,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3706,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
         <v>0.9399999999999999</v>
@@ -4040,7 +4043,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4118,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1.73</v>
@@ -4658,7 +4661,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4864,7 +4867,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4945,7 +4948,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5769,7 +5772,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5894,7 +5897,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -6306,7 +6309,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -7130,7 +7133,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7829,7 +7832,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -8572,7 +8575,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8650,7 +8653,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8778,7 +8781,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8984,7 +8987,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9190,7 +9193,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9268,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9396,7 +9399,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9683,7 +9686,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ40">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9808,7 +9811,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10014,7 +10017,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -10220,7 +10223,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -12486,7 +12489,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12692,7 +12695,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12770,7 +12773,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -13104,7 +13107,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13391,7 +13394,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13516,7 +13519,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13722,7 +13725,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -14134,7 +14137,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -14215,7 +14218,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR62">
         <v>1.16</v>
@@ -14340,7 +14343,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14418,7 +14421,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.73</v>
@@ -15370,7 +15373,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15448,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>1.06</v>
@@ -15576,7 +15579,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15782,7 +15785,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16194,7 +16197,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16400,7 +16403,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16606,7 +16609,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16812,7 +16815,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -17018,7 +17021,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17099,7 +17102,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17636,7 +17639,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17842,7 +17845,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18048,7 +18051,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18126,10 +18129,10 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR81">
         <v>1.22</v>
@@ -18872,7 +18875,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -19078,7 +19081,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19156,7 +19159,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
         <v>1.56</v>
@@ -19902,7 +19905,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -20186,7 +20189,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>0.8100000000000001</v>
@@ -20314,7 +20317,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20932,7 +20935,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -21013,7 +21016,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ95">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -21138,7 +21141,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21425,7 +21428,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21550,7 +21553,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22452,7 +22455,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>1.38</v>
@@ -22786,7 +22789,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -23610,7 +23613,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -24100,7 +24103,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
         <v>1.25</v>
@@ -24309,7 +24312,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR111">
         <v>1.14</v>
@@ -24434,7 +24437,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24846,7 +24849,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -25133,7 +25136,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR115">
         <v>1.51</v>
@@ -25258,7 +25261,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25670,7 +25673,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25954,7 +25957,7 @@
         <v>0.5</v>
       </c>
       <c r="AP119">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>1.06</v>
@@ -26288,7 +26291,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -28220,7 +28223,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ130">
         <v>0.8100000000000001</v>
@@ -28966,7 +28969,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29172,7 +29175,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29253,7 +29256,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ135">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29459,7 +29462,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ136">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR136">
         <v>1.62</v>
@@ -30074,7 +30077,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ139">
         <v>1.25</v>
@@ -30408,7 +30411,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30695,7 +30698,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ142">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR142">
         <v>1.78</v>
@@ -31232,7 +31235,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31438,7 +31441,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31644,7 +31647,7 @@
         <v>129</v>
       </c>
       <c r="P147" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31850,7 +31853,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -31928,7 +31931,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
         <v>0.88</v>
@@ -32056,7 +32059,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32468,7 +32471,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32880,7 +32883,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -32961,7 +32964,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ153">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR153">
         <v>1.78</v>
@@ -33579,7 +33582,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ156">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR156">
         <v>1.52</v>
@@ -33704,7 +33707,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33782,7 +33785,7 @@
         <v>1.11</v>
       </c>
       <c r="AP157">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
         <v>1.19</v>
@@ -33910,7 +33913,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>2.55</v>
@@ -34116,7 +34119,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q159">
         <v>3.3</v>
@@ -34322,7 +34325,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q160">
         <v>2.75</v>
@@ -35764,7 +35767,7 @@
         <v>109</v>
       </c>
       <c r="P167" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q167">
         <v>3.35</v>
@@ -36176,7 +36179,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q169">
         <v>2.8</v>
@@ -36382,7 +36385,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36463,7 +36466,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ170">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR170">
         <v>1.64</v>
@@ -36794,7 +36797,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q172">
         <v>2.63</v>
@@ -36872,7 +36875,7 @@
         <v>1.22</v>
       </c>
       <c r="AP172">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ172">
         <v>1.25</v>
@@ -37000,7 +37003,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q173">
         <v>2.3</v>
@@ -37078,7 +37081,7 @@
         <v>0.11</v>
       </c>
       <c r="AP173">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ173">
         <v>0.75</v>
@@ -38030,7 +38033,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38442,7 +38445,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>2.2</v>
@@ -38648,7 +38651,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q181">
         <v>3.25</v>
@@ -38729,7 +38732,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ181">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR181">
         <v>1.42</v>
@@ -39884,7 +39887,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q187">
         <v>2.55</v>
@@ -40090,7 +40093,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q188">
         <v>4.5</v>
@@ -40374,7 +40377,7 @@
         <v>0.44</v>
       </c>
       <c r="AP189">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
         <v>0.53</v>
@@ -40583,7 +40586,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ190">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR190">
         <v>1.63</v>
@@ -40708,7 +40711,7 @@
         <v>90</v>
       </c>
       <c r="P191" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40914,7 +40917,7 @@
         <v>90</v>
       </c>
       <c r="P192" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q192">
         <v>3.25</v>
@@ -40992,7 +40995,7 @@
         <v>0.8</v>
       </c>
       <c r="AP192">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ192">
         <v>0.8100000000000001</v>
@@ -41532,7 +41535,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41738,7 +41741,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q196">
         <v>3.65</v>
@@ -41944,7 +41947,7 @@
         <v>218</v>
       </c>
       <c r="P197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>1.94</v>
@@ -42356,7 +42359,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42437,7 +42440,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ199">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -42846,7 +42849,7 @@
         <v>1.36</v>
       </c>
       <c r="AP201">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ201">
         <v>1.56</v>
@@ -43386,7 +43389,7 @@
         <v>160</v>
       </c>
       <c r="P204" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43592,7 +43595,7 @@
         <v>90</v>
       </c>
       <c r="P205" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43879,7 +43882,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ206">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR206">
         <v>1.62</v>
@@ -44004,7 +44007,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q207">
         <v>3.8</v>
@@ -44494,7 +44497,7 @@
         <v>0.55</v>
       </c>
       <c r="AP209">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ209">
         <v>0.5</v>
@@ -45240,7 +45243,7 @@
         <v>226</v>
       </c>
       <c r="P213" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45652,7 +45655,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q215">
         <v>2.95</v>
@@ -45858,7 +45861,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q216">
         <v>1.96</v>
@@ -46476,7 +46479,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q219">
         <v>4.3</v>
@@ -46557,7 +46560,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ219">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -46966,7 +46969,7 @@
         <v>1</v>
       </c>
       <c r="AP221">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ221">
         <v>0.8100000000000001</v>
@@ -47094,7 +47097,7 @@
         <v>90</v>
       </c>
       <c r="P222" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47300,7 +47303,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q223">
         <v>3.65</v>
@@ -47506,7 +47509,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q224">
         <v>5.2</v>
@@ -47918,7 +47921,7 @@
         <v>221</v>
       </c>
       <c r="P226" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q226">
         <v>4.4</v>
@@ -47999,7 +48002,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ226">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR226">
         <v>1.25</v>
@@ -48124,7 +48127,7 @@
         <v>234</v>
       </c>
       <c r="P227" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q227">
         <v>2.7</v>
@@ -48742,7 +48745,7 @@
         <v>90</v>
       </c>
       <c r="P230" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q230">
         <v>3.04</v>
@@ -49360,7 +49363,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49566,7 +49569,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q234">
         <v>1.85</v>
@@ -49850,10 +49853,10 @@
         <v>1.5</v>
       </c>
       <c r="AP235">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ235">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR235">
         <v>1.76</v>
@@ -49978,7 +49981,7 @@
         <v>241</v>
       </c>
       <c r="P236" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q236">
         <v>3.7</v>
@@ -50596,7 +50599,7 @@
         <v>243</v>
       </c>
       <c r="P239" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -51086,7 +51089,7 @@
         <v>1.46</v>
       </c>
       <c r="AP241">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ241">
         <v>1.38</v>
@@ -51214,7 +51217,7 @@
         <v>245</v>
       </c>
       <c r="P242" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51501,7 +51504,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ243">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -52038,7 +52041,7 @@
         <v>114</v>
       </c>
       <c r="P246" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52531,7 +52534,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ248">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR248">
         <v>1.81</v>
@@ -53068,7 +53071,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q251">
         <v>4.75</v>
@@ -53480,7 +53483,7 @@
         <v>253</v>
       </c>
       <c r="P253" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q253">
         <v>2.2</v>
@@ -53764,7 +53767,7 @@
         <v>1.31</v>
       </c>
       <c r="AP254">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ254">
         <v>1.25</v>
@@ -54098,7 +54101,7 @@
         <v>194</v>
       </c>
       <c r="P256" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q256">
         <v>3.9</v>
@@ -54304,7 +54307,7 @@
         <v>133</v>
       </c>
       <c r="P257" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q257">
         <v>2.65</v>
@@ -54716,7 +54719,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -55128,7 +55131,7 @@
         <v>258</v>
       </c>
       <c r="P261" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q261">
         <v>2.63</v>
@@ -55206,7 +55209,7 @@
         <v>0.86</v>
       </c>
       <c r="AP261">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ261">
         <v>0.88</v>
@@ -55334,7 +55337,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55746,7 +55749,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56033,7 +56036,7 @@
         <v>2</v>
       </c>
       <c r="AQ265">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR265">
         <v>1.6</v>
@@ -56158,7 +56161,7 @@
         <v>261</v>
       </c>
       <c r="P266" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56236,7 +56239,7 @@
         <v>0.5</v>
       </c>
       <c r="AP266">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ266">
         <v>0.53</v>
@@ -56442,7 +56445,7 @@
         <v>0.79</v>
       </c>
       <c r="AP267">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ267">
         <v>0.75</v>
@@ -56570,7 +56573,7 @@
         <v>194</v>
       </c>
       <c r="P268" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q268">
         <v>7</v>
@@ -56776,7 +56779,7 @@
         <v>242</v>
       </c>
       <c r="P269" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q269">
         <v>3.9</v>
@@ -56982,7 +56985,7 @@
         <v>171</v>
       </c>
       <c r="P270" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q270">
         <v>5</v>
@@ -57063,7 +57066,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ270">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AR270">
         <v>1.26</v>
@@ -57188,7 +57191,7 @@
         <v>262</v>
       </c>
       <c r="P271" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q271">
         <v>2.3</v>
@@ -57394,7 +57397,7 @@
         <v>90</v>
       </c>
       <c r="P272" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58012,7 +58015,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58218,7 +58221,7 @@
         <v>265</v>
       </c>
       <c r="P276" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q276">
         <v>4.75</v>
@@ -58424,7 +58427,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q277">
         <v>2.1</v>
@@ -58836,7 +58839,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -59454,7 +59457,7 @@
         <v>123</v>
       </c>
       <c r="P282" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q282">
         <v>2.55</v>
@@ -59660,7 +59663,7 @@
         <v>268</v>
       </c>
       <c r="P283" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q283">
         <v>2.2</v>
@@ -60072,7 +60075,7 @@
         <v>270</v>
       </c>
       <c r="P285" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q285">
         <v>1.75</v>
@@ -60229,6 +60232,418 @@
       </c>
       <c r="BP285">
         <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7469146</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45772.625</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>79</v>
+      </c>
+      <c r="H286" t="s">
+        <v>72</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
+        <v>271</v>
+      </c>
+      <c r="P286" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q286">
+        <v>3</v>
+      </c>
+      <c r="R286">
+        <v>1.98</v>
+      </c>
+      <c r="S286">
+        <v>3.5</v>
+      </c>
+      <c r="T286">
+        <v>1.47</v>
+      </c>
+      <c r="U286">
+        <v>2.5</v>
+      </c>
+      <c r="V286">
+        <v>3.2</v>
+      </c>
+      <c r="W286">
+        <v>1.31</v>
+      </c>
+      <c r="X286">
+        <v>8.75</v>
+      </c>
+      <c r="Y286">
+        <v>1.06</v>
+      </c>
+      <c r="Z286">
+        <v>2.43</v>
+      </c>
+      <c r="AA286">
+        <v>3.09</v>
+      </c>
+      <c r="AB286">
+        <v>2.99</v>
+      </c>
+      <c r="AC286">
+        <v>1.07</v>
+      </c>
+      <c r="AD286">
+        <v>8</v>
+      </c>
+      <c r="AE286">
+        <v>1.42</v>
+      </c>
+      <c r="AF286">
+        <v>2.8</v>
+      </c>
+      <c r="AG286">
+        <v>2.15</v>
+      </c>
+      <c r="AH286">
+        <v>1.57</v>
+      </c>
+      <c r="AI286">
+        <v>1.93</v>
+      </c>
+      <c r="AJ286">
+        <v>1.77</v>
+      </c>
+      <c r="AK286">
+        <v>1.38</v>
+      </c>
+      <c r="AL286">
+        <v>1.33</v>
+      </c>
+      <c r="AM286">
+        <v>1.53</v>
+      </c>
+      <c r="AN286">
+        <v>1.27</v>
+      </c>
+      <c r="AO286">
+        <v>1.2</v>
+      </c>
+      <c r="AP286">
+        <v>1.38</v>
+      </c>
+      <c r="AQ286">
+        <v>1.13</v>
+      </c>
+      <c r="AR286">
+        <v>1.66</v>
+      </c>
+      <c r="AS286">
+        <v>1.4</v>
+      </c>
+      <c r="AT286">
+        <v>3.06</v>
+      </c>
+      <c r="AU286">
+        <v>3</v>
+      </c>
+      <c r="AV286">
+        <v>4</v>
+      </c>
+      <c r="AW286">
+        <v>3</v>
+      </c>
+      <c r="AX286">
+        <v>9</v>
+      </c>
+      <c r="AY286">
+        <v>6</v>
+      </c>
+      <c r="AZ286">
+        <v>13</v>
+      </c>
+      <c r="BA286">
+        <v>1</v>
+      </c>
+      <c r="BB286">
+        <v>4</v>
+      </c>
+      <c r="BC286">
+        <v>5</v>
+      </c>
+      <c r="BD286">
+        <v>1.77</v>
+      </c>
+      <c r="BE286">
+        <v>6.25</v>
+      </c>
+      <c r="BF286">
+        <v>2.3</v>
+      </c>
+      <c r="BG286">
+        <v>1.49</v>
+      </c>
+      <c r="BH286">
+        <v>2.43</v>
+      </c>
+      <c r="BI286">
+        <v>1.8</v>
+      </c>
+      <c r="BJ286">
+        <v>1.89</v>
+      </c>
+      <c r="BK286">
+        <v>2.28</v>
+      </c>
+      <c r="BL286">
+        <v>1.54</v>
+      </c>
+      <c r="BM286">
+        <v>2.95</v>
+      </c>
+      <c r="BN286">
+        <v>1.33</v>
+      </c>
+      <c r="BO286">
+        <v>3.95</v>
+      </c>
+      <c r="BP286">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7469147</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45773.375</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>81</v>
+      </c>
+      <c r="H287" t="s">
+        <v>85</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+      <c r="O287" t="s">
+        <v>272</v>
+      </c>
+      <c r="P287" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q287">
+        <v>3.45</v>
+      </c>
+      <c r="R287">
+        <v>2.15</v>
+      </c>
+      <c r="S287">
+        <v>2.75</v>
+      </c>
+      <c r="T287">
+        <v>1.33</v>
+      </c>
+      <c r="U287">
+        <v>3</v>
+      </c>
+      <c r="V287">
+        <v>2.45</v>
+      </c>
+      <c r="W287">
+        <v>1.48</v>
+      </c>
+      <c r="X287">
+        <v>6.55</v>
+      </c>
+      <c r="Y287">
+        <v>1.05</v>
+      </c>
+      <c r="Z287">
+        <v>3.05</v>
+      </c>
+      <c r="AA287">
+        <v>3.41</v>
+      </c>
+      <c r="AB287">
+        <v>2.23</v>
+      </c>
+      <c r="AC287">
+        <v>1.05</v>
+      </c>
+      <c r="AD287">
+        <v>9.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.25</v>
+      </c>
+      <c r="AF287">
+        <v>3.8</v>
+      </c>
+      <c r="AG287">
+        <v>1.89</v>
+      </c>
+      <c r="AH287">
+        <v>1.85</v>
+      </c>
+      <c r="AI287">
+        <v>1.6</v>
+      </c>
+      <c r="AJ287">
+        <v>2.15</v>
+      </c>
+      <c r="AK287">
+        <v>1.62</v>
+      </c>
+      <c r="AL287">
+        <v>1.25</v>
+      </c>
+      <c r="AM287">
+        <v>1.36</v>
+      </c>
+      <c r="AN287">
+        <v>1.4</v>
+      </c>
+      <c r="AO287">
+        <v>1.73</v>
+      </c>
+      <c r="AP287">
+        <v>1.38</v>
+      </c>
+      <c r="AQ287">
+        <v>1.69</v>
+      </c>
+      <c r="AR287">
+        <v>1.8</v>
+      </c>
+      <c r="AS287">
+        <v>1.48</v>
+      </c>
+      <c r="AT287">
+        <v>3.28</v>
+      </c>
+      <c r="AU287">
+        <v>4</v>
+      </c>
+      <c r="AV287">
+        <v>3</v>
+      </c>
+      <c r="AW287">
+        <v>17</v>
+      </c>
+      <c r="AX287">
+        <v>7</v>
+      </c>
+      <c r="AY287">
+        <v>21</v>
+      </c>
+      <c r="AZ287">
+        <v>10</v>
+      </c>
+      <c r="BA287">
+        <v>6</v>
+      </c>
+      <c r="BB287">
+        <v>3</v>
+      </c>
+      <c r="BC287">
+        <v>9</v>
+      </c>
+      <c r="BD287">
+        <v>2.08</v>
+      </c>
+      <c r="BE287">
+        <v>6.4</v>
+      </c>
+      <c r="BF287">
+        <v>1.9</v>
+      </c>
+      <c r="BG287">
+        <v>1.35</v>
+      </c>
+      <c r="BH287">
+        <v>2.88</v>
+      </c>
+      <c r="BI287">
+        <v>1.61</v>
+      </c>
+      <c r="BJ287">
+        <v>2.15</v>
+      </c>
+      <c r="BK287">
+        <v>1.98</v>
+      </c>
+      <c r="BL287">
+        <v>1.72</v>
+      </c>
+      <c r="BM287">
+        <v>2.55</v>
+      </c>
+      <c r="BN287">
+        <v>1.45</v>
+      </c>
+      <c r="BO287">
+        <v>3.3</v>
+      </c>
+      <c r="BP287">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,12 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['16', '23', '78', '90+3']</t>
+  </si>
+  <si>
+    <t>['73', '83']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -1518,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP287"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1777,7 +1783,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -2189,7 +2195,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -3013,7 +3019,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3425,7 +3431,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -4043,7 +4049,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4124,7 +4130,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4327,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ14">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4661,7 +4667,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4867,7 +4873,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5151,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5897,7 +5903,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -6309,7 +6315,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -7133,7 +7139,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7623,7 +7629,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -8035,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -8575,7 +8581,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8781,7 +8787,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8862,7 +8868,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ36">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8987,7 +8993,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9068,7 +9074,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -9193,7 +9199,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9399,7 +9405,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9811,7 +9817,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -10017,7 +10023,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -10223,7 +10229,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -11949,7 +11955,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ51">
         <v>1.56</v>
@@ -12489,7 +12495,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12695,7 +12701,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12979,7 +12985,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ56">
         <v>0.75</v>
@@ -13107,7 +13113,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13519,7 +13525,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13725,7 +13731,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -14137,7 +14143,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -14424,7 +14430,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14630,7 +14636,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ64">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.73</v>
@@ -15373,7 +15379,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15579,7 +15585,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15785,7 +15791,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16197,7 +16203,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16403,7 +16409,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16609,7 +16615,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16815,7 +16821,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16896,7 +16902,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -17021,7 +17027,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17308,7 +17314,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17639,7 +17645,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17845,7 +17851,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17923,7 +17929,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -18051,7 +18057,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18335,7 +18341,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ82">
         <v>0.8100000000000001</v>
@@ -18875,7 +18881,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18953,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ85">
         <v>0.5</v>
@@ -19081,7 +19087,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19905,7 +19911,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -20317,7 +20323,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20604,7 +20610,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20935,7 +20941,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -21013,7 +21019,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ95">
         <v>1.13</v>
@@ -21141,7 +21147,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21553,7 +21559,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21634,7 +21640,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ98">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>1.06</v>
@@ -22789,7 +22795,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -23613,7 +23619,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23694,7 +23700,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ108">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR108">
         <v>1.07</v>
@@ -24437,7 +24443,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24849,7 +24855,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -25133,7 +25139,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ115">
         <v>1.69</v>
@@ -25261,7 +25267,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25339,7 +25345,7 @@
         <v>1.2</v>
       </c>
       <c r="AP116">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ116">
         <v>1.38</v>
@@ -25548,7 +25554,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ117">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.7</v>
@@ -25673,7 +25679,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26166,7 +26172,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ120">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR120">
         <v>1.24</v>
@@ -26291,7 +26297,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26781,7 +26787,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -27811,7 +27817,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ128">
         <v>1.19</v>
@@ -28844,7 +28850,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ133">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR133">
         <v>1.34</v>
@@ -28969,7 +28975,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29175,7 +29181,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29871,7 +29877,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ138">
         <v>0.75</v>
@@ -30411,7 +30417,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30695,7 +30701,7 @@
         <v>2.13</v>
       </c>
       <c r="AP142">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ142">
         <v>1.69</v>
@@ -31110,7 +31116,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ144">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR144">
         <v>1.43</v>
@@ -31235,7 +31241,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31316,7 +31322,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ145">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31441,7 +31447,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31647,7 +31653,7 @@
         <v>129</v>
       </c>
       <c r="P147" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31853,7 +31859,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32059,7 +32065,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32471,7 +32477,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32883,7 +32889,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -33579,7 +33585,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ156">
         <v>1.13</v>
@@ -33707,7 +33713,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33913,7 +33919,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q158">
         <v>2.55</v>
@@ -34119,7 +34125,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q159">
         <v>3.3</v>
@@ -34325,7 +34331,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>2.75</v>
@@ -35021,10 +35027,10 @@
         <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ163">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR163">
         <v>1.75</v>
@@ -35767,7 +35773,7 @@
         <v>109</v>
       </c>
       <c r="P167" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>3.35</v>
@@ -36054,7 +36060,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ168">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR168">
         <v>1.22</v>
@@ -36179,7 +36185,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>2.8</v>
@@ -36385,7 +36391,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36797,7 +36803,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q172">
         <v>2.63</v>
@@ -37003,7 +37009,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q173">
         <v>2.3</v>
@@ -38033,7 +38039,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38445,7 +38451,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q180">
         <v>2.2</v>
@@ -38523,7 +38529,7 @@
         <v>1.44</v>
       </c>
       <c r="AP180">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ180">
         <v>0.9399999999999999</v>
@@ -38651,7 +38657,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q181">
         <v>3.25</v>
@@ -39553,7 +39559,7 @@
         <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ185">
         <v>1.38</v>
@@ -39762,7 +39768,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ186">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR186">
         <v>1.69</v>
@@ -39887,7 +39893,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q187">
         <v>2.55</v>
@@ -40093,7 +40099,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q188">
         <v>4.5</v>
@@ -40380,7 +40386,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR189">
         <v>1.73</v>
@@ -40711,7 +40717,7 @@
         <v>90</v>
       </c>
       <c r="P191" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40917,7 +40923,7 @@
         <v>90</v>
       </c>
       <c r="P192" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q192">
         <v>3.25</v>
@@ -41535,7 +41541,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41741,7 +41747,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q196">
         <v>3.65</v>
@@ -41947,7 +41953,7 @@
         <v>218</v>
       </c>
       <c r="P197" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q197">
         <v>1.94</v>
@@ -42025,7 +42031,7 @@
         <v>0.6</v>
       </c>
       <c r="AP197">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ197">
         <v>0.5</v>
@@ -42359,7 +42365,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -43389,7 +43395,7 @@
         <v>160</v>
       </c>
       <c r="P204" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43595,7 +43601,7 @@
         <v>90</v>
       </c>
       <c r="P205" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43673,7 +43679,7 @@
         <v>0.91</v>
       </c>
       <c r="AP205">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ205">
         <v>0.9399999999999999</v>
@@ -44007,7 +44013,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q207">
         <v>3.8</v>
@@ -44088,7 +44094,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ207">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR207">
         <v>1.58</v>
@@ -44294,7 +44300,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ208">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR208">
         <v>1.37</v>
@@ -45243,7 +45249,7 @@
         <v>226</v>
       </c>
       <c r="P213" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45655,7 +45661,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q215">
         <v>2.95</v>
@@ -45861,7 +45867,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q216">
         <v>1.96</v>
@@ -45939,7 +45945,7 @@
         <v>1.33</v>
       </c>
       <c r="AP216">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ216">
         <v>1.38</v>
@@ -46351,7 +46357,7 @@
         <v>0.91</v>
       </c>
       <c r="AP218">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ218">
         <v>1.06</v>
@@ -46479,7 +46485,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q219">
         <v>4.3</v>
@@ -47097,7 +47103,7 @@
         <v>90</v>
       </c>
       <c r="P222" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47178,7 +47184,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ222">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47303,7 +47309,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q223">
         <v>3.65</v>
@@ -47509,7 +47515,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q224">
         <v>5.2</v>
@@ -47590,7 +47596,7 @@
         <v>2</v>
       </c>
       <c r="AQ224">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR224">
         <v>1.63</v>
@@ -47793,7 +47799,7 @@
         <v>1.08</v>
       </c>
       <c r="AP225">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ225">
         <v>0.9399999999999999</v>
@@ -47921,7 +47927,7 @@
         <v>221</v>
       </c>
       <c r="P226" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q226">
         <v>4.4</v>
@@ -48127,7 +48133,7 @@
         <v>234</v>
       </c>
       <c r="P227" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q227">
         <v>2.7</v>
@@ -48745,7 +48751,7 @@
         <v>90</v>
       </c>
       <c r="P230" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q230">
         <v>3.04</v>
@@ -48823,7 +48829,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ230">
         <v>1.19</v>
@@ -49363,7 +49369,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49569,7 +49575,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q234">
         <v>1.85</v>
@@ -49981,7 +49987,7 @@
         <v>241</v>
       </c>
       <c r="P236" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q236">
         <v>3.7</v>
@@ -50599,7 +50605,7 @@
         <v>243</v>
       </c>
       <c r="P239" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -50886,7 +50892,7 @@
         <v>2</v>
       </c>
       <c r="AQ240">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR240">
         <v>1.63</v>
@@ -51217,7 +51223,7 @@
         <v>245</v>
       </c>
       <c r="P242" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51298,7 +51304,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ242">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR242">
         <v>1.6</v>
@@ -51707,7 +51713,7 @@
         <v>0.92</v>
       </c>
       <c r="AP244">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ244">
         <v>0.8100000000000001</v>
@@ -51913,7 +51919,7 @@
         <v>1.21</v>
       </c>
       <c r="AP245">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ245">
         <v>1.25</v>
@@ -52041,7 +52047,7 @@
         <v>114</v>
       </c>
       <c r="P246" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -53071,7 +53077,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q251">
         <v>4.75</v>
@@ -53483,7 +53489,7 @@
         <v>253</v>
       </c>
       <c r="P253" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q253">
         <v>2.2</v>
@@ -53564,7 +53570,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ253">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR253">
         <v>1.71</v>
@@ -54101,7 +54107,7 @@
         <v>194</v>
       </c>
       <c r="P256" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q256">
         <v>3.9</v>
@@ -54307,7 +54313,7 @@
         <v>133</v>
       </c>
       <c r="P257" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q257">
         <v>2.65</v>
@@ -54719,7 +54725,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -54800,7 +54806,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ259">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR259">
         <v>1.3</v>
@@ -55003,7 +55009,7 @@
         <v>0.86</v>
       </c>
       <c r="AP260">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ260">
         <v>0.8100000000000001</v>
@@ -55131,7 +55137,7 @@
         <v>258</v>
       </c>
       <c r="P261" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q261">
         <v>2.63</v>
@@ -55337,7 +55343,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55749,7 +55755,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -55827,7 +55833,7 @@
         <v>0.93</v>
       </c>
       <c r="AP264">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ264">
         <v>0.9399999999999999</v>
@@ -56161,7 +56167,7 @@
         <v>261</v>
       </c>
       <c r="P266" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56242,7 +56248,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ266">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR266">
         <v>1.79</v>
@@ -56573,7 +56579,7 @@
         <v>194</v>
       </c>
       <c r="P268" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q268">
         <v>7</v>
@@ -56654,7 +56660,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ268">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR268">
         <v>1.07</v>
@@ -56779,7 +56785,7 @@
         <v>242</v>
       </c>
       <c r="P269" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q269">
         <v>3.9</v>
@@ -56985,7 +56991,7 @@
         <v>171</v>
       </c>
       <c r="P270" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q270">
         <v>5</v>
@@ -57191,7 +57197,7 @@
         <v>262</v>
       </c>
       <c r="P271" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q271">
         <v>2.3</v>
@@ -57397,7 +57403,7 @@
         <v>90</v>
       </c>
       <c r="P272" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58015,7 +58021,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58221,7 +58227,7 @@
         <v>265</v>
       </c>
       <c r="P276" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q276">
         <v>4.75</v>
@@ -58427,7 +58433,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q277">
         <v>2.1</v>
@@ -58839,7 +58845,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -59457,7 +59463,7 @@
         <v>123</v>
       </c>
       <c r="P282" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q282">
         <v>2.55</v>
@@ -59663,7 +59669,7 @@
         <v>268</v>
       </c>
       <c r="P283" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q283">
         <v>2.2</v>
@@ -60075,7 +60081,7 @@
         <v>270</v>
       </c>
       <c r="P285" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q285">
         <v>1.75</v>
@@ -60644,6 +60650,418 @@
       </c>
       <c r="BP287">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7469145</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45773.625</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>86</v>
+      </c>
+      <c r="H288" t="s">
+        <v>76</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>4</v>
+      </c>
+      <c r="O288" t="s">
+        <v>273</v>
+      </c>
+      <c r="P288" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q288">
+        <v>1.57</v>
+      </c>
+      <c r="R288">
+        <v>2.8</v>
+      </c>
+      <c r="S288">
+        <v>8</v>
+      </c>
+      <c r="T288">
+        <v>1.25</v>
+      </c>
+      <c r="U288">
+        <v>3.65</v>
+      </c>
+      <c r="V288">
+        <v>2.15</v>
+      </c>
+      <c r="W288">
+        <v>1.62</v>
+      </c>
+      <c r="X288">
+        <v>4.85</v>
+      </c>
+      <c r="Y288">
+        <v>1.11</v>
+      </c>
+      <c r="Z288">
+        <v>1.29</v>
+      </c>
+      <c r="AA288">
+        <v>5.4</v>
+      </c>
+      <c r="AB288">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC288">
+        <v>1.03</v>
+      </c>
+      <c r="AD288">
+        <v>11</v>
+      </c>
+      <c r="AE288">
+        <v>1.17</v>
+      </c>
+      <c r="AF288">
+        <v>5</v>
+      </c>
+      <c r="AG288">
+        <v>1.6</v>
+      </c>
+      <c r="AH288">
+        <v>2.33</v>
+      </c>
+      <c r="AI288">
+        <v>2.05</v>
+      </c>
+      <c r="AJ288">
+        <v>1.67</v>
+      </c>
+      <c r="AK288">
+        <v>1.04</v>
+      </c>
+      <c r="AL288">
+        <v>1.12</v>
+      </c>
+      <c r="AM288">
+        <v>3.95</v>
+      </c>
+      <c r="AN288">
+        <v>2.67</v>
+      </c>
+      <c r="AO288">
+        <v>0.53</v>
+      </c>
+      <c r="AP288">
+        <v>2.69</v>
+      </c>
+      <c r="AQ288">
+        <v>0.5</v>
+      </c>
+      <c r="AR288">
+        <v>1.78</v>
+      </c>
+      <c r="AS288">
+        <v>1.38</v>
+      </c>
+      <c r="AT288">
+        <v>3.16</v>
+      </c>
+      <c r="AU288">
+        <v>7</v>
+      </c>
+      <c r="AV288">
+        <v>3</v>
+      </c>
+      <c r="AW288">
+        <v>16</v>
+      </c>
+      <c r="AX288">
+        <v>7</v>
+      </c>
+      <c r="AY288">
+        <v>23</v>
+      </c>
+      <c r="AZ288">
+        <v>10</v>
+      </c>
+      <c r="BA288">
+        <v>12</v>
+      </c>
+      <c r="BB288">
+        <v>1</v>
+      </c>
+      <c r="BC288">
+        <v>13</v>
+      </c>
+      <c r="BD288">
+        <v>1.24</v>
+      </c>
+      <c r="BE288">
+        <v>8</v>
+      </c>
+      <c r="BF288">
+        <v>4.35</v>
+      </c>
+      <c r="BG288">
+        <v>1.27</v>
+      </c>
+      <c r="BH288">
+        <v>3.3</v>
+      </c>
+      <c r="BI288">
+        <v>1.48</v>
+      </c>
+      <c r="BJ288">
+        <v>2.43</v>
+      </c>
+      <c r="BK288">
+        <v>1.76</v>
+      </c>
+      <c r="BL288">
+        <v>1.94</v>
+      </c>
+      <c r="BM288">
+        <v>2.18</v>
+      </c>
+      <c r="BN288">
+        <v>1.58</v>
+      </c>
+      <c r="BO288">
+        <v>2.75</v>
+      </c>
+      <c r="BP288">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7469149</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45773.625</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>82</v>
+      </c>
+      <c r="H289" t="s">
+        <v>78</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>2</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289" t="s">
+        <v>274</v>
+      </c>
+      <c r="P289" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q289">
+        <v>4.33</v>
+      </c>
+      <c r="R289">
+        <v>2.15</v>
+      </c>
+      <c r="S289">
+        <v>2.35</v>
+      </c>
+      <c r="T289">
+        <v>1.35</v>
+      </c>
+      <c r="U289">
+        <v>2.95</v>
+      </c>
+      <c r="V289">
+        <v>2.6</v>
+      </c>
+      <c r="W289">
+        <v>1.44</v>
+      </c>
+      <c r="X289">
+        <v>7.1</v>
+      </c>
+      <c r="Y289">
+        <v>1.04</v>
+      </c>
+      <c r="Z289">
+        <v>4.3</v>
+      </c>
+      <c r="AA289">
+        <v>3.68</v>
+      </c>
+      <c r="AB289">
+        <v>1.77</v>
+      </c>
+      <c r="AC289">
+        <v>1.05</v>
+      </c>
+      <c r="AD289">
+        <v>9.5</v>
+      </c>
+      <c r="AE289">
+        <v>1.25</v>
+      </c>
+      <c r="AF289">
+        <v>3.7</v>
+      </c>
+      <c r="AG289">
+        <v>1.83</v>
+      </c>
+      <c r="AH289">
+        <v>1.91</v>
+      </c>
+      <c r="AI289">
+        <v>1.7</v>
+      </c>
+      <c r="AJ289">
+        <v>2</v>
+      </c>
+      <c r="AK289">
+        <v>1.95</v>
+      </c>
+      <c r="AL289">
+        <v>1.22</v>
+      </c>
+      <c r="AM289">
+        <v>1.22</v>
+      </c>
+      <c r="AN289">
+        <v>1.73</v>
+      </c>
+      <c r="AO289">
+        <v>1.73</v>
+      </c>
+      <c r="AP289">
+        <v>1.81</v>
+      </c>
+      <c r="AQ289">
+        <v>1.63</v>
+      </c>
+      <c r="AR289">
+        <v>1.71</v>
+      </c>
+      <c r="AS289">
+        <v>1.44</v>
+      </c>
+      <c r="AT289">
+        <v>3.15</v>
+      </c>
+      <c r="AU289">
+        <v>6</v>
+      </c>
+      <c r="AV289">
+        <v>4</v>
+      </c>
+      <c r="AW289">
+        <v>13</v>
+      </c>
+      <c r="AX289">
+        <v>14</v>
+      </c>
+      <c r="AY289">
+        <v>19</v>
+      </c>
+      <c r="AZ289">
+        <v>18</v>
+      </c>
+      <c r="BA289">
+        <v>6</v>
+      </c>
+      <c r="BB289">
+        <v>6</v>
+      </c>
+      <c r="BC289">
+        <v>12</v>
+      </c>
+      <c r="BD289">
+        <v>2.23</v>
+      </c>
+      <c r="BE289">
+        <v>6.25</v>
+      </c>
+      <c r="BF289">
+        <v>1.8</v>
+      </c>
+      <c r="BG289">
+        <v>1.44</v>
+      </c>
+      <c r="BH289">
+        <v>2.55</v>
+      </c>
+      <c r="BI289">
+        <v>1.73</v>
+      </c>
+      <c r="BJ289">
+        <v>1.98</v>
+      </c>
+      <c r="BK289">
+        <v>2.17</v>
+      </c>
+      <c r="BL289">
+        <v>1.6</v>
+      </c>
+      <c r="BM289">
+        <v>2.8</v>
+      </c>
+      <c r="BN289">
+        <v>1.38</v>
+      </c>
+      <c r="BO289">
+        <v>3.7</v>
+      </c>
+      <c r="BP289">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,24 @@
     <t>['73', '83']</t>
   </si>
   <si>
+    <t>['24', '68']</t>
+  </si>
+  <si>
+    <t>['28', '35', '51']</t>
+  </si>
+  <si>
+    <t>['27', '83']</t>
+  </si>
+  <si>
+    <t>['69', '83', '87']</t>
+  </si>
+  <si>
+    <t>['1', '26', '64']</t>
+  </si>
+  <si>
+    <t>['7', '17', '24', '86']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -1163,6 +1181,18 @@
   </si>
   <si>
     <t>['33', '77', '90+1']</t>
+  </si>
+  <si>
+    <t>['40', '53']</t>
+  </si>
+  <si>
+    <t>['65', '73', '80']</t>
+  </si>
+  <si>
+    <t>['54', '75']</t>
+  </si>
+  <si>
+    <t>['33', '67']</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,7 +1813,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1861,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2067,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ3">
         <v>0.9399999999999999</v>
@@ -2195,7 +2225,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2273,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2479,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ5">
         <v>0.88</v>
@@ -2685,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2891,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ7">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3019,7 +3049,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3097,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ8">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3303,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3431,7 +3461,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3509,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ10">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4049,7 +4079,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4667,7 +4697,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4873,7 +4903,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5569,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ20">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5775,10 +5805,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5903,7 +5933,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5981,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ22">
         <v>0.88</v>
@@ -6187,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ23">
         <v>0.9399999999999999</v>
@@ -6315,7 +6345,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6393,10 +6423,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -6599,10 +6629,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6805,10 +6835,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ26">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -7011,10 +7041,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ27">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -7139,7 +7169,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7217,10 +7247,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -7835,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -8456,7 +8486,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ34">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8581,7 +8611,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8787,7 +8817,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8993,7 +9023,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9071,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -9199,7 +9229,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9405,7 +9435,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9483,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ39">
         <v>1.06</v>
@@ -9692,7 +9722,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ40">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9817,7 +9847,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9895,10 +9925,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR41">
         <v>1.73</v>
@@ -10023,7 +10053,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -10101,10 +10131,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ42">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -10229,7 +10259,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10310,7 +10340,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -10513,7 +10543,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10719,7 +10749,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ45">
         <v>0.9399999999999999</v>
@@ -10925,10 +10955,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ46">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -11131,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -11340,7 +11370,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11543,7 +11573,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ49">
         <v>1.25</v>
@@ -11958,7 +11988,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ51">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -12161,7 +12191,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ52">
         <v>1.06</v>
@@ -12367,10 +12397,10 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR53">
         <v>1.76</v>
@@ -12495,7 +12525,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12573,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>0.88</v>
@@ -12701,7 +12731,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12782,7 +12812,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR55">
         <v>1.98</v>
@@ -13113,7 +13143,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13194,7 +13224,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ57">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -13397,7 +13427,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ58">
         <v>1.13</v>
@@ -13525,7 +13555,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13606,7 +13636,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR59">
         <v>1.53</v>
@@ -13731,7 +13761,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13809,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -14015,7 +14045,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ61">
         <v>0.9399999999999999</v>
@@ -14143,7 +14173,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -14224,7 +14254,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR62">
         <v>1.16</v>
@@ -14633,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14842,7 +14872,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ65">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR65">
         <v>1.6</v>
@@ -15251,10 +15281,10 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ67">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -15379,7 +15409,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15585,7 +15615,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15663,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ69">
         <v>1.25</v>
@@ -15791,7 +15821,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15869,10 +15899,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ70">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -16075,7 +16105,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.38</v>
@@ -16203,7 +16233,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16281,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ72">
         <v>0.5</v>
@@ -16409,7 +16439,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16487,7 +16517,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ73">
         <v>0.9399999999999999</v>
@@ -16615,7 +16645,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16693,10 +16723,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ74">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16821,7 +16851,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -17027,7 +17057,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17311,7 +17341,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77">
         <v>1.63</v>
@@ -17645,7 +17675,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17723,7 +17753,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -17851,7 +17881,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17932,7 +17962,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR80">
         <v>2.09</v>
@@ -18057,7 +18087,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18138,7 +18168,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR81">
         <v>1.22</v>
@@ -18344,7 +18374,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ82">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18547,7 +18577,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18756,7 +18786,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18881,7 +18911,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -19087,7 +19117,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19168,7 +19198,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR86">
         <v>1.88</v>
@@ -19371,7 +19401,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>1.25</v>
@@ -19577,7 +19607,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ88">
         <v>1.38</v>
@@ -19911,7 +19941,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19989,10 +20019,10 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ90">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -20198,7 +20228,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -20323,7 +20353,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20813,10 +20843,10 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20941,7 +20971,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -21147,7 +21177,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21431,10 +21461,10 @@
         <v>2.4</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ97">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21559,7 +21589,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21637,7 +21667,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21843,7 +21873,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ99">
         <v>0.75</v>
@@ -22049,7 +22079,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -22255,7 +22285,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ101">
         <v>0.88</v>
@@ -22464,7 +22494,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22667,10 +22697,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>1.26</v>
@@ -22795,7 +22825,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -23082,7 +23112,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23285,10 +23315,10 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ106">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR106">
         <v>1.41</v>
@@ -23491,7 +23521,7 @@
         <v>0.6</v>
       </c>
       <c r="AP107">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ107">
         <v>1.06</v>
@@ -23619,7 +23649,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23697,7 +23727,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ108">
         <v>1.63</v>
@@ -23903,7 +23933,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ109">
         <v>1.25</v>
@@ -24112,7 +24142,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR110">
         <v>1.85</v>
@@ -24315,7 +24345,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ111">
         <v>1.13</v>
@@ -24443,7 +24473,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24524,7 +24554,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ112">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24727,7 +24757,7 @@
         <v>1.4</v>
       </c>
       <c r="AP113">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -24855,7 +24885,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24936,7 +24966,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR114">
         <v>1.28</v>
@@ -25142,7 +25172,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ115">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR115">
         <v>1.51</v>
@@ -25267,7 +25297,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25551,7 +25581,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25679,7 +25709,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25757,10 +25787,10 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR118">
         <v>0.99</v>
@@ -26169,7 +26199,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
         <v>1.63</v>
@@ -26297,7 +26327,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26375,7 +26405,7 @@
         <v>1.14</v>
       </c>
       <c r="AP121">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26581,7 +26611,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ122">
         <v>0.5</v>
@@ -26996,7 +27026,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ124">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR124">
         <v>1.79</v>
@@ -27202,7 +27232,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ125">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR125">
         <v>1.66</v>
@@ -27405,7 +27435,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ126">
         <v>0.75</v>
@@ -27611,10 +27641,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ127">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR127">
         <v>1.21</v>
@@ -27820,7 +27850,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ128">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR128">
         <v>1.83</v>
@@ -28023,7 +28053,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ129">
         <v>1.38</v>
@@ -28232,7 +28262,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ130">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR130">
         <v>1.89</v>
@@ -28644,7 +28674,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -28975,7 +29005,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29053,7 +29083,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ134">
         <v>0.5</v>
@@ -29181,7 +29211,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29259,10 +29289,10 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ135">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29465,7 +29495,7 @@
         <v>1.17</v>
       </c>
       <c r="AP136">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ136">
         <v>1.13</v>
@@ -30289,7 +30319,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ140">
         <v>0.9399999999999999</v>
@@ -30417,7 +30447,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30495,10 +30525,10 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ141">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR141">
         <v>1.72</v>
@@ -30704,7 +30734,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ142">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR142">
         <v>1.78</v>
@@ -31241,7 +31271,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31319,7 +31349,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ145">
         <v>0.5</v>
@@ -31447,7 +31477,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31525,10 +31555,10 @@
         <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ146">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR146">
         <v>1.08</v>
@@ -31653,7 +31683,7 @@
         <v>129</v>
       </c>
       <c r="P147" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31731,10 +31761,10 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ147">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR147">
         <v>1.16</v>
@@ -31859,7 +31889,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32065,7 +32095,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -32143,10 +32173,10 @@
         <v>0.88</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ149">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR149">
         <v>1.68</v>
@@ -32349,7 +32379,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32477,7 +32507,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32761,10 +32791,10 @@
         <v>0.63</v>
       </c>
       <c r="AP152">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ152">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR152">
         <v>1.6</v>
@@ -32889,7 +32919,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -32967,7 +32997,7 @@
         <v>1</v>
       </c>
       <c r="AP153">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ153">
         <v>1.13</v>
@@ -33176,7 +33206,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ154">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -33379,7 +33409,7 @@
         <v>1.25</v>
       </c>
       <c r="AP155">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ155">
         <v>0.9399999999999999</v>
@@ -33713,7 +33743,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q157">
         <v>2.7</v>
@@ -33794,7 +33824,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR157">
         <v>1.86</v>
@@ -33919,7 +33949,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q158">
         <v>2.55</v>
@@ -34125,7 +34155,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q159">
         <v>3.3</v>
@@ -34331,7 +34361,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>2.75</v>
@@ -34409,7 +34439,7 @@
         <v>0.5</v>
       </c>
       <c r="AP160">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ160">
         <v>1.06</v>
@@ -35233,7 +35263,7 @@
         <v>1.11</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ164">
         <v>0.9399999999999999</v>
@@ -35439,7 +35469,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ165">
         <v>1.25</v>
@@ -35645,10 +35675,10 @@
         <v>0.89</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ166">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR166">
         <v>1.68</v>
@@ -35773,7 +35803,7 @@
         <v>109</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q167">
         <v>3.35</v>
@@ -35854,7 +35884,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR167">
         <v>1.14</v>
@@ -36057,7 +36087,7 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ168">
         <v>0.5</v>
@@ -36185,7 +36215,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q169">
         <v>2.8</v>
@@ -36263,10 +36293,10 @@
         <v>1.56</v>
       </c>
       <c r="AP169">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -36391,7 +36421,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36469,10 +36499,10 @@
         <v>1.89</v>
       </c>
       <c r="AP170">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ170">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR170">
         <v>1.64</v>
@@ -36675,10 +36705,10 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ171">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR171">
         <v>1.68</v>
@@ -36803,7 +36833,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q172">
         <v>2.63</v>
@@ -36884,7 +36914,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ172">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR172">
         <v>1.73</v>
@@ -37009,7 +37039,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q173">
         <v>2.3</v>
@@ -37296,7 +37326,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR174">
         <v>1.67</v>
@@ -37499,7 +37529,7 @@
         <v>0.67</v>
       </c>
       <c r="AP175">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ175">
         <v>0.5</v>
@@ -37708,7 +37738,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ176">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR176">
         <v>1.28</v>
@@ -37911,7 +37941,7 @@
         <v>0.78</v>
       </c>
       <c r="AP177">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ177">
         <v>1.06</v>
@@ -38039,7 +38069,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38117,7 +38147,7 @@
         <v>1.33</v>
       </c>
       <c r="AP178">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ178">
         <v>1.38</v>
@@ -38451,7 +38481,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q180">
         <v>2.2</v>
@@ -38657,7 +38687,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q181">
         <v>3.25</v>
@@ -38941,7 +38971,7 @@
         <v>1.22</v>
       </c>
       <c r="AP182">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ182">
         <v>1.25</v>
@@ -39147,7 +39177,7 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ183">
         <v>0.9399999999999999</v>
@@ -39353,10 +39383,10 @@
         <v>1.4</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ184">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR184">
         <v>1.62</v>
@@ -39562,7 +39592,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ185">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR185">
         <v>1.51</v>
@@ -39893,7 +39923,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q187">
         <v>2.55</v>
@@ -39971,7 +40001,7 @@
         <v>0.4</v>
       </c>
       <c r="AP187">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
         <v>0.75</v>
@@ -40099,7 +40129,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q188">
         <v>4.5</v>
@@ -40180,7 +40210,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ188">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR188">
         <v>1.26</v>
@@ -40589,10 +40619,10 @@
         <v>1.7</v>
       </c>
       <c r="AP190">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ190">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR190">
         <v>1.63</v>
@@ -40717,7 +40747,7 @@
         <v>90</v>
       </c>
       <c r="P191" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40798,7 +40828,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR191">
         <v>1.28</v>
@@ -40923,7 +40953,7 @@
         <v>90</v>
       </c>
       <c r="P192" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q192">
         <v>3.25</v>
@@ -41004,7 +41034,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ192">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR192">
         <v>1.84</v>
@@ -41207,7 +41237,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ193">
         <v>0.88</v>
@@ -41416,7 +41446,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ194">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR194">
         <v>1.83</v>
@@ -41541,7 +41571,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41619,10 +41649,10 @@
         <v>0.91</v>
       </c>
       <c r="AP195">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ195">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR195">
         <v>1.02</v>
@@ -41747,7 +41777,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q196">
         <v>3.65</v>
@@ -41825,7 +41855,7 @@
         <v>1.5</v>
       </c>
       <c r="AP196">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ196">
         <v>1.38</v>
@@ -41953,7 +41983,7 @@
         <v>218</v>
       </c>
       <c r="P197" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q197">
         <v>1.94</v>
@@ -42237,7 +42267,7 @@
         <v>1.3</v>
       </c>
       <c r="AP198">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ198">
         <v>0.9399999999999999</v>
@@ -42365,7 +42395,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42443,7 +42473,7 @@
         <v>1.2</v>
       </c>
       <c r="AP199">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ199">
         <v>1.13</v>
@@ -42649,10 +42679,10 @@
         <v>1</v>
       </c>
       <c r="AP200">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR200">
         <v>1.39</v>
@@ -42858,7 +42888,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ201">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR201">
         <v>1.74</v>
@@ -43267,10 +43297,10 @@
         <v>1.45</v>
       </c>
       <c r="AP203">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ203">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR203">
         <v>1.24</v>
@@ -43395,7 +43425,7 @@
         <v>160</v>
       </c>
       <c r="P204" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43473,7 +43503,7 @@
         <v>0.7</v>
       </c>
       <c r="AP204">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ204">
         <v>1.06</v>
@@ -43601,7 +43631,7 @@
         <v>90</v>
       </c>
       <c r="P205" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -43885,10 +43915,10 @@
         <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ206">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR206">
         <v>1.62</v>
@@ -44013,7 +44043,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q207">
         <v>3.8</v>
@@ -44091,7 +44121,7 @@
         <v>1.3</v>
       </c>
       <c r="AP207">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ207">
         <v>1.63</v>
@@ -44918,7 +44948,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ211">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR211">
         <v>1.79</v>
@@ -45121,7 +45151,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ212">
         <v>0.9399999999999999</v>
@@ -45249,7 +45279,7 @@
         <v>226</v>
       </c>
       <c r="P213" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45327,7 +45357,7 @@
         <v>1.64</v>
       </c>
       <c r="AP213">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ213">
         <v>1.38</v>
@@ -45533,10 +45563,10 @@
         <v>1.42</v>
       </c>
       <c r="AP214">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ214">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR214">
         <v>1.01</v>
@@ -45661,7 +45691,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q215">
         <v>2.95</v>
@@ -45739,10 +45769,10 @@
         <v>0.83</v>
       </c>
       <c r="AP215">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ215">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR215">
         <v>1.26</v>
@@ -45867,7 +45897,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q216">
         <v>1.96</v>
@@ -45948,7 +45978,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ216">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR216">
         <v>1.78</v>
@@ -46151,7 +46181,7 @@
         <v>0.64</v>
       </c>
       <c r="AP217">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ217">
         <v>0.75</v>
@@ -46485,7 +46515,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>4.3</v>
@@ -46566,7 +46596,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ219">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR219">
         <v>1.4</v>
@@ -46978,7 +47008,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ221">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR221">
         <v>1.73</v>
@@ -47103,7 +47133,7 @@
         <v>90</v>
       </c>
       <c r="P222" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47181,7 +47211,7 @@
         <v>0.36</v>
       </c>
       <c r="AP222">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ222">
         <v>0.5</v>
@@ -47309,7 +47339,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q223">
         <v>3.65</v>
@@ -47515,7 +47545,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q224">
         <v>5.2</v>
@@ -47593,7 +47623,7 @@
         <v>1.45</v>
       </c>
       <c r="AP224">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ224">
         <v>1.63</v>
@@ -47927,7 +47957,7 @@
         <v>221</v>
       </c>
       <c r="P226" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q226">
         <v>4.4</v>
@@ -48005,7 +48035,7 @@
         <v>1.36</v>
       </c>
       <c r="AP226">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ226">
         <v>1.13</v>
@@ -48133,7 +48163,7 @@
         <v>234</v>
       </c>
       <c r="P227" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q227">
         <v>2.7</v>
@@ -48211,7 +48241,7 @@
         <v>0.83</v>
       </c>
       <c r="AP227">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ227">
         <v>0.75</v>
@@ -48751,7 +48781,7 @@
         <v>90</v>
       </c>
       <c r="P230" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q230">
         <v>3.04</v>
@@ -48832,7 +48862,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ230">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR230">
         <v>1.69</v>
@@ -49035,10 +49065,10 @@
         <v>1.46</v>
       </c>
       <c r="AP231">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ231">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR231">
         <v>1.26</v>
@@ -49241,7 +49271,7 @@
         <v>1.08</v>
       </c>
       <c r="AP232">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ232">
         <v>0.9399999999999999</v>
@@ -49369,7 +49399,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49450,7 +49480,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ233">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR233">
         <v>1.74</v>
@@ -49575,7 +49605,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q234">
         <v>1.85</v>
@@ -49653,10 +49683,10 @@
         <v>1.31</v>
       </c>
       <c r="AP234">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ234">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR234">
         <v>1.75</v>
@@ -49987,7 +50017,7 @@
         <v>241</v>
       </c>
       <c r="P236" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q236">
         <v>3.7</v>
@@ -50065,10 +50095,10 @@
         <v>0.85</v>
       </c>
       <c r="AP236">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ236">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR236">
         <v>1.04</v>
@@ -50271,7 +50301,7 @@
         <v>0.83</v>
       </c>
       <c r="AP237">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ237">
         <v>1.06</v>
@@ -50605,7 +50635,7 @@
         <v>243</v>
       </c>
       <c r="P239" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -50683,7 +50713,7 @@
         <v>0.92</v>
       </c>
       <c r="AP239">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ239">
         <v>0.88</v>
@@ -50889,7 +50919,7 @@
         <v>0.58</v>
       </c>
       <c r="AP240">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ240">
         <v>0.5</v>
@@ -51223,7 +51253,7 @@
         <v>245</v>
       </c>
       <c r="P242" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51301,7 +51331,7 @@
         <v>1.58</v>
       </c>
       <c r="AP242">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ242">
         <v>1.63</v>
@@ -51510,7 +51540,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ243">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR243">
         <v>1.29</v>
@@ -51716,7 +51746,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ244">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR244">
         <v>1.82</v>
@@ -51922,7 +51952,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ245">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR245">
         <v>1.66</v>
@@ -52047,7 +52077,7 @@
         <v>114</v>
       </c>
       <c r="P246" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52331,7 +52361,7 @@
         <v>0.85</v>
       </c>
       <c r="AP247">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ247">
         <v>0.75</v>
@@ -52743,7 +52773,7 @@
         <v>0.54</v>
       </c>
       <c r="AP249">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ249">
         <v>0.5</v>
@@ -52949,10 +52979,10 @@
         <v>1.14</v>
       </c>
       <c r="AP250">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ250">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR250">
         <v>1.74</v>
@@ -53077,7 +53107,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q251">
         <v>4.75</v>
@@ -53155,10 +53185,10 @@
         <v>1.38</v>
       </c>
       <c r="AP251">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ251">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR251">
         <v>1.3</v>
@@ -53361,10 +53391,10 @@
         <v>1.57</v>
       </c>
       <c r="AP252">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ252">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR252">
         <v>1.66</v>
@@ -53489,7 +53519,7 @@
         <v>253</v>
       </c>
       <c r="P253" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q253">
         <v>2.2</v>
@@ -53979,7 +54009,7 @@
         <v>0.57</v>
       </c>
       <c r="AP255">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ255">
         <v>0.5</v>
@@ -54107,7 +54137,7 @@
         <v>194</v>
       </c>
       <c r="P256" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q256">
         <v>3.9</v>
@@ -54188,7 +54218,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ256">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR256">
         <v>1.35</v>
@@ -54313,7 +54343,7 @@
         <v>133</v>
       </c>
       <c r="P257" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q257">
         <v>2.65</v>
@@ -54725,7 +54755,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -54803,7 +54833,7 @@
         <v>1.69</v>
       </c>
       <c r="AP259">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ259">
         <v>1.63</v>
@@ -55012,7 +55042,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ260">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR260">
         <v>1.78</v>
@@ -55137,7 +55167,7 @@
         <v>258</v>
       </c>
       <c r="P261" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q261">
         <v>2.63</v>
@@ -55343,7 +55373,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55421,7 +55451,7 @@
         <v>1.57</v>
       </c>
       <c r="AP262">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ262">
         <v>1.38</v>
@@ -55630,7 +55660,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ263">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AR263">
         <v>1.33</v>
@@ -55755,7 +55785,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56039,7 +56069,7 @@
         <v>1.29</v>
       </c>
       <c r="AP265">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ265">
         <v>1.13</v>
@@ -56167,7 +56197,7 @@
         <v>261</v>
       </c>
       <c r="P266" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56579,7 +56609,7 @@
         <v>194</v>
       </c>
       <c r="P268" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q268">
         <v>7</v>
@@ -56657,7 +56687,7 @@
         <v>1.64</v>
       </c>
       <c r="AP268">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AQ268">
         <v>1.63</v>
@@ -56785,7 +56815,7 @@
         <v>242</v>
       </c>
       <c r="P269" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q269">
         <v>3.9</v>
@@ -56863,10 +56893,10 @@
         <v>1.5</v>
       </c>
       <c r="AP269">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ269">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR269">
         <v>1.69</v>
@@ -56991,7 +57021,7 @@
         <v>171</v>
       </c>
       <c r="P270" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q270">
         <v>5</v>
@@ -57069,10 +57099,10 @@
         <v>1.64</v>
       </c>
       <c r="AP270">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ270">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR270">
         <v>1.26</v>
@@ -57197,7 +57227,7 @@
         <v>262</v>
       </c>
       <c r="P271" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q271">
         <v>2.3</v>
@@ -57278,7 +57308,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ271">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AR271">
         <v>1.81</v>
@@ -57403,7 +57433,7 @@
         <v>90</v>
       </c>
       <c r="P272" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -57481,10 +57511,10 @@
         <v>1.07</v>
       </c>
       <c r="AP272">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ272">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR272">
         <v>1.41</v>
@@ -57687,7 +57717,7 @@
         <v>1</v>
       </c>
       <c r="AP273">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AQ273">
         <v>1.06</v>
@@ -58021,7 +58051,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58099,10 +58129,10 @@
         <v>0.8</v>
       </c>
       <c r="AP275">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ275">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR275">
         <v>1.3</v>
@@ -58227,7 +58257,7 @@
         <v>265</v>
       </c>
       <c r="P276" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q276">
         <v>4.75</v>
@@ -58305,7 +58335,7 @@
         <v>1.47</v>
       </c>
       <c r="AP276">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ276">
         <v>1.38</v>
@@ -58433,7 +58463,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q277">
         <v>2.1</v>
@@ -58511,7 +58541,7 @@
         <v>1.21</v>
       </c>
       <c r="AP277">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AQ277">
         <v>1.25</v>
@@ -58720,7 +58750,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ278">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR278">
         <v>1.72</v>
@@ -58845,7 +58875,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -58923,7 +58953,7 @@
         <v>0.87</v>
       </c>
       <c r="AP279">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ279">
         <v>0.88</v>
@@ -59132,7 +59162,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ280">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR280">
         <v>1.34</v>
@@ -59463,7 +59493,7 @@
         <v>123</v>
       </c>
       <c r="P282" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q282">
         <v>2.55</v>
@@ -59669,7 +59699,7 @@
         <v>268</v>
       </c>
       <c r="P283" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q283">
         <v>2.2</v>
@@ -60081,7 +60111,7 @@
         <v>270</v>
       </c>
       <c r="P285" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q285">
         <v>1.75</v>
@@ -60159,7 +60189,7 @@
         <v>1.33</v>
       </c>
       <c r="AP285">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ285">
         <v>1.25</v>
@@ -60574,7 +60604,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ287">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AR287">
         <v>1.8</v>
@@ -61062,6 +61092,1860 @@
       </c>
       <c r="BP289">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7469162</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>71</v>
+      </c>
+      <c r="H290" t="s">
+        <v>86</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>2</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>275</v>
+      </c>
+      <c r="P290" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q290">
+        <v>6.5</v>
+      </c>
+      <c r="R290">
+        <v>2.2</v>
+      </c>
+      <c r="S290">
+        <v>2.1</v>
+      </c>
+      <c r="T290">
+        <v>1.44</v>
+      </c>
+      <c r="U290">
+        <v>2.63</v>
+      </c>
+      <c r="V290">
+        <v>3.25</v>
+      </c>
+      <c r="W290">
+        <v>1.33</v>
+      </c>
+      <c r="X290">
+        <v>9</v>
+      </c>
+      <c r="Y290">
+        <v>1.07</v>
+      </c>
+      <c r="Z290">
+        <v>5.8</v>
+      </c>
+      <c r="AA290">
+        <v>3.94</v>
+      </c>
+      <c r="AB290">
+        <v>1.55</v>
+      </c>
+      <c r="AC290">
+        <v>1.06</v>
+      </c>
+      <c r="AD290">
+        <v>8.5</v>
+      </c>
+      <c r="AE290">
+        <v>1.36</v>
+      </c>
+      <c r="AF290">
+        <v>3.1</v>
+      </c>
+      <c r="AG290">
+        <v>1.95</v>
+      </c>
+      <c r="AH290">
+        <v>1.79</v>
+      </c>
+      <c r="AI290">
+        <v>2.2</v>
+      </c>
+      <c r="AJ290">
+        <v>1.62</v>
+      </c>
+      <c r="AK290">
+        <v>2.35</v>
+      </c>
+      <c r="AL290">
+        <v>1.25</v>
+      </c>
+      <c r="AM290">
+        <v>1.12</v>
+      </c>
+      <c r="AN290">
+        <v>1.69</v>
+      </c>
+      <c r="AO290">
+        <v>1.56</v>
+      </c>
+      <c r="AP290">
+        <v>1.76</v>
+      </c>
+      <c r="AQ290">
+        <v>1.47</v>
+      </c>
+      <c r="AR290">
+        <v>1.34</v>
+      </c>
+      <c r="AS290">
+        <v>1.57</v>
+      </c>
+      <c r="AT290">
+        <v>2.91</v>
+      </c>
+      <c r="AU290">
+        <v>4</v>
+      </c>
+      <c r="AV290">
+        <v>6</v>
+      </c>
+      <c r="AW290">
+        <v>2</v>
+      </c>
+      <c r="AX290">
+        <v>12</v>
+      </c>
+      <c r="AY290">
+        <v>6</v>
+      </c>
+      <c r="AZ290">
+        <v>18</v>
+      </c>
+      <c r="BA290">
+        <v>0</v>
+      </c>
+      <c r="BB290">
+        <v>6</v>
+      </c>
+      <c r="BC290">
+        <v>6</v>
+      </c>
+      <c r="BD290">
+        <v>3.55</v>
+      </c>
+      <c r="BE290">
+        <v>7</v>
+      </c>
+      <c r="BF290">
+        <v>1.35</v>
+      </c>
+      <c r="BG290">
+        <v>1.38</v>
+      </c>
+      <c r="BH290">
+        <v>2.7</v>
+      </c>
+      <c r="BI290">
+        <v>1.65</v>
+      </c>
+      <c r="BJ290">
+        <v>2.08</v>
+      </c>
+      <c r="BK290">
+        <v>2.02</v>
+      </c>
+      <c r="BL290">
+        <v>1.7</v>
+      </c>
+      <c r="BM290">
+        <v>2.55</v>
+      </c>
+      <c r="BN290">
+        <v>1.43</v>
+      </c>
+      <c r="BO290">
+        <v>3.4</v>
+      </c>
+      <c r="BP290">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7469160</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>72</v>
+      </c>
+      <c r="H291" t="s">
+        <v>80</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291" t="s">
+        <v>90</v>
+      </c>
+      <c r="P291" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q291">
+        <v>2.25</v>
+      </c>
+      <c r="R291">
+        <v>2.25</v>
+      </c>
+      <c r="S291">
+        <v>5</v>
+      </c>
+      <c r="T291">
+        <v>1.36</v>
+      </c>
+      <c r="U291">
+        <v>3</v>
+      </c>
+      <c r="V291">
+        <v>2.75</v>
+      </c>
+      <c r="W291">
+        <v>1.4</v>
+      </c>
+      <c r="X291">
+        <v>7</v>
+      </c>
+      <c r="Y291">
+        <v>1.1</v>
+      </c>
+      <c r="Z291">
+        <v>1.64</v>
+      </c>
+      <c r="AA291">
+        <v>3.79</v>
+      </c>
+      <c r="AB291">
+        <v>5.1</v>
+      </c>
+      <c r="AC291">
+        <v>1.05</v>
+      </c>
+      <c r="AD291">
+        <v>9</v>
+      </c>
+      <c r="AE291">
+        <v>1.3</v>
+      </c>
+      <c r="AF291">
+        <v>3.45</v>
+      </c>
+      <c r="AG291">
+        <v>1.89</v>
+      </c>
+      <c r="AH291">
+        <v>1.85</v>
+      </c>
+      <c r="AI291">
+        <v>1.83</v>
+      </c>
+      <c r="AJ291">
+        <v>1.83</v>
+      </c>
+      <c r="AK291">
+        <v>1.18</v>
+      </c>
+      <c r="AL291">
+        <v>1.25</v>
+      </c>
+      <c r="AM291">
+        <v>2.15</v>
+      </c>
+      <c r="AN291">
+        <v>2.25</v>
+      </c>
+      <c r="AO291">
+        <v>1.38</v>
+      </c>
+      <c r="AP291">
+        <v>2.18</v>
+      </c>
+      <c r="AQ291">
+        <v>1.35</v>
+      </c>
+      <c r="AR291">
+        <v>1.62</v>
+      </c>
+      <c r="AS291">
+        <v>1.1</v>
+      </c>
+      <c r="AT291">
+        <v>2.72</v>
+      </c>
+      <c r="AU291">
+        <v>5</v>
+      </c>
+      <c r="AV291">
+        <v>4</v>
+      </c>
+      <c r="AW291">
+        <v>8</v>
+      </c>
+      <c r="AX291">
+        <v>9</v>
+      </c>
+      <c r="AY291">
+        <v>13</v>
+      </c>
+      <c r="AZ291">
+        <v>13</v>
+      </c>
+      <c r="BA291">
+        <v>6</v>
+      </c>
+      <c r="BB291">
+        <v>4</v>
+      </c>
+      <c r="BC291">
+        <v>10</v>
+      </c>
+      <c r="BD291">
+        <v>1.49</v>
+      </c>
+      <c r="BE291">
+        <v>6.75</v>
+      </c>
+      <c r="BF291">
+        <v>2.9</v>
+      </c>
+      <c r="BG291">
+        <v>1.38</v>
+      </c>
+      <c r="BH291">
+        <v>2.8</v>
+      </c>
+      <c r="BI291">
+        <v>1.64</v>
+      </c>
+      <c r="BJ291">
+        <v>2.1</v>
+      </c>
+      <c r="BK291">
+        <v>1.9</v>
+      </c>
+      <c r="BL291">
+        <v>1.9</v>
+      </c>
+      <c r="BM291">
+        <v>2.55</v>
+      </c>
+      <c r="BN291">
+        <v>1.43</v>
+      </c>
+      <c r="BO291">
+        <v>3.4</v>
+      </c>
+      <c r="BP291">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7469159</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>76</v>
+      </c>
+      <c r="H292" t="s">
+        <v>87</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" t="s">
+        <v>189</v>
+      </c>
+      <c r="P292" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q292">
+        <v>2.75</v>
+      </c>
+      <c r="R292">
+        <v>2.25</v>
+      </c>
+      <c r="S292">
+        <v>3.75</v>
+      </c>
+      <c r="T292">
+        <v>1.36</v>
+      </c>
+      <c r="U292">
+        <v>3</v>
+      </c>
+      <c r="V292">
+        <v>2.63</v>
+      </c>
+      <c r="W292">
+        <v>1.44</v>
+      </c>
+      <c r="X292">
+        <v>7</v>
+      </c>
+      <c r="Y292">
+        <v>1.1</v>
+      </c>
+      <c r="Z292">
+        <v>2.04</v>
+      </c>
+      <c r="AA292">
+        <v>3.47</v>
+      </c>
+      <c r="AB292">
+        <v>3.45</v>
+      </c>
+      <c r="AC292">
+        <v>1.05</v>
+      </c>
+      <c r="AD292">
+        <v>9.5</v>
+      </c>
+      <c r="AE292">
+        <v>1.28</v>
+      </c>
+      <c r="AF292">
+        <v>3.55</v>
+      </c>
+      <c r="AG292">
+        <v>1.8</v>
+      </c>
+      <c r="AH292">
+        <v>1.94</v>
+      </c>
+      <c r="AI292">
+        <v>1.67</v>
+      </c>
+      <c r="AJ292">
+        <v>2.1</v>
+      </c>
+      <c r="AK292">
+        <v>1.33</v>
+      </c>
+      <c r="AL292">
+        <v>1.29</v>
+      </c>
+      <c r="AM292">
+        <v>1.68</v>
+      </c>
+      <c r="AN292">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO292">
+        <v>0.88</v>
+      </c>
+      <c r="AP292">
+        <v>0.82</v>
+      </c>
+      <c r="AQ292">
+        <v>0.88</v>
+      </c>
+      <c r="AR292">
+        <v>1.35</v>
+      </c>
+      <c r="AS292">
+        <v>1.17</v>
+      </c>
+      <c r="AT292">
+        <v>2.52</v>
+      </c>
+      <c r="AU292">
+        <v>5</v>
+      </c>
+      <c r="AV292">
+        <v>5</v>
+      </c>
+      <c r="AW292">
+        <v>10</v>
+      </c>
+      <c r="AX292">
+        <v>6</v>
+      </c>
+      <c r="AY292">
+        <v>15</v>
+      </c>
+      <c r="AZ292">
+        <v>11</v>
+      </c>
+      <c r="BA292">
+        <v>4</v>
+      </c>
+      <c r="BB292">
+        <v>2</v>
+      </c>
+      <c r="BC292">
+        <v>6</v>
+      </c>
+      <c r="BD292">
+        <v>1.58</v>
+      </c>
+      <c r="BE292">
+        <v>6.5</v>
+      </c>
+      <c r="BF292">
+        <v>2.65</v>
+      </c>
+      <c r="BG292">
+        <v>1.32</v>
+      </c>
+      <c r="BH292">
+        <v>3.05</v>
+      </c>
+      <c r="BI292">
+        <v>1.55</v>
+      </c>
+      <c r="BJ292">
+        <v>2.25</v>
+      </c>
+      <c r="BK292">
+        <v>1.9</v>
+      </c>
+      <c r="BL292">
+        <v>1.79</v>
+      </c>
+      <c r="BM292">
+        <v>2.4</v>
+      </c>
+      <c r="BN292">
+        <v>1.49</v>
+      </c>
+      <c r="BO292">
+        <v>3.15</v>
+      </c>
+      <c r="BP292">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7469161</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>74</v>
+      </c>
+      <c r="H293" t="s">
+        <v>79</v>
+      </c>
+      <c r="I293">
+        <v>2</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>2</v>
+      </c>
+      <c r="L293">
+        <v>3</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293">
+        <v>4</v>
+      </c>
+      <c r="O293" t="s">
+        <v>276</v>
+      </c>
+      <c r="P293" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q293">
+        <v>3.6</v>
+      </c>
+      <c r="R293">
+        <v>2.1</v>
+      </c>
+      <c r="S293">
+        <v>3</v>
+      </c>
+      <c r="T293">
+        <v>1.44</v>
+      </c>
+      <c r="U293">
+        <v>2.63</v>
+      </c>
+      <c r="V293">
+        <v>3</v>
+      </c>
+      <c r="W293">
+        <v>1.36</v>
+      </c>
+      <c r="X293">
+        <v>9</v>
+      </c>
+      <c r="Y293">
+        <v>1.07</v>
+      </c>
+      <c r="Z293">
+        <v>3.06</v>
+      </c>
+      <c r="AA293">
+        <v>3.18</v>
+      </c>
+      <c r="AB293">
+        <v>2.33</v>
+      </c>
+      <c r="AC293">
+        <v>1.07</v>
+      </c>
+      <c r="AD293">
+        <v>8</v>
+      </c>
+      <c r="AE293">
+        <v>1.35</v>
+      </c>
+      <c r="AF293">
+        <v>3.1</v>
+      </c>
+      <c r="AG293">
+        <v>1.89</v>
+      </c>
+      <c r="AH293">
+        <v>1.81</v>
+      </c>
+      <c r="AI293">
+        <v>1.83</v>
+      </c>
+      <c r="AJ293">
+        <v>1.83</v>
+      </c>
+      <c r="AK293">
+        <v>1.57</v>
+      </c>
+      <c r="AL293">
+        <v>1.33</v>
+      </c>
+      <c r="AM293">
+        <v>1.36</v>
+      </c>
+      <c r="AN293">
+        <v>1.63</v>
+      </c>
+      <c r="AO293">
+        <v>1.19</v>
+      </c>
+      <c r="AP293">
+        <v>1.71</v>
+      </c>
+      <c r="AQ293">
+        <v>1.12</v>
+      </c>
+      <c r="AR293">
+        <v>1.24</v>
+      </c>
+      <c r="AS293">
+        <v>1.37</v>
+      </c>
+      <c r="AT293">
+        <v>2.61</v>
+      </c>
+      <c r="AU293">
+        <v>5</v>
+      </c>
+      <c r="AV293">
+        <v>5</v>
+      </c>
+      <c r="AW293">
+        <v>9</v>
+      </c>
+      <c r="AX293">
+        <v>13</v>
+      </c>
+      <c r="AY293">
+        <v>14</v>
+      </c>
+      <c r="AZ293">
+        <v>18</v>
+      </c>
+      <c r="BA293">
+        <v>4</v>
+      </c>
+      <c r="BB293">
+        <v>9</v>
+      </c>
+      <c r="BC293">
+        <v>13</v>
+      </c>
+      <c r="BD293">
+        <v>2.17</v>
+      </c>
+      <c r="BE293">
+        <v>6.4</v>
+      </c>
+      <c r="BF293">
+        <v>1.85</v>
+      </c>
+      <c r="BG293">
+        <v>1.35</v>
+      </c>
+      <c r="BH293">
+        <v>2.9</v>
+      </c>
+      <c r="BI293">
+        <v>1.58</v>
+      </c>
+      <c r="BJ293">
+        <v>2.18</v>
+      </c>
+      <c r="BK293">
+        <v>1.97</v>
+      </c>
+      <c r="BL293">
+        <v>1.74</v>
+      </c>
+      <c r="BM293">
+        <v>2.48</v>
+      </c>
+      <c r="BN293">
+        <v>1.46</v>
+      </c>
+      <c r="BO293">
+        <v>3.2</v>
+      </c>
+      <c r="BP293">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7469157</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>75</v>
+      </c>
+      <c r="H294" t="s">
+        <v>83</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>2</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>2</v>
+      </c>
+      <c r="N294">
+        <v>4</v>
+      </c>
+      <c r="O294" t="s">
+        <v>277</v>
+      </c>
+      <c r="P294" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q294">
+        <v>2.5</v>
+      </c>
+      <c r="R294">
+        <v>2.2</v>
+      </c>
+      <c r="S294">
+        <v>4.5</v>
+      </c>
+      <c r="T294">
+        <v>1.4</v>
+      </c>
+      <c r="U294">
+        <v>2.75</v>
+      </c>
+      <c r="V294">
+        <v>3</v>
+      </c>
+      <c r="W294">
+        <v>1.36</v>
+      </c>
+      <c r="X294">
+        <v>8</v>
+      </c>
+      <c r="Y294">
+        <v>1.08</v>
+      </c>
+      <c r="Z294">
+        <v>1.88</v>
+      </c>
+      <c r="AA294">
+        <v>3.45</v>
+      </c>
+      <c r="AB294">
+        <v>4</v>
+      </c>
+      <c r="AC294">
+        <v>1.06</v>
+      </c>
+      <c r="AD294">
+        <v>8.5</v>
+      </c>
+      <c r="AE294">
+        <v>1.33</v>
+      </c>
+      <c r="AF294">
+        <v>3.25</v>
+      </c>
+      <c r="AG294">
+        <v>2</v>
+      </c>
+      <c r="AH294">
+        <v>1.75</v>
+      </c>
+      <c r="AI294">
+        <v>1.83</v>
+      </c>
+      <c r="AJ294">
+        <v>1.83</v>
+      </c>
+      <c r="AK294">
+        <v>1.21</v>
+      </c>
+      <c r="AL294">
+        <v>1.28</v>
+      </c>
+      <c r="AM294">
+        <v>1.93</v>
+      </c>
+      <c r="AN294">
+        <v>1.81</v>
+      </c>
+      <c r="AO294">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP294">
+        <v>1.76</v>
+      </c>
+      <c r="AQ294">
+        <v>0.82</v>
+      </c>
+      <c r="AR294">
+        <v>1.66</v>
+      </c>
+      <c r="AS294">
+        <v>1.4</v>
+      </c>
+      <c r="AT294">
+        <v>3.06</v>
+      </c>
+      <c r="AU294">
+        <v>11</v>
+      </c>
+      <c r="AV294">
+        <v>5</v>
+      </c>
+      <c r="AW294">
+        <v>8</v>
+      </c>
+      <c r="AX294">
+        <v>10</v>
+      </c>
+      <c r="AY294">
+        <v>19</v>
+      </c>
+      <c r="AZ294">
+        <v>15</v>
+      </c>
+      <c r="BA294">
+        <v>12</v>
+      </c>
+      <c r="BB294">
+        <v>6</v>
+      </c>
+      <c r="BC294">
+        <v>18</v>
+      </c>
+      <c r="BD294">
+        <v>1.5</v>
+      </c>
+      <c r="BE294">
+        <v>6.5</v>
+      </c>
+      <c r="BF294">
+        <v>2.8</v>
+      </c>
+      <c r="BG294">
+        <v>1.44</v>
+      </c>
+      <c r="BH294">
+        <v>2.55</v>
+      </c>
+      <c r="BI294">
+        <v>1.74</v>
+      </c>
+      <c r="BJ294">
+        <v>1.97</v>
+      </c>
+      <c r="BK294">
+        <v>2.18</v>
+      </c>
+      <c r="BL294">
+        <v>1.58</v>
+      </c>
+      <c r="BM294">
+        <v>2.85</v>
+      </c>
+      <c r="BN294">
+        <v>1.36</v>
+      </c>
+      <c r="BO294">
+        <v>3.8</v>
+      </c>
+      <c r="BP294">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7469155</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>77</v>
+      </c>
+      <c r="H295" t="s">
+        <v>85</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>95</v>
+      </c>
+      <c r="P295" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q295">
+        <v>6.5</v>
+      </c>
+      <c r="R295">
+        <v>2.4</v>
+      </c>
+      <c r="S295">
+        <v>1.91</v>
+      </c>
+      <c r="T295">
+        <v>1.33</v>
+      </c>
+      <c r="U295">
+        <v>3.25</v>
+      </c>
+      <c r="V295">
+        <v>2.5</v>
+      </c>
+      <c r="W295">
+        <v>1.5</v>
+      </c>
+      <c r="X295">
+        <v>6</v>
+      </c>
+      <c r="Y295">
+        <v>1.13</v>
+      </c>
+      <c r="Z295">
+        <v>6.2</v>
+      </c>
+      <c r="AA295">
+        <v>4.6</v>
+      </c>
+      <c r="AB295">
+        <v>1.44</v>
+      </c>
+      <c r="AC295">
+        <v>1.04</v>
+      </c>
+      <c r="AD295">
+        <v>10</v>
+      </c>
+      <c r="AE295">
+        <v>1.22</v>
+      </c>
+      <c r="AF295">
+        <v>4.2</v>
+      </c>
+      <c r="AG295">
+        <v>1.83</v>
+      </c>
+      <c r="AH295">
+        <v>1.87</v>
+      </c>
+      <c r="AI295">
+        <v>1.91</v>
+      </c>
+      <c r="AJ295">
+        <v>1.8</v>
+      </c>
+      <c r="AK295">
+        <v>2.65</v>
+      </c>
+      <c r="AL295">
+        <v>1.2</v>
+      </c>
+      <c r="AM295">
+        <v>1.11</v>
+      </c>
+      <c r="AN295">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO295">
+        <v>1.69</v>
+      </c>
+      <c r="AP295">
+        <v>0.71</v>
+      </c>
+      <c r="AQ295">
+        <v>1.65</v>
+      </c>
+      <c r="AR295">
+        <v>1.1</v>
+      </c>
+      <c r="AS295">
+        <v>1.47</v>
+      </c>
+      <c r="AT295">
+        <v>2.57</v>
+      </c>
+      <c r="AU295">
+        <v>6</v>
+      </c>
+      <c r="AV295">
+        <v>7</v>
+      </c>
+      <c r="AW295">
+        <v>8</v>
+      </c>
+      <c r="AX295">
+        <v>11</v>
+      </c>
+      <c r="AY295">
+        <v>14</v>
+      </c>
+      <c r="AZ295">
+        <v>18</v>
+      </c>
+      <c r="BA295">
+        <v>2</v>
+      </c>
+      <c r="BB295">
+        <v>1</v>
+      </c>
+      <c r="BC295">
+        <v>3</v>
+      </c>
+      <c r="BD295">
+        <v>3.4</v>
+      </c>
+      <c r="BE295">
+        <v>6.75</v>
+      </c>
+      <c r="BF295">
+        <v>1.4</v>
+      </c>
+      <c r="BG295">
+        <v>1.36</v>
+      </c>
+      <c r="BH295">
+        <v>2.8</v>
+      </c>
+      <c r="BI295">
+        <v>1.63</v>
+      </c>
+      <c r="BJ295">
+        <v>2.12</v>
+      </c>
+      <c r="BK295">
+        <v>1.98</v>
+      </c>
+      <c r="BL295">
+        <v>1.72</v>
+      </c>
+      <c r="BM295">
+        <v>2.55</v>
+      </c>
+      <c r="BN295">
+        <v>1.45</v>
+      </c>
+      <c r="BO295">
+        <v>3.3</v>
+      </c>
+      <c r="BP295">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7469154</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>78</v>
+      </c>
+      <c r="H296" t="s">
+        <v>81</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>3</v>
+      </c>
+      <c r="M296">
+        <v>3</v>
+      </c>
+      <c r="N296">
+        <v>6</v>
+      </c>
+      <c r="O296" t="s">
+        <v>278</v>
+      </c>
+      <c r="P296" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q296">
+        <v>2.1</v>
+      </c>
+      <c r="R296">
+        <v>2.4</v>
+      </c>
+      <c r="S296">
+        <v>5</v>
+      </c>
+      <c r="T296">
+        <v>1.3</v>
+      </c>
+      <c r="U296">
+        <v>3.4</v>
+      </c>
+      <c r="V296">
+        <v>2.38</v>
+      </c>
+      <c r="W296">
+        <v>1.53</v>
+      </c>
+      <c r="X296">
+        <v>6</v>
+      </c>
+      <c r="Y296">
+        <v>1.13</v>
+      </c>
+      <c r="Z296">
+        <v>1.67</v>
+      </c>
+      <c r="AA296">
+        <v>3.93</v>
+      </c>
+      <c r="AB296">
+        <v>4.6</v>
+      </c>
+      <c r="AC296">
+        <v>1.04</v>
+      </c>
+      <c r="AD296">
+        <v>10</v>
+      </c>
+      <c r="AE296">
+        <v>1.2</v>
+      </c>
+      <c r="AF296">
+        <v>4.33</v>
+      </c>
+      <c r="AG296">
+        <v>1.6</v>
+      </c>
+      <c r="AH296">
+        <v>2.15</v>
+      </c>
+      <c r="AI296">
+        <v>1.67</v>
+      </c>
+      <c r="AJ296">
+        <v>2.1</v>
+      </c>
+      <c r="AK296">
+        <v>1.18</v>
+      </c>
+      <c r="AL296">
+        <v>1.23</v>
+      </c>
+      <c r="AM296">
+        <v>2.2</v>
+      </c>
+      <c r="AN296">
+        <v>2.19</v>
+      </c>
+      <c r="AO296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP296">
+        <v>2.12</v>
+      </c>
+      <c r="AQ296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR296">
+        <v>1.74</v>
+      </c>
+      <c r="AS296">
+        <v>1.43</v>
+      </c>
+      <c r="AT296">
+        <v>3.17</v>
+      </c>
+      <c r="AU296">
+        <v>9</v>
+      </c>
+      <c r="AV296">
+        <v>8</v>
+      </c>
+      <c r="AW296">
+        <v>7</v>
+      </c>
+      <c r="AX296">
+        <v>8</v>
+      </c>
+      <c r="AY296">
+        <v>16</v>
+      </c>
+      <c r="AZ296">
+        <v>16</v>
+      </c>
+      <c r="BA296">
+        <v>5</v>
+      </c>
+      <c r="BB296">
+        <v>8</v>
+      </c>
+      <c r="BC296">
+        <v>13</v>
+      </c>
+      <c r="BD296">
+        <v>1.54</v>
+      </c>
+      <c r="BE296">
+        <v>6.5</v>
+      </c>
+      <c r="BF296">
+        <v>2.7</v>
+      </c>
+      <c r="BG296">
+        <v>1.36</v>
+      </c>
+      <c r="BH296">
+        <v>2.8</v>
+      </c>
+      <c r="BI296">
+        <v>1.61</v>
+      </c>
+      <c r="BJ296">
+        <v>2.15</v>
+      </c>
+      <c r="BK296">
+        <v>1.95</v>
+      </c>
+      <c r="BL296">
+        <v>1.85</v>
+      </c>
+      <c r="BM296">
+        <v>2.5</v>
+      </c>
+      <c r="BN296">
+        <v>1.46</v>
+      </c>
+      <c r="BO296">
+        <v>3.3</v>
+      </c>
+      <c r="BP296">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7469158</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>70</v>
+      </c>
+      <c r="H297" t="s">
+        <v>84</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>3</v>
+      </c>
+      <c r="M297">
+        <v>2</v>
+      </c>
+      <c r="N297">
+        <v>5</v>
+      </c>
+      <c r="O297" t="s">
+        <v>279</v>
+      </c>
+      <c r="P297" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q297">
+        <v>3</v>
+      </c>
+      <c r="R297">
+        <v>2.1</v>
+      </c>
+      <c r="S297">
+        <v>3.6</v>
+      </c>
+      <c r="T297">
+        <v>1.4</v>
+      </c>
+      <c r="U297">
+        <v>2.75</v>
+      </c>
+      <c r="V297">
+        <v>3</v>
+      </c>
+      <c r="W297">
+        <v>1.36</v>
+      </c>
+      <c r="X297">
+        <v>8</v>
+      </c>
+      <c r="Y297">
+        <v>1.08</v>
+      </c>
+      <c r="Z297">
+        <v>2.28</v>
+      </c>
+      <c r="AA297">
+        <v>3.23</v>
+      </c>
+      <c r="AB297">
+        <v>3.09</v>
+      </c>
+      <c r="AC297">
+        <v>1.06</v>
+      </c>
+      <c r="AD297">
+        <v>8.5</v>
+      </c>
+      <c r="AE297">
+        <v>1.35</v>
+      </c>
+      <c r="AF297">
+        <v>3.1</v>
+      </c>
+      <c r="AG297">
+        <v>1.98</v>
+      </c>
+      <c r="AH297">
+        <v>1.77</v>
+      </c>
+      <c r="AI297">
+        <v>1.8</v>
+      </c>
+      <c r="AJ297">
+        <v>1.91</v>
+      </c>
+      <c r="AK297">
+        <v>1.37</v>
+      </c>
+      <c r="AL297">
+        <v>1.31</v>
+      </c>
+      <c r="AM297">
+        <v>1.58</v>
+      </c>
+      <c r="AN297">
+        <v>0.88</v>
+      </c>
+      <c r="AO297">
+        <v>1.25</v>
+      </c>
+      <c r="AP297">
+        <v>1</v>
+      </c>
+      <c r="AQ297">
+        <v>1.18</v>
+      </c>
+      <c r="AR297">
+        <v>1.44</v>
+      </c>
+      <c r="AS297">
+        <v>1.24</v>
+      </c>
+      <c r="AT297">
+        <v>2.68</v>
+      </c>
+      <c r="AU297">
+        <v>4</v>
+      </c>
+      <c r="AV297">
+        <v>4</v>
+      </c>
+      <c r="AW297">
+        <v>2</v>
+      </c>
+      <c r="AX297">
+        <v>11</v>
+      </c>
+      <c r="AY297">
+        <v>6</v>
+      </c>
+      <c r="AZ297">
+        <v>15</v>
+      </c>
+      <c r="BA297">
+        <v>0</v>
+      </c>
+      <c r="BB297">
+        <v>5</v>
+      </c>
+      <c r="BC297">
+        <v>5</v>
+      </c>
+      <c r="BD297">
+        <v>1.77</v>
+      </c>
+      <c r="BE297">
+        <v>6.4</v>
+      </c>
+      <c r="BF297">
+        <v>2.3</v>
+      </c>
+      <c r="BG297">
+        <v>1.42</v>
+      </c>
+      <c r="BH297">
+        <v>2.65</v>
+      </c>
+      <c r="BI297">
+        <v>1.71</v>
+      </c>
+      <c r="BJ297">
+        <v>2</v>
+      </c>
+      <c r="BK297">
+        <v>2.1</v>
+      </c>
+      <c r="BL297">
+        <v>1.64</v>
+      </c>
+      <c r="BM297">
+        <v>2.65</v>
+      </c>
+      <c r="BN297">
+        <v>1.4</v>
+      </c>
+      <c r="BO297">
+        <v>3.55</v>
+      </c>
+      <c r="BP297">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7469156</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45779.625</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>73</v>
+      </c>
+      <c r="H298" t="s">
+        <v>82</v>
+      </c>
+      <c r="I298">
+        <v>3</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298">
+        <v>4</v>
+      </c>
+      <c r="L298">
+        <v>4</v>
+      </c>
+      <c r="M298">
+        <v>2</v>
+      </c>
+      <c r="N298">
+        <v>6</v>
+      </c>
+      <c r="O298" t="s">
+        <v>280</v>
+      </c>
+      <c r="P298" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q298">
+        <v>3.5</v>
+      </c>
+      <c r="R298">
+        <v>2.25</v>
+      </c>
+      <c r="S298">
+        <v>2.88</v>
+      </c>
+      <c r="T298">
+        <v>1.36</v>
+      </c>
+      <c r="U298">
+        <v>3</v>
+      </c>
+      <c r="V298">
+        <v>2.63</v>
+      </c>
+      <c r="W298">
+        <v>1.44</v>
+      </c>
+      <c r="X298">
+        <v>7</v>
+      </c>
+      <c r="Y298">
+        <v>1.1</v>
+      </c>
+      <c r="Z298">
+        <v>2.84</v>
+      </c>
+      <c r="AA298">
+        <v>3.25</v>
+      </c>
+      <c r="AB298">
+        <v>2.44</v>
+      </c>
+      <c r="AC298">
+        <v>1.05</v>
+      </c>
+      <c r="AD298">
+        <v>9.5</v>
+      </c>
+      <c r="AE298">
+        <v>1.28</v>
+      </c>
+      <c r="AF298">
+        <v>3.65</v>
+      </c>
+      <c r="AG298">
+        <v>1.87</v>
+      </c>
+      <c r="AH298">
+        <v>1.87</v>
+      </c>
+      <c r="AI298">
+        <v>1.67</v>
+      </c>
+      <c r="AJ298">
+        <v>2.1</v>
+      </c>
+      <c r="AK298">
+        <v>1.58</v>
+      </c>
+      <c r="AL298">
+        <v>1.3</v>
+      </c>
+      <c r="AM298">
+        <v>1.39</v>
+      </c>
+      <c r="AN298">
+        <v>2</v>
+      </c>
+      <c r="AO298">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP298">
+        <v>2.06</v>
+      </c>
+      <c r="AQ298">
+        <v>0.76</v>
+      </c>
+      <c r="AR298">
+        <v>1.52</v>
+      </c>
+      <c r="AS298">
+        <v>1.44</v>
+      </c>
+      <c r="AT298">
+        <v>2.96</v>
+      </c>
+      <c r="AU298">
+        <v>8</v>
+      </c>
+      <c r="AV298">
+        <v>9</v>
+      </c>
+      <c r="AW298">
+        <v>1</v>
+      </c>
+      <c r="AX298">
+        <v>10</v>
+      </c>
+      <c r="AY298">
+        <v>9</v>
+      </c>
+      <c r="AZ298">
+        <v>19</v>
+      </c>
+      <c r="BA298">
+        <v>4</v>
+      </c>
+      <c r="BB298">
+        <v>5</v>
+      </c>
+      <c r="BC298">
+        <v>9</v>
+      </c>
+      <c r="BD298">
+        <v>2.18</v>
+      </c>
+      <c r="BE298">
+        <v>6.4</v>
+      </c>
+      <c r="BF298">
+        <v>1.82</v>
+      </c>
+      <c r="BG298">
+        <v>1.38</v>
+      </c>
+      <c r="BH298">
+        <v>2.8</v>
+      </c>
+      <c r="BI298">
+        <v>1.63</v>
+      </c>
+      <c r="BJ298">
+        <v>2.12</v>
+      </c>
+      <c r="BK298">
+        <v>1.98</v>
+      </c>
+      <c r="BL298">
+        <v>1.72</v>
+      </c>
+      <c r="BM298">
+        <v>2.55</v>
+      </c>
+      <c r="BN298">
+        <v>1.44</v>
+      </c>
+      <c r="BO298">
+        <v>3.3</v>
+      </c>
+      <c r="BP298">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -63315,19 +63315,19 @@
         <v>2.81</v>
       </c>
       <c r="AU300">
+        <v>8</v>
+      </c>
+      <c r="AV300">
+        <v>3</v>
+      </c>
+      <c r="AW300">
+        <v>6</v>
+      </c>
+      <c r="AX300">
         <v>9</v>
       </c>
-      <c r="AV300">
-        <v>2</v>
-      </c>
-      <c r="AW300">
-        <v>14</v>
-      </c>
-      <c r="AX300">
-        <v>15</v>
-      </c>
       <c r="AY300">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ300">
         <v>17</v>
@@ -63727,22 +63727,22 @@
         <v>2.77</v>
       </c>
       <c r="AU302">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV302">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW302">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX302">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY302">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ302">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA302">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -63333,13 +63333,13 @@
         <v>17</v>
       </c>
       <c r="BA300">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB300">
         <v>2</v>
       </c>
       <c r="BC300">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD300">
         <v>1.41</v>
@@ -63745,13 +63745,13 @@
         <v>12</v>
       </c>
       <c r="BA302">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB302">
         <v>2</v>
       </c>
       <c r="BC302">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD302">
         <v>1.68</v>
@@ -64572,10 +64572,10 @@
         <v>3</v>
       </c>
       <c r="BB306">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC306">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD306">
         <v>1.29</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1575,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ4">
         <v>1.18</v>
@@ -3975,7 +3975,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -8301,7 +8301,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ33">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ45">
         <v>0.76</v>
@@ -11803,7 +11803,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ50">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -12418,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ53">
         <v>0.82</v>
@@ -15096,7 +15096,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ66">
         <v>1.12</v>
@@ -15717,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR69">
         <v>1.24</v>
@@ -18804,7 +18804,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -19425,7 +19425,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ87">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR87">
         <v>1.77</v>
@@ -22924,7 +22924,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ104">
         <v>0.47</v>
@@ -25193,7 +25193,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ115">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR115">
         <v>1.94</v>
@@ -27456,7 +27456,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ126">
         <v>0.71</v>
@@ -28489,7 +28489,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ131">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR131">
         <v>0.99</v>
@@ -30549,7 +30549,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR141">
         <v>1.66</v>
@@ -31370,7 +31370,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ145">
         <v>0.47</v>
@@ -33845,7 +33845,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ157">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR157">
         <v>1.45</v>
@@ -36726,7 +36726,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ171">
         <v>1.47</v>
@@ -38171,7 +38171,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ178">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR178">
         <v>1.34</v>
@@ -39610,7 +39610,7 @@
         <v>1.22</v>
       </c>
       <c r="AP185">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ185">
         <v>1.18</v>
@@ -42085,7 +42085,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ197">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR197">
         <v>1.27</v>
@@ -43936,7 +43936,7 @@
         <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ206">
         <v>1.65</v>
@@ -44760,7 +44760,7 @@
         <v>1.18</v>
       </c>
       <c r="AP210">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ210">
         <v>0.9399999999999999</v>
@@ -45381,7 +45381,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ213">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR213">
         <v>1.24</v>
@@ -47441,7 +47441,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ223">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR223">
         <v>1.28</v>
@@ -50737,7 +50737,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ239">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR239">
         <v>1.72</v>
@@ -51352,7 +51352,7 @@
         <v>1.58</v>
       </c>
       <c r="AP242">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ242">
         <v>1.71</v>
@@ -55472,10 +55472,10 @@
         <v>1.57</v>
       </c>
       <c r="AP262">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ262">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR262">
         <v>1.6</v>
@@ -57944,7 +57944,7 @@
         <v>1</v>
       </c>
       <c r="AP274">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ274">
         <v>1</v>
@@ -58153,7 +58153,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ275">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR275">
         <v>1.54</v>
@@ -61652,7 +61652,7 @@
         <v>1.38</v>
       </c>
       <c r="AP292">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ292">
         <v>1.35</v>
@@ -64127,7 +64127,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ304">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR304">
         <v>1.72</v>
@@ -64821,6 +64821,212 @@
       </c>
       <c r="BP307">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7897670</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45791.64583333334</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308" t="s">
+        <v>72</v>
+      </c>
+      <c r="H308" t="s">
+        <v>75</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
+        <v>220</v>
+      </c>
+      <c r="P308" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q308">
+        <v>3</v>
+      </c>
+      <c r="R308">
+        <v>2.2</v>
+      </c>
+      <c r="S308">
+        <v>3.5</v>
+      </c>
+      <c r="T308">
+        <v>1.4</v>
+      </c>
+      <c r="U308">
+        <v>2.75</v>
+      </c>
+      <c r="V308">
+        <v>3</v>
+      </c>
+      <c r="W308">
+        <v>1.36</v>
+      </c>
+      <c r="X308">
+        <v>8</v>
+      </c>
+      <c r="Y308">
+        <v>1.08</v>
+      </c>
+      <c r="Z308">
+        <v>2.4</v>
+      </c>
+      <c r="AA308">
+        <v>3.22</v>
+      </c>
+      <c r="AB308">
+        <v>3.05</v>
+      </c>
+      <c r="AC308">
+        <v>1.1</v>
+      </c>
+      <c r="AD308">
+        <v>7.48</v>
+      </c>
+      <c r="AE308">
+        <v>1.36</v>
+      </c>
+      <c r="AF308">
+        <v>3.22</v>
+      </c>
+      <c r="AG308">
+        <v>2.03</v>
+      </c>
+      <c r="AH308">
+        <v>1.81</v>
+      </c>
+      <c r="AI308">
+        <v>1.73</v>
+      </c>
+      <c r="AJ308">
+        <v>2</v>
+      </c>
+      <c r="AK308">
+        <v>1.36</v>
+      </c>
+      <c r="AL308">
+        <v>1.28</v>
+      </c>
+      <c r="AM308">
+        <v>1.57</v>
+      </c>
+      <c r="AN308">
+        <v>1.65</v>
+      </c>
+      <c r="AO308">
+        <v>1.62</v>
+      </c>
+      <c r="AP308">
+        <v>1.69</v>
+      </c>
+      <c r="AQ308">
+        <v>1.57</v>
+      </c>
+      <c r="AR308">
+        <v>1.49</v>
+      </c>
+      <c r="AS308">
+        <v>1.59</v>
+      </c>
+      <c r="AT308">
+        <v>3.08</v>
+      </c>
+      <c r="AU308">
+        <v>5</v>
+      </c>
+      <c r="AV308">
+        <v>4</v>
+      </c>
+      <c r="AW308">
+        <v>7</v>
+      </c>
+      <c r="AX308">
+        <v>5</v>
+      </c>
+      <c r="AY308">
+        <v>13</v>
+      </c>
+      <c r="AZ308">
+        <v>9</v>
+      </c>
+      <c r="BA308">
+        <v>5</v>
+      </c>
+      <c r="BB308">
+        <v>5</v>
+      </c>
+      <c r="BC308">
+        <v>10</v>
+      </c>
+      <c r="BD308">
+        <v>1.8</v>
+      </c>
+      <c r="BE308">
+        <v>8.5</v>
+      </c>
+      <c r="BF308">
+        <v>2.2</v>
+      </c>
+      <c r="BG308">
+        <v>1.34</v>
+      </c>
+      <c r="BH308">
+        <v>2.78</v>
+      </c>
+      <c r="BI308">
+        <v>1.65</v>
+      </c>
+      <c r="BJ308">
+        <v>2.05</v>
+      </c>
+      <c r="BK308">
+        <v>2.12</v>
+      </c>
+      <c r="BL308">
+        <v>1.64</v>
+      </c>
+      <c r="BM308">
+        <v>2.84</v>
+      </c>
+      <c r="BN308">
+        <v>1.35</v>
+      </c>
+      <c r="BO308">
+        <v>3.92</v>
+      </c>
+      <c r="BP308">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1575,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ4">
         <v>1.18</v>
@@ -3975,7 +3975,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ26">
         <v>0.9399999999999999</v>
@@ -8301,7 +8301,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ33">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR33">
         <v>1.69</v>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ45">
         <v>0.76</v>
@@ -11803,7 +11803,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ50">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -12418,7 +12418,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ53">
         <v>0.82</v>
@@ -15096,7 +15096,7 @@
         <v>0.25</v>
       </c>
       <c r="AP66">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ66">
         <v>1.12</v>
@@ -15717,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR69">
         <v>1.24</v>
@@ -18804,7 +18804,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -19425,7 +19425,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ87">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR87">
         <v>1.77</v>
@@ -22924,7 +22924,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ104">
         <v>0.47</v>
@@ -25193,7 +25193,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ115">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR115">
         <v>1.94</v>
@@ -27456,7 +27456,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ126">
         <v>0.71</v>
@@ -28489,7 +28489,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ131">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR131">
         <v>0.99</v>
@@ -30549,7 +30549,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR141">
         <v>1.66</v>
@@ -31370,7 +31370,7 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ145">
         <v>0.47</v>
@@ -33845,7 +33845,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ157">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR157">
         <v>1.45</v>
@@ -36726,7 +36726,7 @@
         <v>1</v>
       </c>
       <c r="AP171">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ171">
         <v>1.47</v>
@@ -38171,7 +38171,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ178">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR178">
         <v>1.34</v>
@@ -38992,7 +38992,7 @@
         <v>1.22</v>
       </c>
       <c r="AP182">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ182">
         <v>1.18</v>
@@ -41879,7 +41879,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ196">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR196">
         <v>1.27</v>
@@ -43936,7 +43936,7 @@
         <v>1.82</v>
       </c>
       <c r="AP206">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ206">
         <v>1.65</v>
@@ -45172,7 +45172,7 @@
         <v>1.18</v>
       </c>
       <c r="AP212">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ212">
         <v>0.9399999999999999</v>
@@ -45381,7 +45381,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ213">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR213">
         <v>1.24</v>
@@ -47441,7 +47441,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ223">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR223">
         <v>1.28</v>
@@ -51149,7 +51149,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ241">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR241">
         <v>1.72</v>
@@ -51352,7 +51352,7 @@
         <v>1.58</v>
       </c>
       <c r="AP242">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ242">
         <v>1.71</v>
@@ -55472,10 +55472,10 @@
         <v>1.57</v>
       </c>
       <c r="AP262">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ262">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR262">
         <v>1.6</v>
@@ -57944,7 +57944,7 @@
         <v>1</v>
       </c>
       <c r="AP274">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ274">
         <v>1</v>
@@ -58359,7 +58359,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ276">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR276">
         <v>1.54</v>
@@ -61446,7 +61446,7 @@
         <v>1.38</v>
       </c>
       <c r="AP291">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ291">
         <v>1.35</v>
@@ -64127,7 +64127,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ304">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR304">
         <v>1.72</v>
@@ -64821,6 +64821,212 @@
       </c>
       <c r="BP307">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7897670</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45791.64583333334</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308" t="s">
+        <v>72</v>
+      </c>
+      <c r="H308" t="s">
+        <v>75</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
+        <v>221</v>
+      </c>
+      <c r="P308" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q308">
+        <v>3</v>
+      </c>
+      <c r="R308">
+        <v>2.2</v>
+      </c>
+      <c r="S308">
+        <v>3.5</v>
+      </c>
+      <c r="T308">
+        <v>1.4</v>
+      </c>
+      <c r="U308">
+        <v>2.75</v>
+      </c>
+      <c r="V308">
+        <v>3</v>
+      </c>
+      <c r="W308">
+        <v>1.36</v>
+      </c>
+      <c r="X308">
+        <v>8</v>
+      </c>
+      <c r="Y308">
+        <v>1.08</v>
+      </c>
+      <c r="Z308">
+        <v>2.4</v>
+      </c>
+      <c r="AA308">
+        <v>3.22</v>
+      </c>
+      <c r="AB308">
+        <v>3.05</v>
+      </c>
+      <c r="AC308">
+        <v>1.1</v>
+      </c>
+      <c r="AD308">
+        <v>7.48</v>
+      </c>
+      <c r="AE308">
+        <v>1.36</v>
+      </c>
+      <c r="AF308">
+        <v>3.22</v>
+      </c>
+      <c r="AG308">
+        <v>2.03</v>
+      </c>
+      <c r="AH308">
+        <v>1.81</v>
+      </c>
+      <c r="AI308">
+        <v>1.73</v>
+      </c>
+      <c r="AJ308">
+        <v>2</v>
+      </c>
+      <c r="AK308">
+        <v>1.36</v>
+      </c>
+      <c r="AL308">
+        <v>1.28</v>
+      </c>
+      <c r="AM308">
+        <v>1.57</v>
+      </c>
+      <c r="AN308">
+        <v>1.65</v>
+      </c>
+      <c r="AO308">
+        <v>1.62</v>
+      </c>
+      <c r="AP308">
+        <v>1.69</v>
+      </c>
+      <c r="AQ308">
+        <v>1.57</v>
+      </c>
+      <c r="AR308">
+        <v>1.49</v>
+      </c>
+      <c r="AS308">
+        <v>1.59</v>
+      </c>
+      <c r="AT308">
+        <v>3.08</v>
+      </c>
+      <c r="AU308">
+        <v>5</v>
+      </c>
+      <c r="AV308">
+        <v>4</v>
+      </c>
+      <c r="AW308">
+        <v>7</v>
+      </c>
+      <c r="AX308">
+        <v>5</v>
+      </c>
+      <c r="AY308">
+        <v>13</v>
+      </c>
+      <c r="AZ308">
+        <v>9</v>
+      </c>
+      <c r="BA308">
+        <v>5</v>
+      </c>
+      <c r="BB308">
+        <v>5</v>
+      </c>
+      <c r="BC308">
+        <v>10</v>
+      </c>
+      <c r="BD308">
+        <v>1.8</v>
+      </c>
+      <c r="BE308">
+        <v>8.5</v>
+      </c>
+      <c r="BF308">
+        <v>2.2</v>
+      </c>
+      <c r="BG308">
+        <v>1.34</v>
+      </c>
+      <c r="BH308">
+        <v>2.78</v>
+      </c>
+      <c r="BI308">
+        <v>1.65</v>
+      </c>
+      <c r="BJ308">
+        <v>2.05</v>
+      </c>
+      <c r="BK308">
+        <v>2.12</v>
+      </c>
+      <c r="BL308">
+        <v>1.64</v>
+      </c>
+      <c r="BM308">
+        <v>2.84</v>
+      </c>
+      <c r="BN308">
+        <v>1.35</v>
+      </c>
+      <c r="BO308">
+        <v>3.92</v>
+      </c>
+      <c r="BP308">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="401">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -874,6 +874,9 @@
     <t>['28', '46', '51']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -1575,7 +1578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP308"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1834,7 +1837,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -2246,7 +2249,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -3070,7 +3073,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3482,7 +3485,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3560,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
         <v>0.82</v>
@@ -4100,7 +4103,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4718,7 +4721,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4924,7 +4927,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5005,7 +5008,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ17">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5954,7 +5957,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -6366,7 +6369,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -7190,7 +7193,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7268,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
         <v>1.35</v>
@@ -7889,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -8220,7 +8223,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8838,7 +8841,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9044,7 +9047,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -9250,7 +9253,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9868,7 +9871,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q41">
         <v>2.75</v>
@@ -10074,7 +10077,7 @@
         <v>90</v>
       </c>
       <c r="P42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10280,7 +10283,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q43">
         <v>2.5</v>
@@ -10692,7 +10695,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q45">
         <v>3.25</v>
@@ -10976,7 +10979,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>1.47</v>
@@ -11594,7 +11597,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49">
         <v>1.18</v>
@@ -12546,7 +12549,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12752,7 +12755,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -13164,7 +13167,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13451,7 +13454,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ58">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13576,7 +13579,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13988,7 +13991,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q61">
         <v>2.62</v>
@@ -14194,7 +14197,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -15224,7 +15227,7 @@
         <v>142</v>
       </c>
       <c r="P67" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15842,7 +15845,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -16048,7 +16051,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16254,7 +16257,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16332,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ72">
         <v>0.47</v>
@@ -16872,7 +16875,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -17078,7 +17081,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17159,7 +17162,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ76">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17284,7 +17287,7 @@
         <v>90</v>
       </c>
       <c r="P77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17490,7 +17493,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17696,7 +17699,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17902,7 +17905,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18108,7 +18111,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18932,7 +18935,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -19422,7 +19425,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ87">
         <v>1.39</v>
@@ -19550,7 +19553,7 @@
         <v>157</v>
       </c>
       <c r="P88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19756,7 +19759,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q89">
         <v>2.38</v>
@@ -20580,7 +20583,7 @@
         <v>161</v>
       </c>
       <c r="P93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20786,7 +20789,7 @@
         <v>162</v>
       </c>
       <c r="P94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q94">
         <v>1.9</v>
@@ -20867,7 +20870,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ94">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR94">
         <v>2.11</v>
@@ -21404,7 +21407,7 @@
         <v>164</v>
       </c>
       <c r="P97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21816,7 +21819,7 @@
         <v>90</v>
       </c>
       <c r="P99" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q99">
         <v>4.75</v>
@@ -22640,7 +22643,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q103">
         <v>2.25</v>
@@ -23670,7 +23673,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23876,7 +23879,7 @@
         <v>90</v>
       </c>
       <c r="P109" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q109">
         <v>2.85</v>
@@ -24575,7 +24578,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ112">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR112">
         <v>1.14</v>
@@ -24700,7 +24703,7 @@
         <v>173</v>
       </c>
       <c r="P113" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -25112,7 +25115,7 @@
         <v>175</v>
       </c>
       <c r="P115" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q115">
         <v>2.4</v>
@@ -25602,7 +25605,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ117">
         <v>0.47</v>
@@ -26142,7 +26145,7 @@
         <v>178</v>
       </c>
       <c r="P120" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q120">
         <v>2.88</v>
@@ -26760,7 +26763,7 @@
         <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -29026,7 +29029,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29232,7 +29235,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29516,10 +29519,10 @@
         <v>1.17</v>
       </c>
       <c r="AP136">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ136">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR136">
         <v>1.62</v>
@@ -29644,7 +29647,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q137">
         <v>2.8</v>
@@ -31292,7 +31295,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31704,7 +31707,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31910,7 +31913,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -32116,7 +32119,7 @@
         <v>129</v>
       </c>
       <c r="P149" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>3.75</v>
@@ -32322,7 +32325,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q150">
         <v>3.75</v>
@@ -32528,7 +32531,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32812,7 +32815,7 @@
         <v>0.63</v>
       </c>
       <c r="AP152">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ152">
         <v>0.76</v>
@@ -32940,7 +32943,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -33021,7 +33024,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ153">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR153">
         <v>1.78</v>
@@ -33433,7 +33436,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ155">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR155">
         <v>1.52</v>
@@ -33558,7 +33561,7 @@
         <v>96</v>
       </c>
       <c r="P156" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q156">
         <v>2.55</v>
@@ -33764,7 +33767,7 @@
         <v>197</v>
       </c>
       <c r="P157" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33970,7 +33973,7 @@
         <v>198</v>
       </c>
       <c r="P158" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q158">
         <v>2.7</v>
@@ -34588,7 +34591,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q161">
         <v>2.75</v>
@@ -35824,7 +35827,7 @@
         <v>109</v>
       </c>
       <c r="P167" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q167">
         <v>3.35</v>
@@ -36236,7 +36239,7 @@
         <v>205</v>
       </c>
       <c r="P169" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q169">
         <v>2.8</v>
@@ -36442,7 +36445,7 @@
         <v>206</v>
       </c>
       <c r="P170" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -36520,7 +36523,7 @@
         <v>1.89</v>
       </c>
       <c r="AP170">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ170">
         <v>1.65</v>
@@ -36854,7 +36857,7 @@
         <v>90</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>2.63</v>
@@ -37060,7 +37063,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q173">
         <v>2.3</v>
@@ -37962,7 +37965,7 @@
         <v>0.78</v>
       </c>
       <c r="AP177">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ177">
         <v>1</v>
@@ -38090,7 +38093,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q178">
         <v>3.25</v>
@@ -38502,7 +38505,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q180">
         <v>2.2</v>
@@ -38708,7 +38711,7 @@
         <v>90</v>
       </c>
       <c r="P181" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q181">
         <v>3.25</v>
@@ -38789,7 +38792,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ181">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
         <v>1.42</v>
@@ -39944,7 +39947,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q187">
         <v>2.55</v>
@@ -40150,7 +40153,7 @@
         <v>215</v>
       </c>
       <c r="P188" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q188">
         <v>4.5</v>
@@ -40974,7 +40977,7 @@
         <v>90</v>
       </c>
       <c r="P192" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q192">
         <v>2.75</v>
@@ -41180,7 +41183,7 @@
         <v>90</v>
       </c>
       <c r="P193" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q193">
         <v>3.25</v>
@@ -41592,7 +41595,7 @@
         <v>214</v>
       </c>
       <c r="P195" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q195">
         <v>4.75</v>
@@ -41798,7 +41801,7 @@
         <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q196">
         <v>3.65</v>
@@ -42004,7 +42007,7 @@
         <v>218</v>
       </c>
       <c r="P197" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q197">
         <v>1.94</v>
@@ -42288,7 +42291,7 @@
         <v>1.3</v>
       </c>
       <c r="AP198">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ198">
         <v>0.9399999999999999</v>
@@ -42416,7 +42419,7 @@
         <v>90</v>
       </c>
       <c r="P199" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42497,7 +42500,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ199">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR199">
         <v>1.34</v>
@@ -43446,7 +43449,7 @@
         <v>161</v>
       </c>
       <c r="P204" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -43652,7 +43655,7 @@
         <v>90</v>
       </c>
       <c r="P205" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q205">
         <v>2.75</v>
@@ -44064,7 +44067,7 @@
         <v>90</v>
       </c>
       <c r="P207" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q207">
         <v>3.8</v>
@@ -45300,7 +45303,7 @@
         <v>226</v>
       </c>
       <c r="P213" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q213">
         <v>3.75</v>
@@ -45712,7 +45715,7 @@
         <v>228</v>
       </c>
       <c r="P215" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>2.95</v>
@@ -45918,7 +45921,7 @@
         <v>90</v>
       </c>
       <c r="P216" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q216">
         <v>1.96</v>
@@ -46202,7 +46205,7 @@
         <v>0.64</v>
       </c>
       <c r="AP217">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ217">
         <v>0.71</v>
@@ -46536,7 +46539,7 @@
         <v>229</v>
       </c>
       <c r="P219" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>4.3</v>
@@ -47154,7 +47157,7 @@
         <v>90</v>
       </c>
       <c r="P222" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q222">
         <v>2.7</v>
@@ -47360,7 +47363,7 @@
         <v>231</v>
       </c>
       <c r="P223" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q223">
         <v>3.65</v>
@@ -47566,7 +47569,7 @@
         <v>232</v>
       </c>
       <c r="P224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>5.2</v>
@@ -47978,7 +47981,7 @@
         <v>221</v>
       </c>
       <c r="P226" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q226">
         <v>4.4</v>
@@ -48059,7 +48062,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ226">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR226">
         <v>1.25</v>
@@ -48184,7 +48187,7 @@
         <v>234</v>
       </c>
       <c r="P227" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q227">
         <v>2.7</v>
@@ -48802,7 +48805,7 @@
         <v>90</v>
       </c>
       <c r="P230" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q230">
         <v>3.04</v>
@@ -49420,7 +49423,7 @@
         <v>238</v>
       </c>
       <c r="P233" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q233">
         <v>3.1</v>
@@ -49626,7 +49629,7 @@
         <v>239</v>
       </c>
       <c r="P234" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q234">
         <v>1.85</v>
@@ -49704,7 +49707,7 @@
         <v>1.31</v>
       </c>
       <c r="AP234">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ234">
         <v>1.18</v>
@@ -49913,7 +49916,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ235">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR235">
         <v>1.77</v>
@@ -50038,7 +50041,7 @@
         <v>241</v>
       </c>
       <c r="P236" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q236">
         <v>3.7</v>
@@ -50656,7 +50659,7 @@
         <v>243</v>
       </c>
       <c r="P239" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q239">
         <v>3.1</v>
@@ -51274,7 +51277,7 @@
         <v>245</v>
       </c>
       <c r="P242" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q242">
         <v>3.6</v>
@@ -51973,7 +51976,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR245">
         <v>1.81</v>
@@ -52098,7 +52101,7 @@
         <v>114</v>
       </c>
       <c r="P246" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q246">
         <v>3.6</v>
@@ -52588,7 +52591,7 @@
         <v>1.14</v>
       </c>
       <c r="AP248">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ248">
         <v>1.12</v>
@@ -53128,7 +53131,7 @@
         <v>251</v>
       </c>
       <c r="P251" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q251">
         <v>4.75</v>
@@ -53540,7 +53543,7 @@
         <v>253</v>
       </c>
       <c r="P253" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q253">
         <v>2.2</v>
@@ -54158,7 +54161,7 @@
         <v>194</v>
       </c>
       <c r="P256" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q256">
         <v>3.9</v>
@@ -54364,7 +54367,7 @@
         <v>133</v>
       </c>
       <c r="P257" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q257">
         <v>2.65</v>
@@ -54776,7 +54779,7 @@
         <v>256</v>
       </c>
       <c r="P259" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q259">
         <v>4.75</v>
@@ -55188,7 +55191,7 @@
         <v>258</v>
       </c>
       <c r="P261" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q261">
         <v>2.63</v>
@@ -55394,7 +55397,7 @@
         <v>259</v>
       </c>
       <c r="P262" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55681,7 +55684,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ263">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR263">
         <v>1.6</v>
@@ -55806,7 +55809,7 @@
         <v>260</v>
       </c>
       <c r="P264" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q264">
         <v>2.75</v>
@@ -56218,7 +56221,7 @@
         <v>261</v>
       </c>
       <c r="P266" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56630,7 +56633,7 @@
         <v>194</v>
       </c>
       <c r="P268" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q268">
         <v>7</v>
@@ -56836,7 +56839,7 @@
         <v>242</v>
       </c>
       <c r="P269" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q269">
         <v>3.9</v>
@@ -57042,7 +57045,7 @@
         <v>171</v>
       </c>
       <c r="P270" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q270">
         <v>5</v>
@@ -57248,7 +57251,7 @@
         <v>262</v>
       </c>
       <c r="P271" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q271">
         <v>2.3</v>
@@ -57454,7 +57457,7 @@
         <v>90</v>
       </c>
       <c r="P272" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58072,7 +58075,7 @@
         <v>242</v>
       </c>
       <c r="P275" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q275">
         <v>3.2</v>
@@ -58278,7 +58281,7 @@
         <v>265</v>
       </c>
       <c r="P276" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q276">
         <v>4.75</v>
@@ -58484,7 +58487,7 @@
         <v>90</v>
       </c>
       <c r="P277" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q277">
         <v>2.1</v>
@@ -58896,7 +58899,7 @@
         <v>267</v>
       </c>
       <c r="P279" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -58974,7 +58977,7 @@
         <v>0.87</v>
       </c>
       <c r="AP279">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ279">
         <v>0.88</v>
@@ -59720,7 +59723,7 @@
         <v>269</v>
       </c>
       <c r="P283" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q283">
         <v>2.2</v>
@@ -59926,7 +59929,7 @@
         <v>123</v>
       </c>
       <c r="P284" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q284">
         <v>2.55</v>
@@ -60132,7 +60135,7 @@
         <v>270</v>
       </c>
       <c r="P285" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q285">
         <v>1.75</v>
@@ -60419,7 +60422,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ286">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR286">
         <v>1.66</v>
@@ -61986,7 +61989,7 @@
         <v>277</v>
       </c>
       <c r="P294" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q294">
         <v>2.5</v>
@@ -62192,7 +62195,7 @@
         <v>278</v>
       </c>
       <c r="P295" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q295">
         <v>3.5</v>
@@ -62398,7 +62401,7 @@
         <v>95</v>
       </c>
       <c r="P296" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q296">
         <v>6.5</v>
@@ -62604,7 +62607,7 @@
         <v>279</v>
       </c>
       <c r="P297" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q297">
         <v>2.1</v>
@@ -62682,7 +62685,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP297">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ297">
         <v>0.9399999999999999</v>
@@ -62810,7 +62813,7 @@
         <v>280</v>
       </c>
       <c r="P298" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q298">
         <v>3</v>
@@ -63222,7 +63225,7 @@
         <v>281</v>
       </c>
       <c r="P300" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q300">
         <v>2.1</v>
@@ -63428,7 +63431,7 @@
         <v>282</v>
       </c>
       <c r="P301" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q301">
         <v>2.4</v>
@@ -63840,7 +63843,7 @@
         <v>283</v>
       </c>
       <c r="P303" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q303">
         <v>1.8</v>
@@ -64046,7 +64049,7 @@
         <v>109</v>
       </c>
       <c r="P304" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q304">
         <v>3.25</v>
@@ -64745,7 +64748,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ307">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR307">
         <v>1.28</v>
@@ -64948,7 +64951,7 @@
         <v>1.62</v>
       </c>
       <c r="AP308">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AQ308">
         <v>1.57</v>
@@ -65027,6 +65030,212 @@
       </c>
       <c r="BP308">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7899635</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45794.5</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309" t="s">
+        <v>78</v>
+      </c>
+      <c r="H309" t="s">
+        <v>72</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+      <c r="O309" t="s">
+        <v>286</v>
+      </c>
+      <c r="P309" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q309">
+        <v>2.25</v>
+      </c>
+      <c r="R309">
+        <v>2.2</v>
+      </c>
+      <c r="S309">
+        <v>4.5</v>
+      </c>
+      <c r="T309">
+        <v>1.33</v>
+      </c>
+      <c r="U309">
+        <v>3</v>
+      </c>
+      <c r="V309">
+        <v>2.55</v>
+      </c>
+      <c r="W309">
+        <v>1.45</v>
+      </c>
+      <c r="X309">
+        <v>6</v>
+      </c>
+      <c r="Y309">
+        <v>1.09</v>
+      </c>
+      <c r="Z309">
+        <v>1.81</v>
+      </c>
+      <c r="AA309">
+        <v>3.75</v>
+      </c>
+      <c r="AB309">
+        <v>4.21</v>
+      </c>
+      <c r="AC309">
+        <v>1.05</v>
+      </c>
+      <c r="AD309">
+        <v>9.5</v>
+      </c>
+      <c r="AE309">
+        <v>1.25</v>
+      </c>
+      <c r="AF309">
+        <v>3.8</v>
+      </c>
+      <c r="AG309">
+        <v>1.76</v>
+      </c>
+      <c r="AH309">
+        <v>1.98</v>
+      </c>
+      <c r="AI309">
+        <v>1.73</v>
+      </c>
+      <c r="AJ309">
+        <v>2</v>
+      </c>
+      <c r="AK309">
+        <v>1.2</v>
+      </c>
+      <c r="AL309">
+        <v>1.22</v>
+      </c>
+      <c r="AM309">
+        <v>2</v>
+      </c>
+      <c r="AN309">
+        <v>1.91</v>
+      </c>
+      <c r="AO309">
+        <v>1.69</v>
+      </c>
+      <c r="AP309">
+        <v>1.94</v>
+      </c>
+      <c r="AQ309">
+        <v>1.64</v>
+      </c>
+      <c r="AR309">
+        <v>1.6</v>
+      </c>
+      <c r="AS309">
+        <v>1.49</v>
+      </c>
+      <c r="AT309">
+        <v>3.09</v>
+      </c>
+      <c r="AU309">
+        <v>8</v>
+      </c>
+      <c r="AV309">
+        <v>4</v>
+      </c>
+      <c r="AW309">
+        <v>5</v>
+      </c>
+      <c r="AX309">
+        <v>5</v>
+      </c>
+      <c r="AY309">
+        <v>15</v>
+      </c>
+      <c r="AZ309">
+        <v>11</v>
+      </c>
+      <c r="BA309">
+        <v>1</v>
+      </c>
+      <c r="BB309">
+        <v>3</v>
+      </c>
+      <c r="BC309">
+        <v>4</v>
+      </c>
+      <c r="BD309">
+        <v>1.46</v>
+      </c>
+      <c r="BE309">
+        <v>6.75</v>
+      </c>
+      <c r="BF309">
+        <v>3.05</v>
+      </c>
+      <c r="BG309">
+        <v>1.43</v>
+      </c>
+      <c r="BH309">
+        <v>2.6</v>
+      </c>
+      <c r="BI309">
+        <v>1.72</v>
+      </c>
+      <c r="BJ309">
+        <v>1.98</v>
+      </c>
+      <c r="BK309">
+        <v>2.15</v>
+      </c>
+      <c r="BL309">
+        <v>1.63</v>
+      </c>
+      <c r="BM309">
+        <v>2.75</v>
+      </c>
+      <c r="BN309">
+        <v>1.38</v>
+      </c>
+      <c r="BO309">
+        <v>3.65</v>
+      </c>
+      <c r="BP309">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
